--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VYSHNAV1\vvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D79A18-8342-4703-9892-E2B3F42ADFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FFDC6C-FE0E-4B16-93C6-9B2A6DD9A6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1416" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4836" yWindow="2112" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="16">
   <si>
     <t>Mobile</t>
   </si>
@@ -58,22 +58,16 @@
     <t>NomineeRelation</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>KNR</t>
   </si>
   <si>
-    <t>PGM</t>
-  </si>
-  <si>
-    <t>027</t>
+    <t>NA</t>
   </si>
   <si>
     <t>UserId</t>
   </si>
   <si>
-    <t>TLY</t>
-  </si>
-  <si>
-    <t>KNR</t>
+    <t>PSR</t>
   </si>
 </sst>
 </file>
@@ -557,9 +551,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -915,16 +908,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -965,45 +957,45 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9947564588</v>
+        <v>9744803469</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -1011,40 +1003,40 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9947788359</v>
+        <v>9037792037</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -1052,40 +1044,40 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9947188751</v>
+        <v>9847858814</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -1093,40 +1085,40 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9847506426</v>
+        <v>9895167708</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -1134,40 +1126,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9447043811</v>
+        <v>9895249769</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -1175,40 +1167,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8606399985</v>
+        <v>9846080824</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1216,40 +1208,40 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9496718342</v>
+        <v>9847502982</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8">
         <v>5</v>
@@ -1257,40 +1249,40 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9446595209</v>
+        <v>9496400540</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>288</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1298,40 +1290,40 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8943661457</v>
+        <v>9567855486</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10">
         <v>5</v>
@@ -1339,40 +1331,40 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8547276896</v>
+        <v>9744363330</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1380,40 +1372,40 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8129339949</v>
+        <v>9895891164</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1421,40 +1413,40 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8943487555</v>
+        <v>7356100265</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -1462,40 +1454,40 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9747081503</v>
+        <v>9846016121</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -1503,40 +1495,40 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9961727519</v>
+        <v>9020467204</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M15">
         <v>5</v>
@@ -1544,40 +1536,40 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9656080148</v>
+        <v>9895554427</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -1585,40 +1577,40 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9400521752</v>
+        <v>7012724259</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -1626,40 +1618,40 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9495792511</v>
+        <v>7907056274</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18">
         <v>5</v>
@@ -1667,40 +1659,40 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9961832984</v>
+        <v>9895418453</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -1708,40 +1700,40 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9447961399</v>
+        <v>9447282672</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -1749,40 +1741,40 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9846406173</v>
+        <v>9447067493</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M21">
         <v>5</v>
@@ -1790,40 +1782,40 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>8157869316</v>
+        <v>9995550086</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M22">
         <v>5</v>
@@ -1831,40 +1823,40 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9747065052</v>
+        <v>9895093596</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M23">
         <v>5</v>
@@ -1872,40 +1864,40 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9497432076</v>
+        <v>9496111620</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M24">
         <v>5</v>
@@ -1913,40 +1905,40 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9400451456</v>
+        <v>9995685398</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M25">
         <v>5</v>
@@ -1954,40 +1946,40 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9946112474</v>
+        <v>8137959080</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M26">
         <v>5</v>
@@ -1995,40 +1987,40 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>8138927224</v>
+        <v>8547149259</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -2036,40 +2028,40 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>8281622488</v>
+        <v>8281245699</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M28">
         <v>5</v>
@@ -2077,40 +2069,40 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9747901997</v>
+        <v>9496560086</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M29">
         <v>5</v>
@@ -2118,40 +2110,40 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9947251602</v>
+        <v>9605994045</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M30">
         <v>5</v>
@@ -2159,40 +2151,40 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9895242783</v>
+        <v>9947966128</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M31">
         <v>5</v>
@@ -2200,40 +2192,40 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9744068228</v>
+        <v>9847506664</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M32">
         <v>5</v>
@@ -2241,40 +2233,40 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9496308820</v>
+        <v>9387711404</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M33">
         <v>5</v>
@@ -2282,40 +2274,40 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9656405076</v>
+        <v>9496489936</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M34">
         <v>5</v>
@@ -2323,40 +2315,40 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>9961456023</v>
+        <v>9995109755</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M35">
         <v>5</v>
@@ -2364,40 +2356,40 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9645806439</v>
+        <v>9995921726</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M36">
         <v>5</v>
@@ -2405,40 +2397,40 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>8281555767</v>
+        <v>9388705399</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M37">
         <v>5</v>
@@ -2446,40 +2438,40 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9744125577</v>
+        <v>9446677989</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M38">
         <v>5</v>
@@ -2487,40 +2479,40 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9447686331</v>
+        <v>6282811991</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M39">
         <v>5</v>
@@ -2528,40 +2520,40 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9497145288</v>
+        <v>9400751712</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M40">
         <v>5</v>
@@ -2569,40 +2561,40 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9961930293</v>
+        <v>9846989655</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C41">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M41">
         <v>5</v>
@@ -2610,40 +2602,40 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>7707781171</v>
+        <v>7736392006</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C42">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M42">
         <v>5</v>
@@ -2651,40 +2643,40 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9846929485</v>
+        <v>9995453120</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M43">
         <v>5</v>
@@ -2692,40 +2684,40 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8129585908</v>
+        <v>9846677441</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M44">
         <v>5</v>
@@ -2733,40 +2725,40 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9496863755</v>
+        <v>9400027872</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M45">
         <v>5</v>
@@ -2774,40 +2766,40 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8281956859</v>
+        <v>9895114617</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M46">
         <v>5</v>
@@ -2815,40 +2807,40 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9061122006</v>
+        <v>9847443556</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M47">
         <v>5</v>
@@ -2856,40 +2848,40 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9744910278</v>
+        <v>8589853085</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M48">
         <v>5</v>
@@ -2897,40 +2889,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9744343934</v>
+        <v>9446651513</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M49">
         <v>5</v>
@@ -2938,40 +2930,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9947347978</v>
+        <v>9447727782</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M50">
         <v>5</v>
@@ -2979,40 +2971,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9745619027</v>
+        <v>9847813052</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M51">
         <v>5</v>
@@ -3020,40 +3012,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9387982488</v>
+        <v>9562274797</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M52">
         <v>5</v>
@@ -3061,40 +3053,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9562763517</v>
+        <v>9995183746</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M53">
         <v>5</v>
@@ -3102,40 +3094,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9947872008</v>
+        <v>9633561061</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M54">
         <v>5</v>
@@ -3143,40 +3135,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9656062807</v>
+        <v>9846432013</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M55">
         <v>5</v>
@@ -3184,40 +3176,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9447961399</v>
+        <v>9567832604</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M56">
         <v>5</v>
@@ -3225,40 +3217,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9633096021</v>
+        <v>9895887739</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M57">
         <v>5</v>
@@ -3266,40 +3258,40 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>7356356120</v>
+        <v>9995597185</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M58">
         <v>5</v>
@@ -3307,40 +3299,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9747223911</v>
+        <v>9633188943</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M59">
         <v>5</v>
@@ -3348,40 +3340,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>7736606365</v>
+        <v>9746884362</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M60">
         <v>5</v>
@@ -3389,40 +3381,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>9400269782</v>
+        <v>9446654886</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M61">
         <v>5</v>
@@ -3430,40 +3422,40 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>8075056689</v>
+        <v>9544992899</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C62">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M62">
         <v>5</v>
@@ -3471,40 +3463,40 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9895839197</v>
+        <v>9846037777</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M63">
         <v>5</v>
@@ -3512,40 +3504,40 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9048218363</v>
+        <v>9446541282</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M64">
         <v>5</v>
@@ -3553,40 +3545,40 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9400577579</v>
+        <v>9847523371</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M65">
         <v>5</v>
@@ -3594,40 +3586,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>8129633643</v>
+        <v>7034771109</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M66">
         <v>5</v>
@@ -3635,40 +3627,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9633935986</v>
+        <v>9495954248</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M67">
         <v>5</v>
@@ -3679,37 +3671,37 @@
         <v>7012712114</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C68">
         <v>298</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M68">
         <v>5</v>
@@ -3720,37 +3712,37 @@
         <v>9633716387</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>298</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M69">
         <v>5</v>
@@ -3758,40 +3750,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>8848051925</v>
+        <v>8078354467</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M70">
         <v>5</v>
@@ -3799,40 +3791,40 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9746694276</v>
+        <v>9037428841</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M71">
         <v>5</v>
@@ -3840,40 +3832,40 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9188368921</v>
+        <v>9895496799</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M72">
         <v>5</v>
@@ -3881,40 +3873,40 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9847150154</v>
+        <v>9544078514</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C73">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M73">
         <v>5</v>
@@ -3922,40 +3914,40 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9995471321</v>
+        <v>9895499848</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M74">
         <v>5</v>
@@ -3963,40 +3955,40 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9846195010</v>
+        <v>9895407746</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M75">
         <v>5</v>
@@ -4004,40 +3996,40 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9846002489</v>
+        <v>9656674654</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M76">
         <v>5</v>
@@ -4045,40 +4037,40 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9567085525</v>
+        <v>9895402079</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M77">
         <v>5</v>
@@ -4086,40 +4078,40 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9447394326</v>
+        <v>9605297697</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M78">
         <v>5</v>
@@ -4127,40 +4119,40 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9946022666</v>
+        <v>9526664937</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M79">
         <v>5</v>
@@ -4168,40 +4160,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9496984099</v>
+        <v>9446075724</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M80">
         <v>5</v>
@@ -4209,40 +4201,40 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9497847439</v>
+        <v>9400877069</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M81">
         <v>5</v>
@@ -4250,40 +4242,40 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9447645072</v>
+        <v>9847640273</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M82">
         <v>5</v>
@@ -4291,40 +4283,40 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9037658843</v>
+        <v>9895793900</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M83">
         <v>5</v>
@@ -4332,40 +4324,40 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9895353523</v>
+        <v>9633053951</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C84">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M84">
         <v>5</v>
@@ -4373,40 +4365,40 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9895504782</v>
+        <v>9995601001</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M85">
         <v>5</v>
@@ -4414,40 +4406,40 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9895906093</v>
+        <v>8590794969</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C86">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M86">
         <v>5</v>
@@ -4455,40 +4447,40 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>9746757020</v>
+        <v>9947029991</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M87">
         <v>5</v>
@@ -4496,40 +4488,40 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9447406573</v>
+        <v>9400566945</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M88">
         <v>5</v>
@@ -4537,40 +4529,40 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>9048811310</v>
+        <v>7591919408</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C89">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M89">
         <v>5</v>
@@ -4578,40 +4570,40 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9995571274</v>
+        <v>9544638862</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M90">
         <v>5</v>
@@ -4619,40 +4611,40 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9495344993</v>
+        <v>9895494585</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M91">
         <v>5</v>
@@ -4660,40 +4652,40 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9496138621</v>
+        <v>9895996874</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M92">
         <v>5</v>
@@ -4701,40 +4693,40 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9400105578</v>
+        <v>9605420935</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M93">
         <v>5</v>
@@ -4742,40 +4734,40 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9495646421</v>
+        <v>9633193074</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M94">
         <v>5</v>
@@ -4783,40 +4775,40 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9447005051</v>
+        <v>9656917427</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M95">
         <v>5</v>
@@ -4824,40 +4816,40 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9847866499</v>
+        <v>6282552586</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C96">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M96">
         <v>5</v>
@@ -4865,40 +4857,40 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9746663111</v>
+        <v>9846798024</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C97">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M97">
         <v>5</v>
@@ -4906,40 +4898,40 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9847001707</v>
+        <v>8281357269</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M98">
         <v>5</v>
@@ -4947,40 +4939,40 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9495050893</v>
+        <v>9895427044</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C99">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M99">
         <v>5</v>
@@ -4988,47 +4980,743 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>8136924509</v>
+        <v>9447277826</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>9895184259</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>308</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" t="s">
+        <v>13</v>
+      </c>
+      <c r="L101" t="s">
+        <v>13</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>8547469912</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>308</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102" t="s">
+        <v>13</v>
+      </c>
+      <c r="M102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>9447217456</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>308</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" t="s">
+        <v>13</v>
+      </c>
+      <c r="L103" t="s">
+        <v>13</v>
+      </c>
+      <c r="M103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>9895445877</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>308</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104" t="s">
+        <v>13</v>
+      </c>
+      <c r="M104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>9645745747</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105">
+        <v>308</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" t="s">
+        <v>13</v>
+      </c>
+      <c r="L105" t="s">
+        <v>13</v>
+      </c>
+      <c r="M105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>9605472750</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>308</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" t="s">
+        <v>13</v>
+      </c>
+      <c r="L106" t="s">
+        <v>13</v>
+      </c>
+      <c r="M106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>9446836916</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107">
+        <v>308</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107" t="s">
+        <v>13</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>9961501071</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108">
+        <v>308</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" t="s">
+        <v>13</v>
+      </c>
+      <c r="L108" t="s">
+        <v>13</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>9447237242</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>308</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" t="s">
+        <v>13</v>
+      </c>
+      <c r="L109" t="s">
+        <v>13</v>
+      </c>
+      <c r="M109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>9995444898</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110">
+        <v>308</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110" t="s">
+        <v>13</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>7025885676</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111">
+        <v>308</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" t="s">
+        <v>13</v>
+      </c>
+      <c r="L111" t="s">
+        <v>13</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>9895159269</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <v>308</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" t="s">
+        <v>13</v>
+      </c>
+      <c r="L112" t="s">
+        <v>13</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>9747245298</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>308</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113" t="s">
+        <v>13</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>9447752149</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114">
+        <v>308</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" t="s">
+        <v>13</v>
+      </c>
+      <c r="K114" t="s">
+        <v>13</v>
+      </c>
+      <c r="L114" t="s">
+        <v>13</v>
+      </c>
+      <c r="M114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>9400562487</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>308</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" t="s">
+        <v>13</v>
+      </c>
+      <c r="L115" t="s">
+        <v>13</v>
+      </c>
+      <c r="M115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>8547137082</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>308</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" t="s">
+        <v>13</v>
+      </c>
+      <c r="L116" t="s">
+        <v>13</v>
+      </c>
+      <c r="M116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>9995241060</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117">
+        <v>308</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" t="s">
+        <v>13</v>
+      </c>
+      <c r="L117" t="s">
+        <v>13</v>
+      </c>
+      <c r="M117">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VYSHNAV1\vvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FFDC6C-FE0E-4B16-93C6-9B2A6DD9A6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75FF999-AA2D-41F4-95CD-8E7E5BEF9768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="2112" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6708" yWindow="312" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="16">
   <si>
     <t>Mobile</t>
   </si>
@@ -58,16 +58,16 @@
     <t>NomineeRelation</t>
   </si>
   <si>
-    <t>KNR</t>
+    <t>NA</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>PSR</t>
   </si>
   <si>
     <t>UserId</t>
   </si>
   <si>
-    <t>PSR</t>
+    <t>KNR</t>
   </si>
 </sst>
 </file>
@@ -908,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,40 +962,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9744803469</v>
+        <v>7907098729</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -1003,40 +1003,40 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9037792037</v>
+        <v>9847740379</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -1044,40 +1044,40 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9847858814</v>
+        <v>9847324389</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -1085,40 +1085,40 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9895167708</v>
+        <v>9744383512</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -1126,40 +1126,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9895249769</v>
+        <v>9656945676</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -1167,40 +1167,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9846080824</v>
+        <v>9947150582</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1208,40 +1208,40 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9847502982</v>
+        <v>8547905126</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8">
         <v>5</v>
@@ -1249,40 +1249,40 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9496400540</v>
+        <v>9747808491</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1290,40 +1290,40 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9567855486</v>
+        <v>9895655156</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10">
         <v>5</v>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9744363330</v>
+        <v>9745606059</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1372,40 +1372,40 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9895891164</v>
+        <v>9747908455</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1413,40 +1413,40 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7356100265</v>
+        <v>9961736141</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -1454,40 +1454,40 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9846016121</v>
+        <v>9605140392</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -1495,40 +1495,40 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9020467204</v>
+        <v>9447539692</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15">
         <v>5</v>
@@ -1536,40 +1536,40 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9895554427</v>
+        <v>7012322383</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -1577,40 +1577,40 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7012724259</v>
+        <v>9947988910</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -1618,40 +1618,40 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7907056274</v>
+        <v>8590884200</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18">
         <v>5</v>
@@ -1659,40 +1659,40 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9895418453</v>
+        <v>9995589124</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -1700,40 +1700,40 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9447282672</v>
+        <v>8089135356</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -1741,40 +1741,40 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9447067493</v>
+        <v>9895455965</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M21">
         <v>5</v>
@@ -1782,40 +1782,40 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9995550086</v>
+        <v>8907723523</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22">
         <v>5</v>
@@ -1823,40 +1823,40 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9895093596</v>
+        <v>9633575279</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23">
         <v>5</v>
@@ -1864,40 +1864,40 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9496111620</v>
+        <v>9847016518</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M24">
         <v>5</v>
@@ -1905,40 +1905,40 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9995685398</v>
+        <v>9495059998</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M25">
         <v>5</v>
@@ -1946,40 +1946,40 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>8137959080</v>
+        <v>9895276725</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M26">
         <v>5</v>
@@ -1987,40 +1987,40 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>8547149259</v>
+        <v>9946022353</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C27">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -2028,40 +2028,40 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>8281245699</v>
+        <v>8138094411</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M28">
         <v>5</v>
@@ -2069,40 +2069,40 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9496560086</v>
+        <v>7012324895</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M29">
         <v>5</v>
@@ -2110,40 +2110,40 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9605994045</v>
+        <v>8086746073</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M30">
         <v>5</v>
@@ -2151,40 +2151,40 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9947966128</v>
+        <v>9895478216</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M31">
         <v>5</v>
@@ -2192,40 +2192,40 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9847506664</v>
+        <v>9846065767</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M32">
         <v>5</v>
@@ -2233,40 +2233,40 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9387711404</v>
+        <v>9400572332</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M33">
         <v>5</v>
@@ -2274,40 +2274,40 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9496489936</v>
+        <v>9995349241</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M34">
         <v>5</v>
@@ -2315,40 +2315,40 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>9995109755</v>
+        <v>8547217752</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M35">
         <v>5</v>
@@ -2356,40 +2356,40 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9995921726</v>
+        <v>9995380857</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M36">
         <v>5</v>
@@ -2397,40 +2397,40 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9388705399</v>
+        <v>9447006516</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M37">
         <v>5</v>
@@ -2438,40 +2438,40 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9446677989</v>
+        <v>9744807282</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M38">
         <v>5</v>
@@ -2479,40 +2479,40 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>6282811991</v>
+        <v>9526194450</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M39">
         <v>5</v>
@@ -2520,40 +2520,40 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9400751712</v>
+        <v>8281692635</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M40">
         <v>5</v>
@@ -2561,40 +2561,40 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9846989655</v>
+        <v>8129643039</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M41">
         <v>5</v>
@@ -2602,40 +2602,40 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>7736392006</v>
+        <v>9746681290</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M42">
         <v>5</v>
@@ -2643,40 +2643,40 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9995453120</v>
+        <v>9633478974</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M43">
         <v>5</v>
@@ -2684,40 +2684,40 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9846677441</v>
+        <v>9847725982</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M44">
         <v>5</v>
@@ -2725,40 +2725,40 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9400027872</v>
+        <v>9846965644</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M45">
         <v>5</v>
@@ -2766,40 +2766,40 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9895114617</v>
+        <v>8606517671</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M46">
         <v>5</v>
@@ -2807,40 +2807,40 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9847443556</v>
+        <v>9496638625</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M47">
         <v>5</v>
@@ -2848,40 +2848,40 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>8589853085</v>
+        <v>9846814669</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M48">
         <v>5</v>
@@ -2889,40 +2889,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9446651513</v>
+        <v>9961736339</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M49">
         <v>5</v>
@@ -2930,40 +2930,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9447727782</v>
+        <v>8907724102</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M50">
         <v>5</v>
@@ -2971,40 +2971,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9847813052</v>
+        <v>9447269715</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M51">
         <v>5</v>
@@ -3012,40 +3012,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9562274797</v>
+        <v>9846099362</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M52">
         <v>5</v>
@@ -3053,40 +3053,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9995183746</v>
+        <v>9895317135</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M53">
         <v>5</v>
@@ -3094,40 +3094,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9633561061</v>
+        <v>9895575215</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M54">
         <v>5</v>
@@ -3135,40 +3135,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9846432013</v>
+        <v>9847947248</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M55">
         <v>5</v>
@@ -3176,40 +3176,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9567832604</v>
+        <v>8281060442</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M56">
         <v>5</v>
@@ -3217,40 +3217,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9895887739</v>
+        <v>9895135873</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M57">
         <v>5</v>
@@ -3258,40 +3258,40 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9995597185</v>
+        <v>9447705617</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M58">
         <v>5</v>
@@ -3299,40 +3299,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9633188943</v>
+        <v>9495337778</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M59">
         <v>5</v>
@@ -3340,40 +3340,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9746884362</v>
+        <v>8547370651</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M60">
         <v>5</v>
@@ -3381,40 +3381,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>9446654886</v>
+        <v>9544193982</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M61">
         <v>5</v>
@@ -3422,40 +3422,40 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9544992899</v>
+        <v>9746386257</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C62">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M62">
         <v>5</v>
@@ -3463,40 +3463,40 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9846037777</v>
+        <v>9995256711</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M63">
         <v>5</v>
@@ -3504,40 +3504,40 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9446541282</v>
+        <v>9809443698</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M64">
         <v>5</v>
@@ -3545,40 +3545,40 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9847523371</v>
+        <v>9846605356</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M65">
         <v>5</v>
@@ -3586,40 +3586,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>7034771109</v>
+        <v>9995185187</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M66">
         <v>5</v>
@@ -3627,40 +3627,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9495954248</v>
+        <v>9207913795</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M67">
         <v>5</v>
@@ -3668,40 +3668,40 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>7012712114</v>
+        <v>9446496257</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C68">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M68">
         <v>5</v>
@@ -3709,40 +3709,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9633716387</v>
+        <v>9526882250</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M69">
         <v>5</v>
@@ -3750,40 +3750,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>8078354467</v>
+        <v>9846817770</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M70">
         <v>5</v>
@@ -3791,40 +3791,40 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9037428841</v>
+        <v>9846179484</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M71">
         <v>5</v>
@@ -3832,40 +3832,40 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9895496799</v>
+        <v>9809382745</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M72">
         <v>5</v>
@@ -3873,40 +3873,40 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9544078514</v>
+        <v>9656369526</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M73">
         <v>5</v>
@@ -3914,40 +3914,40 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9895499848</v>
+        <v>8547234221</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M74">
         <v>5</v>
@@ -3955,40 +3955,40 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9895407746</v>
+        <v>9847116249</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M75">
         <v>5</v>
@@ -3996,40 +3996,40 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9656674654</v>
+        <v>9496355416</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M76">
         <v>5</v>
@@ -4037,40 +4037,40 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9895402079</v>
+        <v>9747842362</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M77">
         <v>5</v>
@@ -4078,40 +4078,40 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9605297697</v>
+        <v>9961797420</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M78">
         <v>5</v>
@@ -4119,40 +4119,40 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9526664937</v>
+        <v>9995230642</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M79">
         <v>5</v>
@@ -4160,40 +4160,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9446075724</v>
+        <v>9074180725</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M80">
         <v>5</v>
@@ -4201,40 +4201,40 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9400877069</v>
+        <v>9447372459</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M81">
         <v>5</v>
@@ -4242,40 +4242,40 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9847640273</v>
+        <v>9847891260</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M82">
         <v>5</v>
@@ -4283,40 +4283,40 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9895793900</v>
+        <v>9495327527</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M83">
         <v>5</v>
@@ -4324,40 +4324,40 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9633053951</v>
+        <v>9447486880</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M84">
         <v>5</v>
@@ -4365,40 +4365,40 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9995601001</v>
+        <v>9400648251</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M85">
         <v>5</v>
@@ -4406,40 +4406,40 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>8590794969</v>
+        <v>9446265882</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M86">
         <v>5</v>
@@ -4447,40 +4447,40 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>9947029991</v>
+        <v>9995443243</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M87">
         <v>5</v>
@@ -4488,40 +4488,40 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9400566945</v>
+        <v>9995274767</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M88">
         <v>5</v>
@@ -4529,40 +4529,40 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>7591919408</v>
+        <v>7907405180</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M89">
         <v>5</v>
@@ -4570,40 +4570,40 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9544638862</v>
+        <v>9847065013</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M90">
         <v>5</v>
@@ -4611,40 +4611,40 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9895494585</v>
+        <v>9744006777</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M91">
         <v>5</v>
@@ -4652,40 +4652,40 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9895996874</v>
+        <v>8129506055</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M92">
         <v>5</v>
@@ -4693,40 +4693,40 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9605420935</v>
+        <v>9388888890</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M93">
         <v>5</v>
@@ -4734,40 +4734,40 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9633193074</v>
+        <v>9895053121</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M94">
         <v>5</v>
@@ -4775,40 +4775,40 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9656917427</v>
+        <v>9388363141</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M95">
         <v>5</v>
@@ -4816,40 +4816,40 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>6282552586</v>
+        <v>9349526220</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M96">
         <v>5</v>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9846798024</v>
+        <v>9446267486</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M97">
         <v>5</v>
@@ -4898,40 +4898,40 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>8281357269</v>
+        <v>9544333811</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M98">
         <v>5</v>
@@ -4939,40 +4939,40 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9895427044</v>
+        <v>9847166546</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M99">
         <v>5</v>
@@ -4980,40 +4980,40 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9447277826</v>
+        <v>9947160228</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M100">
         <v>5</v>
@@ -5021,40 +5021,40 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9895184259</v>
+        <v>9496831115</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M101">
         <v>5</v>
@@ -5062,40 +5062,40 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>8547469912</v>
+        <v>9745558636</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M102">
         <v>5</v>
@@ -5103,40 +5103,40 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9447217456</v>
+        <v>9947005882</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M103">
         <v>5</v>
@@ -5144,575 +5144,42 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9895445877</v>
+        <v>8281713599</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>9645745747</v>
-      </c>
-      <c r="B105" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105">
-        <v>308</v>
-      </c>
-      <c r="D105" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" t="s">
-        <v>13</v>
-      </c>
-      <c r="K105" t="s">
-        <v>13</v>
-      </c>
-      <c r="L105" t="s">
-        <v>13</v>
-      </c>
-      <c r="M105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>9605472750</v>
-      </c>
-      <c r="B106" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106">
-        <v>308</v>
-      </c>
-      <c r="D106" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" t="s">
-        <v>13</v>
-      </c>
-      <c r="J106" t="s">
-        <v>13</v>
-      </c>
-      <c r="K106" t="s">
-        <v>13</v>
-      </c>
-      <c r="L106" t="s">
-        <v>13</v>
-      </c>
-      <c r="M106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>9446836916</v>
-      </c>
-      <c r="B107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107">
-        <v>308</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" t="s">
-        <v>13</v>
-      </c>
-      <c r="J107" t="s">
-        <v>13</v>
-      </c>
-      <c r="K107" t="s">
-        <v>13</v>
-      </c>
-      <c r="L107" t="s">
-        <v>13</v>
-      </c>
-      <c r="M107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>9961501071</v>
-      </c>
-      <c r="B108" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108">
-        <v>308</v>
-      </c>
-      <c r="D108" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" t="s">
-        <v>13</v>
-      </c>
-      <c r="J108" t="s">
-        <v>13</v>
-      </c>
-      <c r="K108" t="s">
-        <v>13</v>
-      </c>
-      <c r="L108" t="s">
-        <v>13</v>
-      </c>
-      <c r="M108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>9447237242</v>
-      </c>
-      <c r="B109" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109">
-        <v>308</v>
-      </c>
-      <c r="D109" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" t="s">
-        <v>13</v>
-      </c>
-      <c r="J109" t="s">
-        <v>13</v>
-      </c>
-      <c r="K109" t="s">
-        <v>13</v>
-      </c>
-      <c r="L109" t="s">
-        <v>13</v>
-      </c>
-      <c r="M109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>9995444898</v>
-      </c>
-      <c r="B110" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110">
-        <v>308</v>
-      </c>
-      <c r="D110" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" t="s">
-        <v>13</v>
-      </c>
-      <c r="J110" t="s">
-        <v>13</v>
-      </c>
-      <c r="K110" t="s">
-        <v>13</v>
-      </c>
-      <c r="L110" t="s">
-        <v>13</v>
-      </c>
-      <c r="M110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>7025885676</v>
-      </c>
-      <c r="B111" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111">
-        <v>308</v>
-      </c>
-      <c r="D111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" t="s">
-        <v>13</v>
-      </c>
-      <c r="J111" t="s">
-        <v>13</v>
-      </c>
-      <c r="K111" t="s">
-        <v>13</v>
-      </c>
-      <c r="L111" t="s">
-        <v>13</v>
-      </c>
-      <c r="M111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>9895159269</v>
-      </c>
-      <c r="B112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112">
-        <v>308</v>
-      </c>
-      <c r="D112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" t="s">
-        <v>13</v>
-      </c>
-      <c r="J112" t="s">
-        <v>13</v>
-      </c>
-      <c r="K112" t="s">
-        <v>13</v>
-      </c>
-      <c r="L112" t="s">
-        <v>13</v>
-      </c>
-      <c r="M112">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>9747245298</v>
-      </c>
-      <c r="B113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113">
-        <v>308</v>
-      </c>
-      <c r="D113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" t="s">
-        <v>13</v>
-      </c>
-      <c r="J113" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" t="s">
-        <v>13</v>
-      </c>
-      <c r="L113" t="s">
-        <v>13</v>
-      </c>
-      <c r="M113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>9447752149</v>
-      </c>
-      <c r="B114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114">
-        <v>308</v>
-      </c>
-      <c r="D114" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" t="s">
-        <v>13</v>
-      </c>
-      <c r="J114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K114" t="s">
-        <v>13</v>
-      </c>
-      <c r="L114" t="s">
-        <v>13</v>
-      </c>
-      <c r="M114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>9400562487</v>
-      </c>
-      <c r="B115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115">
-        <v>308</v>
-      </c>
-      <c r="D115" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" t="s">
-        <v>13</v>
-      </c>
-      <c r="J115" t="s">
-        <v>13</v>
-      </c>
-      <c r="K115" t="s">
-        <v>13</v>
-      </c>
-      <c r="L115" t="s">
-        <v>13</v>
-      </c>
-      <c r="M115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>8547137082</v>
-      </c>
-      <c r="B116" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116">
-        <v>308</v>
-      </c>
-      <c r="D116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" t="s">
-        <v>13</v>
-      </c>
-      <c r="J116" t="s">
-        <v>13</v>
-      </c>
-      <c r="K116" t="s">
-        <v>13</v>
-      </c>
-      <c r="L116" t="s">
-        <v>13</v>
-      </c>
-      <c r="M116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>9995241060</v>
-      </c>
-      <c r="B117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117">
-        <v>308</v>
-      </c>
-      <c r="D117" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" t="s">
-        <v>13</v>
-      </c>
-      <c r="J117" t="s">
-        <v>13</v>
-      </c>
-      <c r="K117" t="s">
-        <v>13</v>
-      </c>
-      <c r="L117" t="s">
-        <v>13</v>
-      </c>
-      <c r="M117">
         <v>5</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VYSHNAV1\vvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75FF999-AA2D-41F4-95CD-8E7E5BEF9768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9993CFD-5A1E-4400-B45A-FCD47A3AED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6708" yWindow="312" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6852" yWindow="540" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="19">
   <si>
     <t>Mobile</t>
   </si>
@@ -61,13 +61,22 @@
     <t>NA</t>
   </si>
   <si>
-    <t>PSR</t>
+    <t>KNR</t>
   </si>
   <si>
     <t>UserId</t>
   </si>
   <si>
-    <t>KNR</t>
+    <t>PNR</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>PSR</t>
+  </si>
+  <si>
+    <t>TLY</t>
   </si>
 </sst>
 </file>
@@ -551,8 +560,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -908,15 +918,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -962,13 +973,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7907098729</v>
+        <v>9995415382</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1003,13 +1014,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9847740379</v>
+        <v>8848894869</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1044,13 +1055,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9847324389</v>
+        <v>9895901575</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1085,13 +1096,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9744383512</v>
+        <v>9745748165</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1126,13 +1137,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9656945676</v>
+        <v>9895449912</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1167,13 +1178,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9947150582</v>
+        <v>9746390734</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1208,13 +1219,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8547905126</v>
+        <v>9656840208</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1249,13 +1260,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9747808491</v>
+        <v>9633755162</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1290,13 +1301,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9895655156</v>
+        <v>9526048741</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1331,13 +1342,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9745606059</v>
+        <v>9496486513</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1372,13 +1383,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9747908455</v>
+        <v>9895237354</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1413,13 +1424,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9961736141</v>
+        <v>9744259346</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>312</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1454,13 +1465,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9605140392</v>
+        <v>9847608469</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>303</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1495,13 +1506,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9447539692</v>
+        <v>9562357517</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>303</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1536,13 +1547,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7012322383</v>
+        <v>8138990134</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>303</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1577,13 +1588,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9947988910</v>
+        <v>9744361824</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>303</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1618,13 +1629,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>8590884200</v>
+        <v>8547985393</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>303</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1659,13 +1670,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9995589124</v>
+        <v>9847522247</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>303</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1700,13 +1711,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>8089135356</v>
+        <v>9526116996</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
-        <v>289</v>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1741,13 +1752,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9895455965</v>
+        <v>8330860934</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
-        <v>289</v>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1782,13 +1793,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>8907723523</v>
+        <v>9400214140</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22">
-        <v>289</v>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1823,13 +1834,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9633575279</v>
+        <v>6282714949</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23">
-        <v>289</v>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1864,13 +1875,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9847016518</v>
+        <v>9744378058</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24">
-        <v>289</v>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1905,13 +1916,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9495059998</v>
+        <v>9544622692</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25">
-        <v>289</v>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1946,13 +1957,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9895276725</v>
+        <v>9447052310</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26">
-        <v>289</v>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1987,13 +1998,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9946022353</v>
+        <v>8547283983</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27">
-        <v>289</v>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -2028,13 +2039,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>8138094411</v>
+        <v>9349070163</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28">
-        <v>289</v>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -2069,13 +2080,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>7012324895</v>
+        <v>9744318034</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29">
-        <v>289</v>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -2110,13 +2121,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>8086746073</v>
+        <v>9605571493</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30">
-        <v>289</v>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -2151,13 +2162,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9895478216</v>
+        <v>9961612050</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31">
-        <v>289</v>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -2192,13 +2203,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9846065767</v>
+        <v>9447913678</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
-      <c r="C32">
-        <v>289</v>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -2233,13 +2244,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9400572332</v>
+        <v>8086134375</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33">
-        <v>289</v>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -2274,13 +2285,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9995349241</v>
+        <v>9846725401</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34">
-        <v>289</v>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -2315,13 +2326,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>8547217752</v>
+        <v>9847049650</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35">
-        <v>289</v>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -2356,13 +2367,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9995380857</v>
+        <v>9449277189</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C36">
-        <v>289</v>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -2397,13 +2408,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9447006516</v>
+        <v>9656932020</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37">
-        <v>289</v>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2438,13 +2449,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9744807282</v>
+        <v>9961027563</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38">
-        <v>289</v>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2479,13 +2490,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9526194450</v>
+        <v>9746375803</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39">
-        <v>289</v>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2520,13 +2531,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8281692635</v>
+        <v>9048582313</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40">
-        <v>289</v>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2561,13 +2572,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8129643039</v>
+        <v>9400754870</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41">
-        <v>289</v>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2602,13 +2613,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9746681290</v>
+        <v>9947282320</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
-      <c r="C42">
-        <v>289</v>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2643,13 +2654,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9633478974</v>
+        <v>9946575832</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="C43">
-        <v>289</v>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2684,13 +2695,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9847725982</v>
+        <v>9847835990</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C44">
-        <v>289</v>
+      <c r="C44" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2725,13 +2736,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9846965644</v>
+        <v>7034344281</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45">
-        <v>289</v>
+      <c r="C45" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2766,13 +2777,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8606517671</v>
+        <v>8921589965</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
-      <c r="C46">
-        <v>289</v>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2807,13 +2818,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9496638625</v>
+        <v>9544424333</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47">
-        <v>289</v>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2848,13 +2859,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9846814669</v>
+        <v>9605141608</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
-      <c r="C48">
-        <v>289</v>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2889,13 +2900,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9961736339</v>
+        <v>8606066003</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
-      <c r="C49">
-        <v>289</v>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -2930,13 +2941,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>8907724102</v>
+        <v>9447302515</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50">
-        <v>289</v>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2971,13 +2982,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9447269715</v>
+        <v>7510823254</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
-      <c r="C51">
-        <v>289</v>
+      <c r="C51" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -3012,13 +3023,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9846099362</v>
+        <v>9048238883</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="C52">
-        <v>289</v>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -3053,13 +3064,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9895317135</v>
+        <v>9995257927</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -3094,13 +3105,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9895575215</v>
+        <v>9747390756</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -3135,13 +3146,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9847947248</v>
+        <v>9895445394</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3176,13 +3187,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>8281060442</v>
+        <v>9633742525</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -3217,13 +3228,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9895135873</v>
+        <v>9961242141</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -3258,13 +3269,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9447705617</v>
+        <v>9562324216</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -3299,13 +3310,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9495337778</v>
+        <v>9745805410</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3340,13 +3351,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>8547370651</v>
+        <v>9847129093</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -3381,13 +3392,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>9544193982</v>
+        <v>8606594624</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C61">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -3422,13 +3433,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9746386257</v>
+        <v>9447643383</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C62">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -3463,13 +3474,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9995256711</v>
+        <v>9961962805</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C63">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -3504,13 +3515,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9809443698</v>
+        <v>9846489473</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C64">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -3545,13 +3556,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9846605356</v>
+        <v>9995133397</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -3586,13 +3597,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>9995185187</v>
+        <v>9400684359</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C66">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -3627,13 +3638,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9207913795</v>
+        <v>9946992216</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -3668,13 +3679,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>9446496257</v>
+        <v>9562320368</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -3709,13 +3720,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9526882250</v>
+        <v>9447359106</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C69">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -3750,13 +3761,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9846817770</v>
+        <v>9544997800</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3791,13 +3802,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9846179484</v>
+        <v>9495233320</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C71">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3832,13 +3843,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9809382745</v>
+        <v>9846565155</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C72">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3873,13 +3884,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9656369526</v>
+        <v>9847486538</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3914,13 +3925,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>8547234221</v>
+        <v>9526881674</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3955,13 +3966,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9847116249</v>
+        <v>9947543692</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C75">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3996,13 +4007,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9496355416</v>
+        <v>9447954250</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -4037,13 +4048,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9747842362</v>
+        <v>9447363667</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -4078,13 +4089,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9961797420</v>
+        <v>9995799827</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C78">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -4119,13 +4130,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9995230642</v>
+        <v>9061166033</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -4160,13 +4171,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9074180725</v>
+        <v>9495615962</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -4201,13 +4212,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9447372459</v>
+        <v>9746219333</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -4242,13 +4253,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9847891260</v>
+        <v>9895265870</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -4283,13 +4294,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9495327527</v>
+        <v>9744460770</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C83">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -4324,13 +4335,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9447486880</v>
+        <v>8606594656</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -4365,13 +4376,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9400648251</v>
+        <v>9645148079</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C85">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -4406,13 +4417,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9446265882</v>
+        <v>9605993793</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C86">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -4447,13 +4458,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>9995443243</v>
+        <v>9747131821</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C87">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -4488,13 +4499,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9995274767</v>
+        <v>9895773923</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C88">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -4529,13 +4540,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>7907405180</v>
+        <v>9544899839</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C89">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -4570,13 +4581,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9847065013</v>
+        <v>9747539759</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C90">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -4611,13 +4622,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9744006777</v>
+        <v>9072394053</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -4652,13 +4663,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>8129506055</v>
+        <v>9745221163</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -4693,13 +4704,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9388888890</v>
+        <v>9895834360</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -4734,13 +4745,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9895053121</v>
+        <v>7593046602</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C94">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -4775,13 +4786,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9388363141</v>
+        <v>9447550275</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -4816,13 +4827,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9349526220</v>
+        <v>9846880355</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C96">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -4857,13 +4868,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9446267486</v>
+        <v>9446676994</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -4898,13 +4909,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9544333811</v>
+        <v>9895600594</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C98">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -4939,13 +4950,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9847166546</v>
+        <v>9446211248</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C99">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -4980,13 +4991,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9947160228</v>
+        <v>9809719809</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -5021,13 +5032,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9496831115</v>
+        <v>9847764847</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -5062,13 +5073,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9745558636</v>
+        <v>9656721434</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -5103,13 +5114,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9947005882</v>
+        <v>9544061796</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -5144,13 +5155,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>8281713599</v>
+        <v>9747552772</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -5180,6 +5191,1318 @@
         <v>12</v>
       </c>
       <c r="M104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>8086036847</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <v>202</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" t="s">
+        <v>12</v>
+      </c>
+      <c r="K105" t="s">
+        <v>12</v>
+      </c>
+      <c r="L105" t="s">
+        <v>12</v>
+      </c>
+      <c r="M105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>9947137842</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106">
+        <v>202</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" t="s">
+        <v>12</v>
+      </c>
+      <c r="K106" t="s">
+        <v>12</v>
+      </c>
+      <c r="L106" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>9961384273</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>202</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" t="s">
+        <v>12</v>
+      </c>
+      <c r="K107" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>9656450469</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108">
+        <v>202</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" t="s">
+        <v>12</v>
+      </c>
+      <c r="K108" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" t="s">
+        <v>12</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>9497764454</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109">
+        <v>202</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" t="s">
+        <v>12</v>
+      </c>
+      <c r="K109" t="s">
+        <v>12</v>
+      </c>
+      <c r="L109" t="s">
+        <v>12</v>
+      </c>
+      <c r="M109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>9544209593</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>202</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" t="s">
+        <v>12</v>
+      </c>
+      <c r="K110" t="s">
+        <v>12</v>
+      </c>
+      <c r="L110" t="s">
+        <v>12</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>9544041062</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>202</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" t="s">
+        <v>12</v>
+      </c>
+      <c r="K111" t="s">
+        <v>12</v>
+      </c>
+      <c r="L111" t="s">
+        <v>12</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>8547297417</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>202</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" t="s">
+        <v>12</v>
+      </c>
+      <c r="K112" t="s">
+        <v>12</v>
+      </c>
+      <c r="L112" t="s">
+        <v>12</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>9544421239</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113">
+        <v>202</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" t="s">
+        <v>12</v>
+      </c>
+      <c r="K113" t="s">
+        <v>12</v>
+      </c>
+      <c r="L113" t="s">
+        <v>12</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>7012788481</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>202</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" t="s">
+        <v>12</v>
+      </c>
+      <c r="K114" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114" t="s">
+        <v>12</v>
+      </c>
+      <c r="M114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>9961381922</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115">
+        <v>202</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" t="s">
+        <v>12</v>
+      </c>
+      <c r="K115" t="s">
+        <v>12</v>
+      </c>
+      <c r="L115" t="s">
+        <v>12</v>
+      </c>
+      <c r="M115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>9539418220</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>202</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" t="s">
+        <v>12</v>
+      </c>
+      <c r="K116" t="s">
+        <v>12</v>
+      </c>
+      <c r="L116" t="s">
+        <v>12</v>
+      </c>
+      <c r="M116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>8301898616</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117">
+        <v>202</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" t="s">
+        <v>12</v>
+      </c>
+      <c r="K117" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" t="s">
+        <v>12</v>
+      </c>
+      <c r="M117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>8547054282</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118">
+        <v>202</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" t="s">
+        <v>12</v>
+      </c>
+      <c r="K118" t="s">
+        <v>12</v>
+      </c>
+      <c r="L118" t="s">
+        <v>12</v>
+      </c>
+      <c r="M118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>9605199256</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119">
+        <v>202</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" t="s">
+        <v>12</v>
+      </c>
+      <c r="K119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L119" t="s">
+        <v>12</v>
+      </c>
+      <c r="M119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>9947614988</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120">
+        <v>202</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" t="s">
+        <v>12</v>
+      </c>
+      <c r="K120" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" t="s">
+        <v>12</v>
+      </c>
+      <c r="M120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>9495014240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121">
+        <v>202</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" t="s">
+        <v>12</v>
+      </c>
+      <c r="K121" t="s">
+        <v>12</v>
+      </c>
+      <c r="L121" t="s">
+        <v>12</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>8129126736</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>202</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122" t="s">
+        <v>12</v>
+      </c>
+      <c r="M122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>9747537587</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <v>202</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" t="s">
+        <v>12</v>
+      </c>
+      <c r="K123" t="s">
+        <v>12</v>
+      </c>
+      <c r="L123" t="s">
+        <v>12</v>
+      </c>
+      <c r="M123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>9207475121</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124">
+        <v>202</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" t="s">
+        <v>12</v>
+      </c>
+      <c r="K124" t="s">
+        <v>12</v>
+      </c>
+      <c r="L124" t="s">
+        <v>12</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>8129878467</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>202</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" t="s">
+        <v>12</v>
+      </c>
+      <c r="K125" t="s">
+        <v>12</v>
+      </c>
+      <c r="L125" t="s">
+        <v>12</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>9947995574</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126">
+        <v>202</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" t="s">
+        <v>12</v>
+      </c>
+      <c r="K126" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" t="s">
+        <v>12</v>
+      </c>
+      <c r="M126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>9995483245</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>202</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" t="s">
+        <v>12</v>
+      </c>
+      <c r="J127" t="s">
+        <v>12</v>
+      </c>
+      <c r="K127" t="s">
+        <v>12</v>
+      </c>
+      <c r="L127" t="s">
+        <v>12</v>
+      </c>
+      <c r="M127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>9562901944</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>202</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" t="s">
+        <v>12</v>
+      </c>
+      <c r="J128" t="s">
+        <v>12</v>
+      </c>
+      <c r="K128" t="s">
+        <v>12</v>
+      </c>
+      <c r="L128" t="s">
+        <v>12</v>
+      </c>
+      <c r="M128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>9400951614</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>202</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129" t="s">
+        <v>12</v>
+      </c>
+      <c r="K129" t="s">
+        <v>12</v>
+      </c>
+      <c r="L129" t="s">
+        <v>12</v>
+      </c>
+      <c r="M129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>9744732915</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>202</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" t="s">
+        <v>12</v>
+      </c>
+      <c r="J130" t="s">
+        <v>12</v>
+      </c>
+      <c r="K130" t="s">
+        <v>12</v>
+      </c>
+      <c r="L130" t="s">
+        <v>12</v>
+      </c>
+      <c r="M130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>9961384111</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <v>202</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" t="s">
+        <v>12</v>
+      </c>
+      <c r="J131" t="s">
+        <v>12</v>
+      </c>
+      <c r="K131" t="s">
+        <v>12</v>
+      </c>
+      <c r="L131" t="s">
+        <v>12</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>9747305948</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132">
+        <v>202</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" t="s">
+        <v>12</v>
+      </c>
+      <c r="J132" t="s">
+        <v>12</v>
+      </c>
+      <c r="K132" t="s">
+        <v>12</v>
+      </c>
+      <c r="L132" t="s">
+        <v>12</v>
+      </c>
+      <c r="M132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>9847800955</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133">
+        <v>202</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" t="s">
+        <v>12</v>
+      </c>
+      <c r="K133" t="s">
+        <v>12</v>
+      </c>
+      <c r="L133" t="s">
+        <v>12</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>8078542254</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134">
+        <v>202</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134" t="s">
+        <v>12</v>
+      </c>
+      <c r="K134" t="s">
+        <v>12</v>
+      </c>
+      <c r="L134" t="s">
+        <v>12</v>
+      </c>
+      <c r="M134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>7025614896</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135">
+        <v>202</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" t="s">
+        <v>12</v>
+      </c>
+      <c r="K135" t="s">
+        <v>12</v>
+      </c>
+      <c r="L135" t="s">
+        <v>12</v>
+      </c>
+      <c r="M135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>9847930326</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>202</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" t="s">
+        <v>12</v>
+      </c>
+      <c r="J136" t="s">
+        <v>12</v>
+      </c>
+      <c r="K136" t="s">
+        <v>12</v>
+      </c>
+      <c r="L136" t="s">
+        <v>12</v>
+      </c>
+      <c r="M136">
         <v>5</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VYSHNAV1\vvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9993CFD-5A1E-4400-B45A-FCD47A3AED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E955F-0478-4A83-B109-5E865D352372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6852" yWindow="540" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="17">
   <si>
     <t>Mobile</t>
   </si>
@@ -58,25 +58,19 @@
     <t>NomineeRelation</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>KNR</t>
   </si>
   <si>
-    <t>KNR</t>
+    <t>NA</t>
   </si>
   <si>
     <t>UserId</t>
   </si>
   <si>
-    <t>PNR</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
     <t>PSR</t>
   </si>
   <si>
-    <t>TLY</t>
+    <t>MTR</t>
   </si>
 </sst>
 </file>
@@ -560,9 +554,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,16 +911,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -973,1106 +971,1106 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9995415382</v>
+        <v>9961453109</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8848894869</v>
+        <v>9947144301</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9895901575</v>
+        <v>9633614940</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9745748165</v>
+        <v>7559011277</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9895449912</v>
+        <v>9846776383</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9746390734</v>
+        <v>9567923480</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9656840208</v>
+        <v>9746165917</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9633755162</v>
+        <v>9400993039</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9526048741</v>
+        <v>9496557210</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9496486513</v>
+        <v>9605298936</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9895237354</v>
+        <v>9633859531</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9744259346</v>
+        <v>8714298936</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9847608469</v>
+        <v>9846688980</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>296</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9562357517</v>
+        <v>9895234857</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>296</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>8138990134</v>
+        <v>8547386568</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>296</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9744361824</v>
+        <v>9895811836</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>8547985393</v>
+        <v>9895435623</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>296</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9847522247</v>
+        <v>9995106491</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>296</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9526116996</v>
+        <v>9895352432</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>8330860934</v>
+        <v>8547392082</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>296</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9400214140</v>
+        <v>9744267894</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>296</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>6282714949</v>
+        <v>9746458321</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>296</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9744378058</v>
+        <v>8078035755</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9544622692</v>
+        <v>9947117025</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9447052310</v>
+        <v>9847321890</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>296</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>8547283983</v>
+        <v>9745840400</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>296</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9349070163</v>
+        <v>9895237048</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>280</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M28">
         <v>5</v>
@@ -2080,40 +2078,40 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9744318034</v>
+        <v>9656942494</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M29">
         <v>5</v>
@@ -2121,40 +2119,40 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9605571493</v>
+        <v>9895250124</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>280</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M30">
         <v>5</v>
@@ -2162,40 +2160,40 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9961612050</v>
+        <v>7736423607</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>280</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M31">
         <v>5</v>
@@ -2203,40 +2201,40 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9447913678</v>
+        <v>8136933641</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>280</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M32">
         <v>5</v>
@@ -2244,40 +2242,40 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>8086134375</v>
+        <v>9847365774</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>280</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M33">
         <v>5</v>
@@ -2285,40 +2283,40 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9846725401</v>
+        <v>9895859025</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>280</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M34">
         <v>5</v>
@@ -2326,40 +2324,40 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>9847049650</v>
+        <v>9895367124</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M35">
         <v>5</v>
@@ -2367,40 +2365,40 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9449277189</v>
+        <v>9895301215</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>16</v>
+      <c r="C36">
+        <v>313</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M36">
         <v>5</v>
@@ -2408,40 +2406,40 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9656932020</v>
+        <v>9895331165</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
+      <c r="C37">
+        <v>313</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M37">
         <v>5</v>
@@ -2449,40 +2447,40 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9961027563</v>
+        <v>9895846085</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
+      <c r="C38">
+        <v>313</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M38">
         <v>5</v>
@@ -2490,40 +2488,40 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9746375803</v>
+        <v>9895834318</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>16</v>
+      <c r="C39">
+        <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M39">
         <v>5</v>
@@ -2531,40 +2529,40 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9048582313</v>
+        <v>9895806585</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>16</v>
+      <c r="C40">
+        <v>313</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M40">
         <v>5</v>
@@ -2572,40 +2570,40 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9400754870</v>
+        <v>9995609501</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>16</v>
+      <c r="C41">
+        <v>313</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M41">
         <v>5</v>
@@ -2613,40 +2611,40 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9947282320</v>
+        <v>9633074830</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>16</v>
+      <c r="C42">
+        <v>313</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M42">
         <v>5</v>
@@ -2654,40 +2652,40 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9946575832</v>
+        <v>9746248717</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>16</v>
+      <c r="C43">
+        <v>313</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M43">
         <v>5</v>
@@ -2695,40 +2693,40 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9847835990</v>
+        <v>9747546037</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M44">
         <v>5</v>
@@ -2736,40 +2734,40 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>7034344281</v>
+        <v>9847877604</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M45">
         <v>5</v>
@@ -2777,40 +2775,40 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8921589965</v>
+        <v>9447644347</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M46">
         <v>5</v>
@@ -2818,40 +2816,40 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9544424333</v>
+        <v>9526083161</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M47">
         <v>5</v>
@@ -2859,40 +2857,40 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9605141608</v>
+        <v>9961003898</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M48">
         <v>5</v>
@@ -2900,40 +2898,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>8606066003</v>
+        <v>9207624751</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M49">
         <v>5</v>
@@ -2941,40 +2939,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9447302515</v>
+        <v>9947969619</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M50">
         <v>5</v>
@@ -2982,40 +2980,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>7510823254</v>
+        <v>8547325524</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M51">
         <v>5</v>
@@ -3023,40 +3021,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9048238883</v>
+        <v>9846587415</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M52">
         <v>5</v>
@@ -3064,40 +3062,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9995257927</v>
+        <v>9847082470</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M53">
         <v>5</v>
@@ -3105,40 +3103,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9747390756</v>
+        <v>9400485784</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M54">
         <v>5</v>
@@ -3146,40 +3144,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9895445394</v>
+        <v>9744318719</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M55">
         <v>5</v>
@@ -3187,40 +3185,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9633742525</v>
+        <v>8129328463</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M56">
         <v>5</v>
@@ -3228,40 +3226,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9961242141</v>
+        <v>8086046351</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M57">
         <v>5</v>
@@ -3269,40 +3267,40 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9562324216</v>
+        <v>8606059417</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M58">
         <v>5</v>
@@ -3310,40 +3308,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9745805410</v>
+        <v>9744069969</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M59">
         <v>5</v>
@@ -3351,40 +3349,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9847129093</v>
+        <v>9744900662</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M60">
         <v>5</v>
@@ -3392,40 +3390,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>8606594624</v>
+        <v>8289943569</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M61">
         <v>5</v>
@@ -3433,40 +3431,40 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9447643383</v>
+        <v>9447936325</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M62">
         <v>5</v>
@@ -3474,40 +3472,40 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9961962805</v>
+        <v>9446672457</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M63">
         <v>5</v>
@@ -3515,40 +3513,40 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9846489473</v>
+        <v>9746749848</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M64">
         <v>5</v>
@@ -3556,40 +3554,40 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9995133397</v>
+        <v>9495375174</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M65">
         <v>5</v>
@@ -3597,40 +3595,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>9400684359</v>
+        <v>9495460376</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M66">
         <v>5</v>
@@ -3638,40 +3636,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9946992216</v>
+        <v>9645112032</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M67">
         <v>5</v>
@@ -3679,40 +3677,40 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>9562320368</v>
+        <v>9447935657</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M68">
         <v>5</v>
@@ -3720,40 +3718,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9447359106</v>
+        <v>9447683013</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M69">
         <v>5</v>
@@ -3761,40 +3759,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9544997800</v>
+        <v>9447371469</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M70">
         <v>5</v>
@@ -3802,40 +3800,40 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9495233320</v>
+        <v>9562115661</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M71">
         <v>5</v>
@@ -3843,40 +3841,40 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9846565155</v>
+        <v>9744610839</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M72">
         <v>5</v>
@@ -3884,40 +3882,40 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9847486538</v>
+        <v>9539660055</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M73">
         <v>5</v>
@@ -3925,40 +3923,40 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9526881674</v>
+        <v>9995938438</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M74">
         <v>5</v>
@@ -3966,40 +3964,40 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9947543692</v>
+        <v>9388654055</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M75">
         <v>5</v>
@@ -4007,40 +4005,40 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9447954250</v>
+        <v>9048433617</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M76">
         <v>5</v>
@@ -4048,40 +4046,40 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9447363667</v>
+        <v>9446776023</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M77">
         <v>5</v>
@@ -4089,40 +4087,40 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9995799827</v>
+        <v>9972610850</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M78">
         <v>5</v>
@@ -4130,40 +4128,40 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9061166033</v>
+        <v>9446190133</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M79">
         <v>5</v>
@@ -4171,40 +4169,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9495615962</v>
+        <v>9656945282</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M80">
         <v>5</v>
@@ -4212,40 +4210,40 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9746219333</v>
+        <v>9567259588</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M81">
         <v>5</v>
@@ -4253,40 +4251,40 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9895265870</v>
+        <v>9526984235</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M82">
         <v>5</v>
@@ -4294,40 +4292,40 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9744460770</v>
+        <v>8156997040</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M83">
         <v>5</v>
@@ -4335,40 +4333,40 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>8606594656</v>
+        <v>9747095869</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M84">
         <v>5</v>
@@ -4376,40 +4374,40 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9645148079</v>
+        <v>9495615252</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M85">
         <v>5</v>
@@ -4417,40 +4415,40 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9605993793</v>
+        <v>9207899498</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M86">
         <v>5</v>
@@ -4458,40 +4456,40 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>9747131821</v>
+        <v>9605457484</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M87">
         <v>5</v>
@@ -4499,40 +4497,40 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9895773923</v>
+        <v>9747724288</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M88">
         <v>5</v>
@@ -4540,40 +4538,40 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>9544899839</v>
+        <v>9847056937</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M89">
         <v>5</v>
@@ -4581,40 +4579,40 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9747539759</v>
+        <v>9496400194</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M90">
         <v>5</v>
@@ -4622,40 +4620,40 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9072394053</v>
+        <v>9495068076</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M91">
         <v>5</v>
@@ -4663,40 +4661,40 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9745221163</v>
+        <v>9947549403</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M92">
         <v>5</v>
@@ -4704,40 +4702,40 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9895834360</v>
+        <v>9846126720</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M93">
         <v>5</v>
@@ -4745,40 +4743,40 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>7593046602</v>
+        <v>9964749589</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M94">
         <v>5</v>
@@ -4786,40 +4784,40 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9447550275</v>
+        <v>8281786987</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M95">
         <v>5</v>
@@ -4827,40 +4825,40 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9846880355</v>
+        <v>7909160296</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M96">
         <v>5</v>
@@ -4868,40 +4866,40 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9446676994</v>
+        <v>9495619130</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M97">
         <v>5</v>
@@ -4909,40 +4907,40 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9895600594</v>
+        <v>9562477957</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M98">
         <v>5</v>
@@ -4950,40 +4948,40 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9446211248</v>
+        <v>9847838776</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M99">
         <v>5</v>
@@ -4991,40 +4989,40 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9809719809</v>
+        <v>9744323604</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M100">
         <v>5</v>
@@ -5032,40 +5030,40 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9847764847</v>
+        <v>9745159082</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C101">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M101">
         <v>5</v>
@@ -5073,40 +5071,40 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9656721434</v>
+        <v>9446658177</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M102">
         <v>5</v>
@@ -5114,40 +5112,40 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9544061796</v>
+        <v>9946854652</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C103">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M103">
         <v>5</v>
@@ -5155,40 +5153,40 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9747552772</v>
+        <v>9747796542</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M104">
         <v>5</v>
@@ -5196,40 +5194,40 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>8086036847</v>
+        <v>9048853215</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M105">
         <v>5</v>
@@ -5237,40 +5235,40 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>9947137842</v>
+        <v>9847399431</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M106">
         <v>5</v>
@@ -5278,40 +5276,40 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9961384273</v>
+        <v>8590666762</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M107">
         <v>5</v>
@@ -5319,40 +5317,40 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9656450469</v>
+        <v>9400085742</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C108">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M108">
         <v>5</v>
@@ -5360,40 +5358,40 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>9497764454</v>
+        <v>9947989362</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C109">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M109">
         <v>5</v>
@@ -5401,40 +5399,40 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>9544209593</v>
+        <v>9446063088</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C110">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M110">
         <v>5</v>
@@ -5442,40 +5440,40 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>9544041062</v>
+        <v>9207947845</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C111">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M111">
         <v>5</v>
@@ -5483,40 +5481,40 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>8547297417</v>
+        <v>6282076418</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C112">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M112">
         <v>5</v>
@@ -5524,40 +5522,40 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>9544421239</v>
+        <v>9446265858</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C113">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M113">
         <v>5</v>
@@ -5565,40 +5563,40 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>7012788481</v>
+        <v>7625933600</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C114">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M114">
         <v>5</v>
@@ -5606,40 +5604,40 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>9961381922</v>
+        <v>9446133972</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C115">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M115">
         <v>5</v>
@@ -5647,40 +5645,40 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>9539418220</v>
+        <v>8281067289</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C116">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M116">
         <v>5</v>
@@ -5688,40 +5686,40 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>8301898616</v>
+        <v>9645086180</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C117">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M117">
         <v>5</v>
@@ -5729,40 +5727,40 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>8547054282</v>
+        <v>8281853472</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C118">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M118">
         <v>5</v>
@@ -5770,40 +5768,40 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>9605199256</v>
+        <v>9446674726</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C119">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M119">
         <v>5</v>
@@ -5811,40 +5809,40 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>9947614988</v>
+        <v>9497605001</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M120">
         <v>5</v>
@@ -5852,40 +5850,40 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>9495014240</v>
+        <v>9645138142</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C121">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M121">
         <v>5</v>
@@ -5893,40 +5891,40 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>8129126736</v>
+        <v>9446675183</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C122">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M122">
         <v>5</v>
@@ -5934,40 +5932,40 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>9747537587</v>
+        <v>9744074376</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C123">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M123">
         <v>5</v>
@@ -5975,40 +5973,40 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>9207475121</v>
+        <v>9744074376</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C124">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M124">
         <v>5</v>
@@ -6016,40 +6014,40 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>8129878467</v>
+        <v>9961084933</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C125">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M125">
         <v>5</v>
@@ -6057,40 +6055,40 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>9947995574</v>
+        <v>9447314465</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M126">
         <v>5</v>
@@ -6098,40 +6096,40 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>9995483245</v>
+        <v>9495754848</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C127">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M127">
         <v>5</v>
@@ -6139,40 +6137,40 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>9562901944</v>
+        <v>9562052727</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M128">
         <v>5</v>
@@ -6180,40 +6178,40 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>9400951614</v>
+        <v>9400478008</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M129">
         <v>5</v>
@@ -6221,40 +6219,40 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>9744732915</v>
+        <v>8281612314</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C130">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M130">
         <v>5</v>
@@ -6262,40 +6260,40 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>9961384111</v>
+        <v>8921136784</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C131">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M131">
         <v>5</v>
@@ -6303,40 +6301,40 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>9747305948</v>
+        <v>9037348072</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C132">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M132">
         <v>5</v>
@@ -6344,40 +6342,40 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>9847800955</v>
+        <v>9895591456</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C133">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M133">
         <v>5</v>
@@ -6385,40 +6383,40 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>8078542254</v>
+        <v>9847002022</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C134">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M134">
         <v>5</v>
@@ -6426,40 +6424,40 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>7025614896</v>
+        <v>7356929320</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C135">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M135">
         <v>5</v>
@@ -6467,42 +6465,575 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>9847930326</v>
+        <v>9947002022</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C136">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" t="s">
+        <v>13</v>
+      </c>
+      <c r="K136" t="s">
+        <v>13</v>
+      </c>
+      <c r="L136" t="s">
+        <v>13</v>
+      </c>
+      <c r="M136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>9895190606</v>
+      </c>
+      <c r="B137" t="s">
         <v>12</v>
       </c>
-      <c r="E136" t="s">
+      <c r="C137">
+        <v>287</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" t="s">
+        <v>13</v>
+      </c>
+      <c r="K137" t="s">
+        <v>13</v>
+      </c>
+      <c r="L137" t="s">
+        <v>13</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>7907491638</v>
+      </c>
+      <c r="B138" t="s">
         <v>12</v>
       </c>
-      <c r="F136" t="s">
+      <c r="C138">
+        <v>287</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" t="s">
+        <v>13</v>
+      </c>
+      <c r="K138" t="s">
+        <v>13</v>
+      </c>
+      <c r="L138" t="s">
+        <v>13</v>
+      </c>
+      <c r="M138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>9497836888</v>
+      </c>
+      <c r="B139" t="s">
         <v>12</v>
       </c>
-      <c r="G136" t="s">
+      <c r="C139">
+        <v>287</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" t="s">
+        <v>13</v>
+      </c>
+      <c r="K139" t="s">
+        <v>13</v>
+      </c>
+      <c r="L139" t="s">
+        <v>13</v>
+      </c>
+      <c r="M139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>9895008073</v>
+      </c>
+      <c r="B140" t="s">
         <v>12</v>
       </c>
-      <c r="H136" t="s">
+      <c r="C140">
+        <v>287</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140" t="s">
+        <v>13</v>
+      </c>
+      <c r="L140" t="s">
+        <v>13</v>
+      </c>
+      <c r="M140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>9048274885</v>
+      </c>
+      <c r="B141" t="s">
         <v>12</v>
       </c>
-      <c r="I136" t="s">
+      <c r="C141">
+        <v>287</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+      <c r="J141" t="s">
+        <v>13</v>
+      </c>
+      <c r="K141" t="s">
+        <v>13</v>
+      </c>
+      <c r="L141" t="s">
+        <v>13</v>
+      </c>
+      <c r="M141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>9447811558</v>
+      </c>
+      <c r="B142" t="s">
         <v>12</v>
       </c>
-      <c r="J136" t="s">
+      <c r="C142">
+        <v>287</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142" t="s">
+        <v>13</v>
+      </c>
+      <c r="K142" t="s">
+        <v>13</v>
+      </c>
+      <c r="L142" t="s">
+        <v>13</v>
+      </c>
+      <c r="M142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>9605546333</v>
+      </c>
+      <c r="B143" t="s">
         <v>12</v>
       </c>
-      <c r="K136" t="s">
+      <c r="C143">
+        <v>287</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+      <c r="J143" t="s">
+        <v>13</v>
+      </c>
+      <c r="K143" t="s">
+        <v>13</v>
+      </c>
+      <c r="L143" t="s">
+        <v>13</v>
+      </c>
+      <c r="M143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>8075398021</v>
+      </c>
+      <c r="B144" t="s">
         <v>12</v>
       </c>
-      <c r="L136" t="s">
+      <c r="C144">
+        <v>287</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+      <c r="J144" t="s">
+        <v>13</v>
+      </c>
+      <c r="K144" t="s">
+        <v>13</v>
+      </c>
+      <c r="L144" t="s">
+        <v>13</v>
+      </c>
+      <c r="M144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>9048656545</v>
+      </c>
+      <c r="B145" t="s">
         <v>12</v>
       </c>
-      <c r="M136">
+      <c r="C145">
+        <v>287</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" t="s">
+        <v>13</v>
+      </c>
+      <c r="K145" t="s">
+        <v>13</v>
+      </c>
+      <c r="L145" t="s">
+        <v>13</v>
+      </c>
+      <c r="M145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>8547814228</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146">
+        <v>287</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146" t="s">
+        <v>13</v>
+      </c>
+      <c r="K146" t="s">
+        <v>13</v>
+      </c>
+      <c r="L146" t="s">
+        <v>13</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>9895236112</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147">
+        <v>287</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" t="s">
+        <v>13</v>
+      </c>
+      <c r="J147" t="s">
+        <v>13</v>
+      </c>
+      <c r="K147" t="s">
+        <v>13</v>
+      </c>
+      <c r="L147" t="s">
+        <v>13</v>
+      </c>
+      <c r="M147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>9746165746</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148">
+        <v>287</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148" t="s">
+        <v>13</v>
+      </c>
+      <c r="K148" t="s">
+        <v>13</v>
+      </c>
+      <c r="L148" t="s">
+        <v>13</v>
+      </c>
+      <c r="M148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>7356360066</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149">
+        <v>287</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149" t="s">
+        <v>13</v>
+      </c>
+      <c r="K149" t="s">
+        <v>13</v>
+      </c>
+      <c r="L149" t="s">
+        <v>13</v>
+      </c>
+      <c r="M149">
         <v>5</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VYSHNAV1\vvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E955F-0478-4A83-B109-5E865D352372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D677E5-F203-4EA8-B604-A61F44E34EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6636" yWindow="1944" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="17">
   <si>
     <t>Mobile</t>
   </si>
@@ -911,21 +911,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -971,13 +966,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9961453109</v>
+        <v>9539610277</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1007,18 +1002,18 @@
         <v>13</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9947144301</v>
+        <v>9961554520</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1048,18 +1043,18 @@
         <v>13</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9633614940</v>
+        <v>9048605050</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1089,18 +1084,18 @@
         <v>13</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7559011277</v>
+        <v>9995591504</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1130,18 +1125,18 @@
         <v>13</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9846776383</v>
+        <v>9020342533</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1171,18 +1166,18 @@
         <v>13</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9567923480</v>
+        <v>9061255556</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1212,18 +1207,18 @@
         <v>13</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9746165917</v>
+        <v>9746845513</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1253,18 +1248,18 @@
         <v>13</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9400993039</v>
+        <v>9746461268</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1294,18 +1289,18 @@
         <v>13</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9496557210</v>
+        <v>9995382082</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1335,18 +1330,18 @@
         <v>13</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9605298936</v>
+        <v>9747539701</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1376,18 +1371,18 @@
         <v>13</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9633859531</v>
+        <v>9744105442</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1417,18 +1412,18 @@
         <v>13</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8714298936</v>
+        <v>7012411380</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1458,18 +1453,18 @@
         <v>13</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9846688980</v>
+        <v>7736684361</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1499,18 +1494,18 @@
         <v>13</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9895234857</v>
+        <v>9633718069</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1540,18 +1535,18 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>8547386568</v>
+        <v>9895418665</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1581,18 +1576,18 @@
         <v>13</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9895811836</v>
+        <v>8547515045</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1622,18 +1617,18 @@
         <v>13</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9895435623</v>
+        <v>9895116839</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1663,18 +1658,18 @@
         <v>13</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9995106491</v>
+        <v>9746377368</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1704,18 +1699,18 @@
         <v>13</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9895352432</v>
+        <v>9388019280</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1745,18 +1740,18 @@
         <v>13</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>8547392082</v>
+        <v>9388019280</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1786,18 +1781,18 @@
         <v>13</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9744267894</v>
+        <v>9846016697</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1827,18 +1822,18 @@
         <v>13</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9746458321</v>
+        <v>9895459884</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1868,18 +1863,18 @@
         <v>13</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>8078035755</v>
+        <v>9995260993</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1909,18 +1904,18 @@
         <v>13</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9947117025</v>
+        <v>9605788328</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1950,18 +1945,18 @@
         <v>13</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9847321890</v>
+        <v>9567723523</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1991,18 +1986,18 @@
         <v>13</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9745840400</v>
+        <v>8281948251</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2032,18 +2027,18 @@
         <v>13</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9895237048</v>
+        <v>9745939806</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2078,13 +2073,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9656942494</v>
+        <v>9605636712</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2119,13 +2114,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9895250124</v>
+        <v>9562353706</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2160,13 +2155,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>7736423607</v>
+        <v>9496245280</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2201,13 +2196,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>8136933641</v>
+        <v>9995454267</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2242,13 +2237,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9847365774</v>
+        <v>9746845362</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2283,13 +2278,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9895859025</v>
+        <v>9895424450</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2324,13 +2319,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>9895367124</v>
+        <v>9947643245</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2365,13 +2360,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9895301215</v>
+        <v>8113889353</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2406,13 +2401,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9895331165</v>
+        <v>9037503492</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2447,13 +2442,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9895846085</v>
+        <v>9846668953</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2488,13 +2483,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9895834318</v>
+        <v>9895597014</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2529,13 +2524,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9895806585</v>
+        <v>9746097291</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2570,13 +2565,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9995609501</v>
+        <v>9895900878</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C41">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -2611,13 +2606,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9633074830</v>
+        <v>9633355538</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C42">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -2652,13 +2647,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9746248717</v>
+        <v>9809012467</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -2693,13 +2688,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9747546037</v>
+        <v>9895192138</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2734,13 +2729,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9847877604</v>
+        <v>9746955701</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -2775,13 +2770,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9447644347</v>
+        <v>9633864109</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2816,13 +2811,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9526083161</v>
+        <v>8086537111</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -2857,13 +2852,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9961003898</v>
+        <v>9847512561</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -2898,13 +2893,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9207624751</v>
+        <v>7510164144</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -2939,13 +2934,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9947969619</v>
+        <v>9846226238</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -2980,13 +2975,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>8547325524</v>
+        <v>9496703634</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -3021,13 +3016,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9846587415</v>
+        <v>9846301014</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3062,13 +3057,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9847082470</v>
+        <v>9061759268</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -3103,13 +3098,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9400485784</v>
+        <v>9746174242</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3144,13 +3139,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9744318719</v>
+        <v>9656246241</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -3185,13 +3180,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>8129328463</v>
+        <v>7736811181</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3226,13 +3221,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>8086046351</v>
+        <v>9544140329</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -3267,13 +3262,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>8606059417</v>
+        <v>9895456856</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3308,13 +3303,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9744069969</v>
+        <v>8129736980</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -3349,13 +3344,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9744900662</v>
+        <v>9961431967</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -3390,13 +3385,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>8289943569</v>
+        <v>9895153229</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3431,13 +3426,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9447936325</v>
+        <v>7034695161</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C62">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -3472,13 +3467,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9446672457</v>
+        <v>9526145891</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3513,13 +3508,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9746749848</v>
+        <v>9847107021</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3554,13 +3549,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9495375174</v>
+        <v>9447646766</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -3595,13 +3590,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>9495460376</v>
+        <v>9539027797</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -3636,13 +3631,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9645112032</v>
+        <v>9061210153</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -3677,13 +3672,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>9447935657</v>
+        <v>9633755598</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -3718,13 +3713,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9447683013</v>
+        <v>9446229164</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C69">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -3759,13 +3754,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9447371469</v>
+        <v>9847215720</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C70">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -3800,13 +3795,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9562115661</v>
+        <v>9847536567</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -3841,13 +3836,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9744610839</v>
+        <v>9895236074</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C72">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -3882,13 +3877,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9539660055</v>
+        <v>9447644194</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -3923,13 +3918,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9995938438</v>
+        <v>9633596070</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -3964,13 +3959,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9388654055</v>
+        <v>9895901307</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -4005,13 +4000,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9048433617</v>
+        <v>9400888595</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>119</v>
+        <v>315</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -4046,13 +4041,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9446776023</v>
+        <v>9995199544</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>119</v>
+        <v>315</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -4087,13 +4082,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9972610850</v>
+        <v>9447416111</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>119</v>
+        <v>315</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -4128,13 +4123,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9446190133</v>
+        <v>9656685566</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>119</v>
+        <v>315</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -4169,13 +4164,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9656945282</v>
+        <v>9946463259</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>119</v>
+        <v>315</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -4210,13 +4205,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9567259588</v>
+        <v>9605228832</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -4251,13 +4246,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9526984235</v>
+        <v>9895221691</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -4292,13 +4287,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>8156997040</v>
+        <v>9995242742</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -4333,13 +4328,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9747095869</v>
+        <v>8848538110</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -4374,13 +4369,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9495615252</v>
+        <v>9496685044</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -4415,13 +4410,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9207899498</v>
+        <v>9447448996</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -4456,13 +4451,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>9605457484</v>
+        <v>9947405001</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -4497,13 +4492,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9747724288</v>
+        <v>9895533450</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -4538,13 +4533,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>9847056937</v>
+        <v>8281626454</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -4579,13 +4574,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9496400194</v>
+        <v>9947839372</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
@@ -4620,13 +4615,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9495068076</v>
+        <v>9947236934</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
@@ -4661,13 +4656,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9947549403</v>
+        <v>9656504964</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -4702,13 +4697,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9846126720</v>
+        <v>9496022612</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -4743,13 +4738,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9964749589</v>
+        <v>9495294293</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -4784,13 +4779,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>8281786987</v>
+        <v>9847107510</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -4825,13 +4820,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>7909160296</v>
+        <v>9605484331</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C96">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -4866,13 +4861,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9495619130</v>
+        <v>8547957030</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C97">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -4907,13 +4902,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9562477957</v>
+        <v>9847109389</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -4948,13 +4943,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9847838776</v>
+        <v>8547066591</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C99">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -4989,13 +4984,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9744323604</v>
+        <v>9495131526</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -5030,13 +5025,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9745159082</v>
+        <v>9847062532</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
@@ -5071,13 +5066,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9446658177</v>
+        <v>9846615015</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C102">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -5112,13 +5107,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9946854652</v>
+        <v>9037573286</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -5153,13 +5148,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9747796542</v>
+        <v>9995016129</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -5194,13 +5189,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>9048853215</v>
+        <v>9446652074</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C105">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
@@ -5235,13 +5230,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>9847399431</v>
+        <v>9539002880</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -5276,13 +5271,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>8590666762</v>
+        <v>9633621337</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -5317,13 +5312,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9400085742</v>
+        <v>9496463060</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -5358,13 +5353,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>9947989362</v>
+        <v>9061895480</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C109">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5399,13 +5394,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>9446063088</v>
+        <v>9746642787</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C110">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -5440,13 +5435,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>9207947845</v>
+        <v>9400567448</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -5481,13 +5476,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>6282076418</v>
+        <v>9747937926</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -5522,13 +5517,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>9446265858</v>
+        <v>8113048775</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -5563,13 +5558,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>7625933600</v>
+        <v>8943429428</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -5604,13 +5599,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>9446133972</v>
+        <v>9400397466</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -5645,13 +5640,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>8281067289</v>
+        <v>9947558980</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -5686,13 +5681,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>9645086180</v>
+        <v>9495162377</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -5727,13 +5722,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>8281853472</v>
+        <v>9495840140</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -5768,13 +5763,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>9446674726</v>
+        <v>9496356923</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
@@ -5809,13 +5804,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>9497605001</v>
+        <v>9496158624</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -5850,13 +5845,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>9645138142</v>
+        <v>9447739492</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -5891,13 +5886,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>9446675183</v>
+        <v>9947237511</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -5932,13 +5927,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>9744074376</v>
+        <v>8547086368</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -5973,13 +5968,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>9744074376</v>
+        <v>9947786877</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -6014,13 +6009,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>9961084933</v>
+        <v>8606752875</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -6055,13 +6050,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>9447314465</v>
+        <v>9961944385</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
@@ -6096,13 +6091,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>9495754848</v>
+        <v>9495514480</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -6137,13 +6132,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>9562052727</v>
+        <v>9400861577</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
@@ -6178,13 +6173,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>9400478008</v>
+        <v>9526863550</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -6219,13 +6214,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>8281612314</v>
+        <v>9446340865</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
@@ -6260,13 +6255,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>8921136784</v>
+        <v>9446734801</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C131">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -6301,13 +6296,13 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>9037348072</v>
+        <v>9961608838</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C132">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
@@ -6342,13 +6337,13 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>9895591456</v>
+        <v>9961787501</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C133">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D133" t="s">
         <v>13</v>
@@ -6383,13 +6378,13 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>9847002022</v>
+        <v>9061230237</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C134">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -6424,13 +6419,13 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>7356929320</v>
+        <v>9447292990</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C135">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
@@ -6465,13 +6460,13 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>9947002022</v>
+        <v>8547952368</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C136">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
@@ -6506,13 +6501,13 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>9895190606</v>
+        <v>9946863005</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C137">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -6547,13 +6542,13 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>7907491638</v>
+        <v>9744344849</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C138">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
@@ -6588,13 +6583,13 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>9497836888</v>
+        <v>9526710054</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C139">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -6629,13 +6624,13 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>9895008073</v>
+        <v>9744262707</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C140">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D140" t="s">
         <v>13</v>
@@ -6670,13 +6665,13 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>9048274885</v>
+        <v>9947508897</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C141">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
@@ -6711,13 +6706,13 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>9447811558</v>
+        <v>9447374507</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C142">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D142" t="s">
         <v>13</v>
@@ -6752,13 +6747,13 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>9605546333</v>
+        <v>6282288506</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C143">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D143" t="s">
         <v>13</v>
@@ -6793,13 +6788,13 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>8075398021</v>
+        <v>9447448705</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D144" t="s">
         <v>13</v>
@@ -6834,13 +6829,13 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>9048656545</v>
+        <v>8606677310</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C145">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
@@ -6875,13 +6870,13 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>8547814228</v>
+        <v>9447093301</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C146">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
@@ -6916,13 +6911,13 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>9895236112</v>
+        <v>9526710054</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C147">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D147" t="s">
         <v>13</v>
@@ -6952,88 +6947,6 @@
         <v>13</v>
       </c>
       <c r="M147">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>9746165746</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148">
-        <v>287</v>
-      </c>
-      <c r="D148" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148" t="s">
-        <v>13</v>
-      </c>
-      <c r="J148" t="s">
-        <v>13</v>
-      </c>
-      <c r="K148" t="s">
-        <v>13</v>
-      </c>
-      <c r="L148" t="s">
-        <v>13</v>
-      </c>
-      <c r="M148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>7356360066</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149">
-        <v>287</v>
-      </c>
-      <c r="D149" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" t="s">
-        <v>13</v>
-      </c>
-      <c r="J149" t="s">
-        <v>13</v>
-      </c>
-      <c r="K149" t="s">
-        <v>13</v>
-      </c>
-      <c r="L149" t="s">
-        <v>13</v>
-      </c>
-      <c r="M149">
         <v>5</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VYSHNAV1\vvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D677E5-F203-4EA8-B604-A61F44E34EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1806B0-F1C6-48F9-95F1-FF0DF514A8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6636" yWindow="1944" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6984" yWindow="2292" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="16">
   <si>
     <t>Mobile</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>PSR</t>
-  </si>
-  <si>
-    <t>MTR</t>
   </si>
 </sst>
 </file>
@@ -911,16 +908,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -966,13 +962,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9539610277</v>
+        <v>8129855726</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1007,13 +1003,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9961554520</v>
+        <v>9744664676</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1048,13 +1044,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9048605050</v>
+        <v>9847406054</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1089,13 +1085,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9995591504</v>
+        <v>9526980364</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1130,13 +1126,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9020342533</v>
+        <v>9961594322</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1171,13 +1167,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9061255556</v>
+        <v>9496425457</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1212,13 +1208,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9746845513</v>
+        <v>9400246723</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1253,13 +1249,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9746461268</v>
+        <v>9562169462</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1294,13 +1290,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9995382082</v>
+        <v>7736482450</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1335,13 +1331,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9747539701</v>
+        <v>9446445342</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1376,13 +1372,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9744105442</v>
+        <v>8129466036</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1417,13 +1413,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7012411380</v>
+        <v>9495776791</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1458,13 +1454,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7736684361</v>
+        <v>7994791220</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1499,13 +1495,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9633718069</v>
+        <v>9037349693</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1540,13 +1536,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9895418665</v>
+        <v>9946189229</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1581,13 +1577,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>8547515045</v>
+        <v>9847822056</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1622,13 +1618,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9895116839</v>
+        <v>9895273454</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1663,13 +1659,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9746377368</v>
+        <v>9895555968</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1704,13 +1700,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9388019280</v>
+        <v>9995982540</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1745,13 +1741,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9388019280</v>
+        <v>9633693420</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1786,13 +1782,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9846016697</v>
+        <v>9895261203</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1827,13 +1823,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9895459884</v>
+        <v>9037520073</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1868,13 +1864,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9995260993</v>
+        <v>9249848512</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1909,13 +1905,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9605788328</v>
+        <v>8547343604</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1950,13 +1946,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9567723523</v>
+        <v>9995380770</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1991,13 +1987,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>8281948251</v>
+        <v>9895213270</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2032,13 +2028,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9745939806</v>
+        <v>9567505715</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2073,13 +2069,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9605636712</v>
+        <v>9895110918</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2114,13 +2110,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9562353706</v>
+        <v>7510274740</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2155,13 +2151,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9496245280</v>
+        <v>9447550217</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2196,13 +2192,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9995454267</v>
+        <v>9846151037</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2237,13 +2233,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9746845362</v>
+        <v>9847473281</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2278,13 +2274,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9895424450</v>
+        <v>9495153278</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2319,13 +2315,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>9947643245</v>
+        <v>7012979877</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2360,13 +2356,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>8113889353</v>
+        <v>9847551312</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2401,13 +2397,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9037503492</v>
+        <v>8129269602</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2442,13 +2438,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9846668953</v>
+        <v>9496419177</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2483,13 +2479,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9895597014</v>
+        <v>9744723196</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2524,13 +2520,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9746097291</v>
+        <v>8075135301</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2565,13 +2561,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9895900878</v>
+        <v>9847773575</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -2606,13 +2602,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9633355538</v>
+        <v>9747775751</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -2647,13 +2643,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9809012467</v>
+        <v>9895638897</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -2688,13 +2684,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9895192138</v>
+        <v>9961376306</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2729,13 +2725,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9746955701</v>
+        <v>9447406243</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -2770,13 +2766,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9633864109</v>
+        <v>9846816934</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2811,13 +2807,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>8086537111</v>
+        <v>9495187420</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -2852,13 +2848,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9847512561</v>
+        <v>9895879763</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -2893,13 +2889,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>7510164144</v>
+        <v>9037914022</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -2934,13 +2930,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9846226238</v>
+        <v>9447282987</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -2975,13 +2971,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9496703634</v>
+        <v>9207417166</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="C51">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -3016,13 +3012,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9846301014</v>
+        <v>8129712567</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3057,13 +3053,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9061759268</v>
+        <v>9895097053</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
       </c>
       <c r="C53">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -3098,13 +3094,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9746174242</v>
+        <v>8590928396</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3139,13 +3135,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9656246241</v>
+        <v>9745034739</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -3180,13 +3176,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>7736811181</v>
+        <v>9895977397</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3221,13 +3217,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9544140329</v>
+        <v>9495774560</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -3262,13 +3258,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9895456856</v>
+        <v>9961304412</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3303,13 +3299,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>8129736980</v>
+        <v>9895530262</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -3344,13 +3340,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9961431967</v>
+        <v>9562557451</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -3385,13 +3381,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>9895153229</v>
+        <v>8281956367</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3426,13 +3422,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>7034695161</v>
+        <v>9846285295</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C62">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -3467,13 +3463,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9526145891</v>
+        <v>9207077799</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3508,13 +3504,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9847107021</v>
+        <v>9447043837</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3549,13 +3545,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9447646766</v>
+        <v>8129044593</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -3590,13 +3586,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>9539027797</v>
+        <v>8129381034</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -3631,13 +3627,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9061210153</v>
+        <v>9745868636</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -3672,13 +3668,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>9633755598</v>
+        <v>9447168896</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C68">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -3713,13 +3709,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9446229164</v>
+        <v>9496308717</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -3754,13 +3750,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9847215720</v>
+        <v>9400561483</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -3795,13 +3791,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9847536567</v>
+        <v>9633033244</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -3836,13 +3832,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9895236074</v>
+        <v>9495748605</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -3877,13 +3873,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9447644194</v>
+        <v>9496553343</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C73">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -3918,13 +3914,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9633596070</v>
+        <v>9605748544</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -3959,13 +3955,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9895901307</v>
+        <v>9562929426</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -4000,13 +3996,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9400888595</v>
+        <v>9847368437</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -4041,13 +4037,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9995199544</v>
+        <v>9995018734</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -4082,13 +4078,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9447416111</v>
+        <v>9656838566</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -4123,13 +4119,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9656685566</v>
+        <v>9747803777</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -4164,13 +4160,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9946463259</v>
+        <v>8075654393</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -4205,13 +4201,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9605228832</v>
+        <v>9847528047</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -4246,13 +4242,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9895221691</v>
+        <v>9447659702</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -4287,13 +4283,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9995242742</v>
+        <v>8590712717</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -4328,13 +4324,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>8848538110</v>
+        <v>9995095763</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -4369,13 +4365,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9496685044</v>
+        <v>8547710988</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -4410,13 +4406,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9447448996</v>
+        <v>9037205926</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -4451,13 +4447,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>9947405001</v>
+        <v>7025936931</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -4492,13 +4488,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9895533450</v>
+        <v>9847844529</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -4533,13 +4529,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>8281626454</v>
+        <v>9495082302</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -4574,13 +4570,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9947839372</v>
+        <v>9633563576</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C90">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
@@ -4615,13 +4611,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9947236934</v>
+        <v>9895258563</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C91">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
@@ -4656,13 +4652,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9656504964</v>
+        <v>9388995955</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -4697,13 +4693,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9496022612</v>
+        <v>9447643896</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -4738,13 +4734,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9495294293</v>
+        <v>9747551713</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C94">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -4779,13 +4775,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9847107510</v>
+        <v>8301816808</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -4820,13 +4816,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9605484331</v>
+        <v>9656952879</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C96">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -4861,13 +4857,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>8547957030</v>
+        <v>9947655640</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C97">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -4902,13 +4898,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9847109389</v>
+        <v>9207620868</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -4943,13 +4939,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>8547066591</v>
+        <v>9995508649</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C99">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -4984,13 +4980,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9495131526</v>
+        <v>9526913227</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -5025,13 +5021,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9847062532</v>
+        <v>9447643252</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
@@ -5066,13 +5062,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9846615015</v>
+        <v>9995982044</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C102">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -5107,13 +5103,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9037573286</v>
+        <v>9745294304</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C103">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -5148,13 +5144,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9995016129</v>
+        <v>9567368710</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -5189,13 +5185,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>9446652074</v>
+        <v>8606667444</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C105">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
@@ -5230,13 +5226,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>9539002880</v>
+        <v>8547630255</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C106">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -5271,13 +5267,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9633621337</v>
+        <v>9544259403</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C107">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -5312,13 +5308,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9496463060</v>
+        <v>9847775892</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C108">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -5353,13 +5349,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>9061895480</v>
+        <v>9846716131</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C109">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5394,13 +5390,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>9746642787</v>
+        <v>9947313875</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C110">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -5435,13 +5431,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>9400567448</v>
+        <v>9567354796</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C111">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -5476,13 +5472,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>9747937926</v>
+        <v>7510286080</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C112">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -5517,13 +5513,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>8113048775</v>
+        <v>9447398231</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -5558,13 +5554,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>8943429428</v>
+        <v>9447604455</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C114">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -5599,13 +5595,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>9400397466</v>
+        <v>9746155994</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C115">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -5640,13 +5636,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>9947558980</v>
+        <v>9895417661</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -5681,13 +5677,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>9495162377</v>
+        <v>9633194427</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C117">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -5722,13 +5718,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>9495840140</v>
+        <v>8714874427</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C118">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -5763,13 +5759,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>9496356923</v>
+        <v>9747344469</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
@@ -5804,13 +5800,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>9496158624</v>
+        <v>9847599536</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C120">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -5845,13 +5841,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>9447739492</v>
+        <v>9495190172</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C121">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -5886,13 +5882,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>9947237511</v>
+        <v>8606495866</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -5927,13 +5923,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>8547086368</v>
+        <v>9746808087</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -5968,13 +5964,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>9947786877</v>
+        <v>9946476068</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -6009,13 +6005,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>8606752875</v>
+        <v>8606678230</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -6050,13 +6046,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>9961944385</v>
+        <v>9995085195</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C126">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
@@ -6091,13 +6087,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>9495514480</v>
+        <v>9995006228</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -6132,13 +6128,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>9400861577</v>
+        <v>9846535363</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C128">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
@@ -6173,13 +6169,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>9526863550</v>
+        <v>9744345673</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C129">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -6214,13 +6210,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>9446340865</v>
+        <v>9895865276</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C130">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
@@ -6255,13 +6251,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>9446734801</v>
+        <v>9142028456</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C131">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -6296,13 +6292,13 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>9961608838</v>
+        <v>9544970321</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C132">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
@@ -6337,13 +6333,13 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>9961787501</v>
+        <v>7994025322</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C133">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="D133" t="s">
         <v>13</v>
@@ -6378,13 +6374,13 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>9061230237</v>
+        <v>9947584398</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C134">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -6419,13 +6415,13 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>9447292990</v>
+        <v>9846832632</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C135">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
@@ -6460,13 +6456,13 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>8547952368</v>
+        <v>7902918341</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C136">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
@@ -6501,13 +6497,13 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>9946863005</v>
+        <v>9895422323</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C137">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -6542,13 +6538,13 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>9744344849</v>
+        <v>9447040098</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C138">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
@@ -6583,13 +6579,13 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>9526710054</v>
+        <v>8129285851</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C139">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -6624,13 +6620,13 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>9744262707</v>
+        <v>9645083228</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C140">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="D140" t="s">
         <v>13</v>
@@ -6665,13 +6661,13 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>9947508897</v>
+        <v>9847443744</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C141">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
@@ -6706,13 +6702,13 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>9447374507</v>
+        <v>9895117119</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C142">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="D142" t="s">
         <v>13</v>
@@ -6747,13 +6743,13 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>6282288506</v>
+        <v>9846041977</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C143">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="D143" t="s">
         <v>13</v>
@@ -6783,170 +6779,6 @@
         <v>13</v>
       </c>
       <c r="M143">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>9447448705</v>
-      </c>
-      <c r="B144" t="s">
-        <v>16</v>
-      </c>
-      <c r="C144">
-        <v>130</v>
-      </c>
-      <c r="D144" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s">
-        <v>13</v>
-      </c>
-      <c r="H144" t="s">
-        <v>13</v>
-      </c>
-      <c r="I144" t="s">
-        <v>13</v>
-      </c>
-      <c r="J144" t="s">
-        <v>13</v>
-      </c>
-      <c r="K144" t="s">
-        <v>13</v>
-      </c>
-      <c r="L144" t="s">
-        <v>13</v>
-      </c>
-      <c r="M144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>8606677310</v>
-      </c>
-      <c r="B145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145">
-        <v>130</v>
-      </c>
-      <c r="D145" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s">
-        <v>13</v>
-      </c>
-      <c r="H145" t="s">
-        <v>13</v>
-      </c>
-      <c r="I145" t="s">
-        <v>13</v>
-      </c>
-      <c r="J145" t="s">
-        <v>13</v>
-      </c>
-      <c r="K145" t="s">
-        <v>13</v>
-      </c>
-      <c r="L145" t="s">
-        <v>13</v>
-      </c>
-      <c r="M145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>9447093301</v>
-      </c>
-      <c r="B146" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146">
-        <v>130</v>
-      </c>
-      <c r="D146" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146" t="s">
-        <v>13</v>
-      </c>
-      <c r="J146" t="s">
-        <v>13</v>
-      </c>
-      <c r="K146" t="s">
-        <v>13</v>
-      </c>
-      <c r="L146" t="s">
-        <v>13</v>
-      </c>
-      <c r="M146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>9526710054</v>
-      </c>
-      <c r="B147" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147">
-        <v>130</v>
-      </c>
-      <c r="D147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" t="s">
-        <v>13</v>
-      </c>
-      <c r="J147" t="s">
-        <v>13</v>
-      </c>
-      <c r="K147" t="s">
-        <v>13</v>
-      </c>
-      <c r="L147" t="s">
-        <v>13</v>
-      </c>
-      <c r="M147">
         <v>5</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VYSHNAV1\vvs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saneesh\project\kannur-vyabari-api-server\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1806B0-F1C6-48F9-95F1-FF0DF514A8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504BE1B3-E17E-4810-9E81-02D40DDC3DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6984" yWindow="2292" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="15">
   <si>
     <t>Mobile</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>UserId</t>
-  </si>
-  <si>
-    <t>PSR</t>
   </si>
 </sst>
 </file>
@@ -908,15 +905,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -962,13 +960,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8129855726</v>
+        <v>9995596622</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1003,13 +1001,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9744664676</v>
+        <v>9895459692</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1044,13 +1042,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9847406054</v>
+        <v>8848492871</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1085,13 +1083,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9526980364</v>
+        <v>8304958808</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1126,13 +1124,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9961594322</v>
+        <v>9946202032</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1167,13 +1165,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9496425457</v>
+        <v>9495191908</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1208,13 +1206,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9400246723</v>
+        <v>9447954771</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1249,13 +1247,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9562169462</v>
+        <v>9961345410</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1290,13 +1288,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7736482450</v>
+        <v>9847192229</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1331,13 +1329,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9446445342</v>
+        <v>9995790795</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1372,13 +1370,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8129466036</v>
+        <v>9895133707</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1413,13 +1411,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9495776791</v>
+        <v>9847154157</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1454,13 +1452,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7994791220</v>
+        <v>9995113311</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1495,13 +1493,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9037349693</v>
+        <v>9447542786</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1536,13 +1534,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9946189229</v>
+        <v>9048300741</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1577,13 +1575,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9847822056</v>
+        <v>9562777498</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1618,13 +1616,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9895273454</v>
+        <v>9947738601</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1659,13 +1657,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9895555968</v>
+        <v>9947388121</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1700,13 +1698,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9995982540</v>
+        <v>9656578818</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1741,13 +1739,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9633693420</v>
+        <v>9895452572</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1782,13 +1780,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9895261203</v>
+        <v>9847558846</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1823,13 +1821,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9037520073</v>
+        <v>9995687469</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1864,13 +1862,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9249848512</v>
+        <v>9446339248</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1905,13 +1903,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8547343604</v>
+        <v>9447068712</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1946,13 +1944,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9995380770</v>
+        <v>9746512742</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1987,13 +1985,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9895213270</v>
+        <v>9447399429</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2028,13 +2026,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9567505715</v>
+        <v>8547005017</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2069,13 +2067,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9895110918</v>
+        <v>9995909515</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2110,13 +2108,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>7510274740</v>
+        <v>8547707819</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2151,13 +2149,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9447550217</v>
+        <v>9567979567</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2192,13 +2190,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9846151037</v>
+        <v>9497625736</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2233,13 +2231,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9847473281</v>
+        <v>9995071919</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2274,13 +2272,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9495153278</v>
+        <v>8281600263</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2315,13 +2313,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>7012979877</v>
+        <v>7012804255</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2356,13 +2354,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9847551312</v>
+        <v>9495358398</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2397,13 +2395,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>8129269602</v>
+        <v>9656193191</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2438,13 +2436,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9496419177</v>
+        <v>9747289687</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2479,13 +2477,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9744723196</v>
+        <v>9539333993</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2520,13 +2518,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8075135301</v>
+        <v>6238768050</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2561,13 +2559,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9847773575</v>
+        <v>9447411339</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -2602,13 +2600,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9747775751</v>
+        <v>9847209200</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -2643,13 +2641,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9895638897</v>
+        <v>9895246131</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -2684,13 +2682,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9961376306</v>
+        <v>9847982234</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2725,13 +2723,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9447406243</v>
+        <v>9847109990</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -2766,13 +2764,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9846816934</v>
+        <v>9895796981</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2807,13 +2805,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9495187420</v>
+        <v>9745159091</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -2848,13 +2846,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9895879763</v>
+        <v>9447438251</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -2889,13 +2887,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9037914022</v>
+        <v>9895303919</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -2930,13 +2928,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9447282987</v>
+        <v>9847766454</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -2971,13 +2969,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9207417166</v>
+        <v>9447548366</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="C51">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -3012,13 +3010,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>8129712567</v>
+        <v>9495303633</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3053,13 +3051,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9895097053</v>
+        <v>9447100942</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
       </c>
       <c r="C53">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -3094,13 +3092,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>8590928396</v>
+        <v>9388701122</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3135,13 +3133,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9745034739</v>
+        <v>9995006228</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -3176,13 +3174,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9895977397</v>
+        <v>9846535363</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3217,13 +3215,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9495774560</v>
+        <v>9744345673</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -3258,13 +3256,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9961304412</v>
+        <v>9895865276</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3299,13 +3297,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9895530262</v>
+        <v>9142028456</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -3340,13 +3338,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9562557451</v>
+        <v>9544970321</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -3381,13 +3379,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>8281956367</v>
+        <v>7994025322</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3422,13 +3420,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9846285295</v>
+        <v>9947584398</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C62">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -3463,13 +3461,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9207077799</v>
+        <v>9846832632</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3504,13 +3502,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9447043837</v>
+        <v>7902918341</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3545,13 +3543,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>8129044593</v>
+        <v>9895422323</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -3586,13 +3584,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>8129381034</v>
+        <v>9447040098</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -3627,13 +3625,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9745868636</v>
+        <v>8129285851</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -3668,13 +3666,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>9447168896</v>
+        <v>9645083228</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -3709,13 +3707,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9496308717</v>
+        <v>9847443744</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C69">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -3750,13 +3748,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9400561483</v>
+        <v>9895117119</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C70">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -3791,13 +3789,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9633033244</v>
+        <v>9846041977</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -3832,13 +3830,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9495748605</v>
+        <v>9447449152</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C72">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -3873,13 +3871,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9496553343</v>
+        <v>8111822244</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -3914,13 +3912,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9605748544</v>
+        <v>9495771446</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -3955,13 +3953,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9562929426</v>
+        <v>9895173229</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -3996,13 +3994,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9847368437</v>
+        <v>9895718648</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -4037,13 +4035,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9995018734</v>
+        <v>7994923925</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -4078,13 +4076,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9656838566</v>
+        <v>9746464671</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -4119,13 +4117,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9747803777</v>
+        <v>9567935260</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -4160,13 +4158,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>8075654393</v>
+        <v>8921826822</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C80">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -4201,13 +4199,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9847528047</v>
+        <v>9400881454</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -4242,13 +4240,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9447659702</v>
+        <v>7558053524</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C82">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -4283,13 +4281,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>8590712717</v>
+        <v>8592062604</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C83">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -4324,13 +4322,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9995095763</v>
+        <v>9747356697</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C84">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -4365,13 +4363,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>8547710988</v>
+        <v>9746130247</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C85">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -4406,13 +4404,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9037205926</v>
+        <v>9142864993</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C86">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -4447,13 +4445,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>7025936931</v>
+        <v>8129642985</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C87">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -4488,13 +4486,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9847844529</v>
+        <v>9846350620</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C88">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -4529,13 +4527,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>9495082302</v>
+        <v>9846788895</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C89">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -4570,13 +4568,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9633563576</v>
+        <v>9496524700</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
       </c>
       <c r="C90">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
@@ -4611,13 +4609,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9895258563</v>
+        <v>9846185289</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
       </c>
       <c r="C91">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
@@ -4652,13 +4650,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9388995955</v>
+        <v>9633756586</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
       <c r="C92">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -4693,13 +4691,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9447643896</v>
+        <v>9447322332</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
       </c>
       <c r="C93">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -4734,13 +4732,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9747551713</v>
+        <v>9847815573</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
       <c r="C94">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -4775,13 +4773,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>8301816808</v>
+        <v>9895900900</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
       <c r="C95">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -4816,13 +4814,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9656952879</v>
+        <v>9846063488</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
       </c>
       <c r="C96">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -4857,13 +4855,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9947655640</v>
+        <v>9895556659</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
       </c>
       <c r="C97">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -4898,13 +4896,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9207620868</v>
+        <v>9895556659</v>
       </c>
       <c r="B98" t="s">
         <v>12</v>
       </c>
       <c r="C98">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -4939,13 +4937,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9995508649</v>
+        <v>9447217489</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -4980,13 +4978,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9526913227</v>
+        <v>8129363540</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
       </c>
       <c r="C100">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -5021,13 +5019,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9447643252</v>
+        <v>9746541866</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
       </c>
       <c r="C101">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
@@ -5062,13 +5060,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9995982044</v>
+        <v>9645808102</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
       </c>
       <c r="C102">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -5103,13 +5101,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9745294304</v>
+        <v>7306868369</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
       </c>
       <c r="C103">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -5144,13 +5142,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9567368710</v>
+        <v>9746161536</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
       </c>
       <c r="C104">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -5185,13 +5183,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>8606667444</v>
+        <v>9895176625</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
       </c>
       <c r="C105">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
@@ -5226,13 +5224,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>8547630255</v>
+        <v>9846557619</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
       </c>
       <c r="C106">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -5267,13 +5265,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9544259403</v>
+        <v>9895711572</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
       </c>
       <c r="C107">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -5308,13 +5306,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9847775892</v>
+        <v>9895595412</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
       </c>
       <c r="C108">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -5349,13 +5347,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>9846716131</v>
+        <v>9447040098</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
       </c>
       <c r="C109">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5390,13 +5388,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>9947313875</v>
+        <v>8129285851</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
       </c>
       <c r="C110">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -5431,13 +5429,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>9567354796</v>
+        <v>9645083228</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
       </c>
       <c r="C111">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -5472,13 +5470,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>7510286080</v>
+        <v>9847443744</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
       </c>
       <c r="C112">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -5513,13 +5511,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>9447398231</v>
+        <v>9895117119</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
       </c>
       <c r="C113">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -5554,13 +5552,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>9447604455</v>
+        <v>9846041977</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
       </c>
       <c r="C114">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -5590,1195 +5588,6 @@
         <v>13</v>
       </c>
       <c r="M114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>9746155994</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115">
-        <v>271</v>
-      </c>
-      <c r="D115" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" t="s">
-        <v>13</v>
-      </c>
-      <c r="J115" t="s">
-        <v>13</v>
-      </c>
-      <c r="K115" t="s">
-        <v>13</v>
-      </c>
-      <c r="L115" t="s">
-        <v>13</v>
-      </c>
-      <c r="M115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>9895417661</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116">
-        <v>271</v>
-      </c>
-      <c r="D116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" t="s">
-        <v>13</v>
-      </c>
-      <c r="J116" t="s">
-        <v>13</v>
-      </c>
-      <c r="K116" t="s">
-        <v>13</v>
-      </c>
-      <c r="L116" t="s">
-        <v>13</v>
-      </c>
-      <c r="M116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>9633194427</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117">
-        <v>271</v>
-      </c>
-      <c r="D117" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" t="s">
-        <v>13</v>
-      </c>
-      <c r="J117" t="s">
-        <v>13</v>
-      </c>
-      <c r="K117" t="s">
-        <v>13</v>
-      </c>
-      <c r="L117" t="s">
-        <v>13</v>
-      </c>
-      <c r="M117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>8714874427</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118">
-        <v>271</v>
-      </c>
-      <c r="D118" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" t="s">
-        <v>13</v>
-      </c>
-      <c r="J118" t="s">
-        <v>13</v>
-      </c>
-      <c r="K118" t="s">
-        <v>13</v>
-      </c>
-      <c r="L118" t="s">
-        <v>13</v>
-      </c>
-      <c r="M118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>9747344469</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119">
-        <v>271</v>
-      </c>
-      <c r="D119" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" t="s">
-        <v>13</v>
-      </c>
-      <c r="I119" t="s">
-        <v>13</v>
-      </c>
-      <c r="J119" t="s">
-        <v>13</v>
-      </c>
-      <c r="K119" t="s">
-        <v>13</v>
-      </c>
-      <c r="L119" t="s">
-        <v>13</v>
-      </c>
-      <c r="M119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>9847599536</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120">
-        <v>271</v>
-      </c>
-      <c r="D120" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" t="s">
-        <v>13</v>
-      </c>
-      <c r="J120" t="s">
-        <v>13</v>
-      </c>
-      <c r="K120" t="s">
-        <v>13</v>
-      </c>
-      <c r="L120" t="s">
-        <v>13</v>
-      </c>
-      <c r="M120">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>9495190172</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121">
-        <v>271</v>
-      </c>
-      <c r="D121" t="s">
-        <v>13</v>
-      </c>
-      <c r="E121" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" t="s">
-        <v>13</v>
-      </c>
-      <c r="I121" t="s">
-        <v>13</v>
-      </c>
-      <c r="J121" t="s">
-        <v>13</v>
-      </c>
-      <c r="K121" t="s">
-        <v>13</v>
-      </c>
-      <c r="L121" t="s">
-        <v>13</v>
-      </c>
-      <c r="M121">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>8606495866</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122">
-        <v>271</v>
-      </c>
-      <c r="D122" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" t="s">
-        <v>13</v>
-      </c>
-      <c r="J122" t="s">
-        <v>13</v>
-      </c>
-      <c r="K122" t="s">
-        <v>13</v>
-      </c>
-      <c r="L122" t="s">
-        <v>13</v>
-      </c>
-      <c r="M122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>9746808087</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123">
-        <v>271</v>
-      </c>
-      <c r="D123" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
-      <c r="I123" t="s">
-        <v>13</v>
-      </c>
-      <c r="J123" t="s">
-        <v>13</v>
-      </c>
-      <c r="K123" t="s">
-        <v>13</v>
-      </c>
-      <c r="L123" t="s">
-        <v>13</v>
-      </c>
-      <c r="M123">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>9946476068</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124">
-        <v>271</v>
-      </c>
-      <c r="D124" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" t="s">
-        <v>13</v>
-      </c>
-      <c r="I124" t="s">
-        <v>13</v>
-      </c>
-      <c r="J124" t="s">
-        <v>13</v>
-      </c>
-      <c r="K124" t="s">
-        <v>13</v>
-      </c>
-      <c r="L124" t="s">
-        <v>13</v>
-      </c>
-      <c r="M124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>8606678230</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125">
-        <v>271</v>
-      </c>
-      <c r="D125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" t="s">
-        <v>13</v>
-      </c>
-      <c r="I125" t="s">
-        <v>13</v>
-      </c>
-      <c r="J125" t="s">
-        <v>13</v>
-      </c>
-      <c r="K125" t="s">
-        <v>13</v>
-      </c>
-      <c r="L125" t="s">
-        <v>13</v>
-      </c>
-      <c r="M125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>9995085195</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126">
-        <v>271</v>
-      </c>
-      <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" t="s">
-        <v>13</v>
-      </c>
-      <c r="I126" t="s">
-        <v>13</v>
-      </c>
-      <c r="J126" t="s">
-        <v>13</v>
-      </c>
-      <c r="K126" t="s">
-        <v>13</v>
-      </c>
-      <c r="L126" t="s">
-        <v>13</v>
-      </c>
-      <c r="M126">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>9995006228</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127">
-        <v>290</v>
-      </c>
-      <c r="D127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" t="s">
-        <v>13</v>
-      </c>
-      <c r="J127" t="s">
-        <v>13</v>
-      </c>
-      <c r="K127" t="s">
-        <v>13</v>
-      </c>
-      <c r="L127" t="s">
-        <v>13</v>
-      </c>
-      <c r="M127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>9846535363</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128">
-        <v>291</v>
-      </c>
-      <c r="D128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" t="s">
-        <v>13</v>
-      </c>
-      <c r="I128" t="s">
-        <v>13</v>
-      </c>
-      <c r="J128" t="s">
-        <v>13</v>
-      </c>
-      <c r="K128" t="s">
-        <v>13</v>
-      </c>
-      <c r="L128" t="s">
-        <v>13</v>
-      </c>
-      <c r="M128">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>9744345673</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129">
-        <v>292</v>
-      </c>
-      <c r="D129" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" t="s">
-        <v>13</v>
-      </c>
-      <c r="I129" t="s">
-        <v>13</v>
-      </c>
-      <c r="J129" t="s">
-        <v>13</v>
-      </c>
-      <c r="K129" t="s">
-        <v>13</v>
-      </c>
-      <c r="L129" t="s">
-        <v>13</v>
-      </c>
-      <c r="M129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>9895865276</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130">
-        <v>293</v>
-      </c>
-      <c r="D130" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" t="s">
-        <v>13</v>
-      </c>
-      <c r="I130" t="s">
-        <v>13</v>
-      </c>
-      <c r="J130" t="s">
-        <v>13</v>
-      </c>
-      <c r="K130" t="s">
-        <v>13</v>
-      </c>
-      <c r="L130" t="s">
-        <v>13</v>
-      </c>
-      <c r="M130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>9142028456</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131">
-        <v>294</v>
-      </c>
-      <c r="D131" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" t="s">
-        <v>13</v>
-      </c>
-      <c r="I131" t="s">
-        <v>13</v>
-      </c>
-      <c r="J131" t="s">
-        <v>13</v>
-      </c>
-      <c r="K131" t="s">
-        <v>13</v>
-      </c>
-      <c r="L131" t="s">
-        <v>13</v>
-      </c>
-      <c r="M131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>9544970321</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132">
-        <v>295</v>
-      </c>
-      <c r="D132" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" t="s">
-        <v>13</v>
-      </c>
-      <c r="I132" t="s">
-        <v>13</v>
-      </c>
-      <c r="J132" t="s">
-        <v>13</v>
-      </c>
-      <c r="K132" t="s">
-        <v>13</v>
-      </c>
-      <c r="L132" t="s">
-        <v>13</v>
-      </c>
-      <c r="M132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>7994025322</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133">
-        <v>296</v>
-      </c>
-      <c r="D133" t="s">
-        <v>13</v>
-      </c>
-      <c r="E133" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" t="s">
-        <v>13</v>
-      </c>
-      <c r="I133" t="s">
-        <v>13</v>
-      </c>
-      <c r="J133" t="s">
-        <v>13</v>
-      </c>
-      <c r="K133" t="s">
-        <v>13</v>
-      </c>
-      <c r="L133" t="s">
-        <v>13</v>
-      </c>
-      <c r="M133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>9947584398</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134">
-        <v>297</v>
-      </c>
-      <c r="D134" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" t="s">
-        <v>13</v>
-      </c>
-      <c r="I134" t="s">
-        <v>13</v>
-      </c>
-      <c r="J134" t="s">
-        <v>13</v>
-      </c>
-      <c r="K134" t="s">
-        <v>13</v>
-      </c>
-      <c r="L134" t="s">
-        <v>13</v>
-      </c>
-      <c r="M134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>9846832632</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135">
-        <v>298</v>
-      </c>
-      <c r="D135" t="s">
-        <v>13</v>
-      </c>
-      <c r="E135" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" t="s">
-        <v>13</v>
-      </c>
-      <c r="I135" t="s">
-        <v>13</v>
-      </c>
-      <c r="J135" t="s">
-        <v>13</v>
-      </c>
-      <c r="K135" t="s">
-        <v>13</v>
-      </c>
-      <c r="L135" t="s">
-        <v>13</v>
-      </c>
-      <c r="M135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>7902918341</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136">
-        <v>299</v>
-      </c>
-      <c r="D136" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s">
-        <v>13</v>
-      </c>
-      <c r="I136" t="s">
-        <v>13</v>
-      </c>
-      <c r="J136" t="s">
-        <v>13</v>
-      </c>
-      <c r="K136" t="s">
-        <v>13</v>
-      </c>
-      <c r="L136" t="s">
-        <v>13</v>
-      </c>
-      <c r="M136">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>9895422323</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137">
-        <v>300</v>
-      </c>
-      <c r="D137" t="s">
-        <v>13</v>
-      </c>
-      <c r="E137" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" t="s">
-        <v>13</v>
-      </c>
-      <c r="I137" t="s">
-        <v>13</v>
-      </c>
-      <c r="J137" t="s">
-        <v>13</v>
-      </c>
-      <c r="K137" t="s">
-        <v>13</v>
-      </c>
-      <c r="L137" t="s">
-        <v>13</v>
-      </c>
-      <c r="M137">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>9447040098</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138">
-        <v>301</v>
-      </c>
-      <c r="D138" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" t="s">
-        <v>13</v>
-      </c>
-      <c r="J138" t="s">
-        <v>13</v>
-      </c>
-      <c r="K138" t="s">
-        <v>13</v>
-      </c>
-      <c r="L138" t="s">
-        <v>13</v>
-      </c>
-      <c r="M138">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>8129285851</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139">
-        <v>302</v>
-      </c>
-      <c r="D139" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" t="s">
-        <v>13</v>
-      </c>
-      <c r="I139" t="s">
-        <v>13</v>
-      </c>
-      <c r="J139" t="s">
-        <v>13</v>
-      </c>
-      <c r="K139" t="s">
-        <v>13</v>
-      </c>
-      <c r="L139" t="s">
-        <v>13</v>
-      </c>
-      <c r="M139">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>9645083228</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140">
-        <v>303</v>
-      </c>
-      <c r="D140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" t="s">
-        <v>13</v>
-      </c>
-      <c r="I140" t="s">
-        <v>13</v>
-      </c>
-      <c r="J140" t="s">
-        <v>13</v>
-      </c>
-      <c r="K140" t="s">
-        <v>13</v>
-      </c>
-      <c r="L140" t="s">
-        <v>13</v>
-      </c>
-      <c r="M140">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>9847443744</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141">
-        <v>304</v>
-      </c>
-      <c r="D141" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s">
-        <v>13</v>
-      </c>
-      <c r="H141" t="s">
-        <v>13</v>
-      </c>
-      <c r="I141" t="s">
-        <v>13</v>
-      </c>
-      <c r="J141" t="s">
-        <v>13</v>
-      </c>
-      <c r="K141" t="s">
-        <v>13</v>
-      </c>
-      <c r="L141" t="s">
-        <v>13</v>
-      </c>
-      <c r="M141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>9895117119</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142">
-        <v>305</v>
-      </c>
-      <c r="D142" t="s">
-        <v>13</v>
-      </c>
-      <c r="E142" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142" t="s">
-        <v>13</v>
-      </c>
-      <c r="J142" t="s">
-        <v>13</v>
-      </c>
-      <c r="K142" t="s">
-        <v>13</v>
-      </c>
-      <c r="L142" t="s">
-        <v>13</v>
-      </c>
-      <c r="M142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>9846041977</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143">
-        <v>306</v>
-      </c>
-      <c r="D143" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143" t="s">
-        <v>13</v>
-      </c>
-      <c r="J143" t="s">
-        <v>13</v>
-      </c>
-      <c r="K143" t="s">
-        <v>13</v>
-      </c>
-      <c r="L143" t="s">
-        <v>13</v>
-      </c>
-      <c r="M143">
         <v>5</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saneesh\project\kannur-vyabari-api-server\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VISHNU\VISHNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504BE1B3-E17E-4810-9E81-02D40DDC3DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A147B-2F3A-4C92-B24E-07677AC3093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="264" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="16">
   <si>
     <t>Mobile</t>
   </si>
@@ -58,13 +58,16 @@
     <t>NomineeRelation</t>
   </si>
   <si>
-    <t>KNR</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>UserId</t>
+  </si>
+  <si>
+    <t>AJK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDK </t>
   </si>
 </sst>
 </file>
@@ -905,16 +908,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -955,4640 +957,5132 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9995596622</v>
+        <v>9048317425</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9895459692</v>
+        <v>9847804592</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>8848492871</v>
+        <v>9847287089</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8304958808</v>
+        <v>9495183147</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9946202032</v>
+        <v>8547358223</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9495191908</v>
+        <v>9847596547</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9447954771</v>
+        <v>9847202944</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9961345410</v>
+        <v>9656770370</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9847192229</v>
+        <v>9895524490</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9995790795</v>
+        <v>9388704142</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9895133707</v>
+        <v>9847502150</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9847154157</v>
+        <v>9947347807</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9995113311</v>
+        <v>9747736179</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9447542786</v>
+        <v>9400406124</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9048300741</v>
+        <v>8547023768</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9562777498</v>
+        <v>9745360099</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9947738601</v>
+        <v>9656070225</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9947388121</v>
+        <v>9567926363</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9656578818</v>
+        <v>9446836007</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9895452572</v>
+        <v>9995318629</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9847558846</v>
+        <v>9061822072</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9995687469</v>
+        <v>9847921867</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9446339248</v>
+        <v>9995561609</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9447068712</v>
+        <v>9962485022</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9746512742</v>
+        <v>8111958092</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9447399429</v>
+        <v>9797231804</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>8547005017</v>
+        <v>9847109140</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9995909515</v>
+        <v>9847938768</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>8547707819</v>
+        <v>9846614623</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9567979567</v>
+        <v>9497759329</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9497625736</v>
+        <v>9895255841</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9995071919</v>
+        <v>9746239086</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>8281600263</v>
+        <v>9496370621</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>7012804255</v>
+        <v>9562687451</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9495358398</v>
+        <v>9633984070</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9656193191</v>
+        <v>9446770632</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9747289687</v>
+        <v>9744803658</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9539333993</v>
+        <v>8281122082</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>6238768050</v>
+        <v>9961669573</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9447411339</v>
+        <v>9656083024</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C41">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9847209200</v>
+        <v>9947303234</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9895246131</v>
+        <v>9847313108</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9847982234</v>
+        <v>9447486952</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9847109990</v>
+        <v>8547390759</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9895796981</v>
+        <v>7994767668</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9745159091</v>
+        <v>9048691809</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9447438251</v>
+        <v>9061662341</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9895303919</v>
+        <v>7902566426</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9847766454</v>
+        <v>9496171871</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9447548366</v>
+        <v>9447441808</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9495303633</v>
+        <v>9947070261</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9447100942</v>
+        <v>9400531471</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9388701122</v>
+        <v>7994941989</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9995006228</v>
+        <v>8136865744</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9846535363</v>
+        <v>9656367686</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9744345673</v>
+        <v>9562485659</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9895865276</v>
+        <v>9947915335</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C58">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9142028456</v>
+        <v>9496957035</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C59">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9544970321</v>
+        <v>7736243123</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C60">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>7994025322</v>
+        <v>9544622562</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C61">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9947584398</v>
+        <v>8547154645</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9846832632</v>
+        <v>8129979438</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C63">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>7902918341</v>
+        <v>9961283798</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9895422323</v>
+        <v>9895601610</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C65">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>9447040098</v>
+        <v>9207109643</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>8129285851</v>
+        <v>9207232657</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C67">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M67">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>9645083228</v>
+        <v>9847501097</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C68">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9847443744</v>
+        <v>9847629042</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C69">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9895117119</v>
+        <v>9207241002</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9846041977</v>
+        <v>9947985659</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9447449152</v>
+        <v>9747825278</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C72">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>8111822244</v>
+        <v>8547558208</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9495771446</v>
+        <v>9847685286</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9895173229</v>
+        <v>9847416979</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C75">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M75">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9895718648</v>
+        <v>9447531988</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>7994923925</v>
+        <v>9656528763</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C77">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9746464671</v>
+        <v>9961609193</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9567935260</v>
+        <v>9961128418</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>8921826822</v>
+        <v>9847035917</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C80">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9400881454</v>
+        <v>9495015484</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M81">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>7558053524</v>
+        <v>9567856213</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C82">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>8592062604</v>
+        <v>9794050003</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C83">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9747356697</v>
+        <v>9847031027</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C84">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9746130247</v>
+        <v>9526231719</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M85">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9142864993</v>
+        <v>9074328859</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M86">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>8129642985</v>
+        <v>9447935450</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C87">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9846350620</v>
+        <v>9072776996</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C88">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>9846788895</v>
+        <v>6238398583</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C89">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9496524700</v>
+        <v>7012774767</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C90">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9846185289</v>
+        <v>9847142120</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C91">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9633756586</v>
+        <v>9207767755</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C92">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9447322332</v>
+        <v>9249263644</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C93">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9847815573</v>
+        <v>8281519908</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9895900900</v>
+        <v>9746132800</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C95">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9846063488</v>
+        <v>9961659345</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C96">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9895556659</v>
+        <v>9526294584</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M97">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9895556659</v>
+        <v>9495854933</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C98">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9447217489</v>
+        <v>9847741115</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C99">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M99">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>8129363540</v>
+        <v>9496921037</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9746541866</v>
+        <v>7594858080</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C101">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9645808102</v>
+        <v>9539936041</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>7306868369</v>
+        <v>9895569116</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M103">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9746161536</v>
+        <v>7902452297</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C104">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M104">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>9895176625</v>
+        <v>7902343044</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>9846557619</v>
+        <v>9895435400</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9895711572</v>
+        <v>9633905951</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C107">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M107">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9895595412</v>
+        <v>9995112332</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C108">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M108">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>9447040098</v>
+        <v>9947998651</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C109">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M109">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>8129285851</v>
+        <v>9847175245</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C110">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M110">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>9645083228</v>
+        <v>9947152879</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C111">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M111">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>9847443744</v>
+        <v>8129115340</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C112">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M112">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>9895117119</v>
+        <v>9847156266</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C113">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>9846041977</v>
+        <v>9562747586</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C114">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M114">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>9961514855</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>235</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" t="s">
+        <v>12</v>
+      </c>
+      <c r="K115" t="s">
+        <v>12</v>
+      </c>
+      <c r="L115" t="s">
+        <v>12</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>9446528057</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116">
+        <v>235</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" t="s">
+        <v>12</v>
+      </c>
+      <c r="K116" t="s">
+        <v>12</v>
+      </c>
+      <c r="L116" t="s">
+        <v>12</v>
+      </c>
+      <c r="M116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>9847008348</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>235</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" t="s">
+        <v>12</v>
+      </c>
+      <c r="K117" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" t="s">
+        <v>12</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>9400051611</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>235</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" t="s">
+        <v>12</v>
+      </c>
+      <c r="K118" t="s">
+        <v>12</v>
+      </c>
+      <c r="L118" t="s">
+        <v>12</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>9526590805</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>235</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" t="s">
+        <v>12</v>
+      </c>
+      <c r="K119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L119" t="s">
+        <v>12</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>8289848544</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>235</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" t="s">
+        <v>12</v>
+      </c>
+      <c r="K120" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" t="s">
+        <v>12</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>9447732664</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>235</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" t="s">
+        <v>12</v>
+      </c>
+      <c r="K121" t="s">
+        <v>12</v>
+      </c>
+      <c r="L121" t="s">
+        <v>12</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>9061683116</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>235</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122" t="s">
+        <v>12</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>9947283918</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>235</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" t="s">
+        <v>12</v>
+      </c>
+      <c r="K123" t="s">
+        <v>12</v>
+      </c>
+      <c r="L123" t="s">
+        <v>12</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>9847642744</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>235</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" t="s">
+        <v>12</v>
+      </c>
+      <c r="K124" t="s">
+        <v>12</v>
+      </c>
+      <c r="L124" t="s">
+        <v>12</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>9744071624</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125">
+        <v>235</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" t="s">
+        <v>12</v>
+      </c>
+      <c r="K125" t="s">
+        <v>12</v>
+      </c>
+      <c r="L125" t="s">
+        <v>12</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>9249876792</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>235</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" t="s">
+        <v>12</v>
+      </c>
+      <c r="K126" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" t="s">
+        <v>12</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VISHNU\VISHNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A147B-2F3A-4C92-B24E-07677AC3093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D117F0DA-1FFF-4A31-AE9F-A17401BD805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="264" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5256" yWindow="1992" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="18">
   <si>
     <t>Mobile</t>
   </si>
@@ -67,7 +67,13 @@
     <t>AJK</t>
   </si>
   <si>
+    <t>PNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">EDK </t>
+  </si>
+  <si>
+    <t>MYL</t>
   </si>
 </sst>
 </file>
@@ -908,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,13 +968,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9048317425</v>
+        <v>9744850819</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1003,13 +1009,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9847804592</v>
+        <v>9388004493</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1044,13 +1050,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9847287089</v>
+        <v>9567675729</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1085,13 +1091,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9495183147</v>
+        <v>9746000987</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1126,13 +1132,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>8547358223</v>
+        <v>9633095465</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1167,13 +1173,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9847596547</v>
+        <v>9895106336</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1208,13 +1214,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9847202944</v>
+        <v>9447485830</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1249,13 +1255,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9656770370</v>
+        <v>9400156514</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1290,13 +1296,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9895524490</v>
+        <v>6282467501</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1331,13 +1337,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9388704142</v>
+        <v>9744164521</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1372,13 +1378,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9847502150</v>
+        <v>9747538625</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1413,13 +1419,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9947347807</v>
+        <v>9400521562</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1454,13 +1460,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9747736179</v>
+        <v>9567157991</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1495,13 +1501,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9400406124</v>
+        <v>9562520530</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1536,13 +1542,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>8547023768</v>
+        <v>9995841409</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1577,13 +1583,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9745360099</v>
+        <v>9656942626</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1618,13 +1624,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9656070225</v>
+        <v>9946440245</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1659,13 +1665,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9567926363</v>
+        <v>9946951806</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1700,13 +1706,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9446836007</v>
+        <v>9061141626</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1741,13 +1747,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9995318629</v>
+        <v>9633953697</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1782,13 +1788,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9061822072</v>
+        <v>9447037865</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1823,13 +1829,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9847921867</v>
+        <v>9895313504</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1864,13 +1870,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9995561609</v>
+        <v>9562939749</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1905,13 +1911,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9962485022</v>
+        <v>6234871013</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1946,13 +1952,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>8111958092</v>
+        <v>7025772234</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1987,13 +1993,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9797231804</v>
+        <v>9895873902</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -2028,13 +2034,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9847109140</v>
+        <v>8129649701</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -2069,13 +2075,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9847938768</v>
+        <v>8129394537</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -2110,13 +2116,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9846614623</v>
+        <v>9895518307</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -2151,13 +2157,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9497759329</v>
+        <v>9947787569</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -2192,13 +2198,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9895255841</v>
+        <v>9744070434</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -2233,13 +2239,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9746239086</v>
+        <v>9496424081</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -2274,13 +2280,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9496370621</v>
+        <v>9645747645</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -2315,13 +2321,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>9562687451</v>
+        <v>9447851854</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -2356,13 +2362,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9633984070</v>
+        <v>9447040736</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -2397,13 +2403,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9446770632</v>
+        <v>7012536850</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2438,13 +2444,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9744803658</v>
+        <v>9446919391</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2479,13 +2485,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8281122082</v>
+        <v>9020807568</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2520,13 +2526,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9961669573</v>
+        <v>9446168628</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2561,13 +2567,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9656083024</v>
+        <v>9544740097</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2602,13 +2608,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9947303234</v>
+        <v>9947581122</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2643,13 +2649,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9847313108</v>
+        <v>9961768030</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2684,13 +2690,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9447486952</v>
+        <v>9446918848</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2725,13 +2731,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>8547390759</v>
+        <v>9446888965</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2766,13 +2772,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>7994767668</v>
+        <v>9947045332</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2807,13 +2813,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9048691809</v>
+        <v>9447689004</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2848,13 +2854,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9061662341</v>
+        <v>9847150126</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2889,13 +2895,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>7902566426</v>
+        <v>9495960485</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -2930,13 +2936,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9496171871</v>
+        <v>8156839496</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2971,13 +2977,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9447441808</v>
+        <v>9744715426</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -3012,13 +3018,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9947070261</v>
+        <v>9142433340</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -3053,13 +3059,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9400531471</v>
+        <v>9745471529</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -3094,13 +3100,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>7994941989</v>
+        <v>9446168339</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -3135,13 +3141,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>8136865744</v>
+        <v>9656745519</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3176,13 +3182,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9656367686</v>
+        <v>9447286170</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -3217,13 +3223,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9562485659</v>
+        <v>9446301347</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -3258,13 +3264,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9947915335</v>
+        <v>9495052009</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -3299,13 +3305,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9496957035</v>
+        <v>8590975587</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3340,13 +3346,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>7736243123</v>
+        <v>8089436936</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -3381,13 +3387,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>9544622562</v>
+        <v>9562342848</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -3422,13 +3428,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>8547154645</v>
+        <v>8848078512</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -3463,13 +3469,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>8129979438</v>
+        <v>9562514807</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -3504,13 +3510,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9961283798</v>
+        <v>9495043626</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -3545,13 +3551,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9895601610</v>
+        <v>9447548860</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -3586,13 +3592,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>9207109643</v>
+        <v>9446220423</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -3627,13 +3633,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9207232657</v>
+        <v>7909294155</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -3668,13 +3674,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>9847501097</v>
+        <v>9495027689</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -3709,13 +3715,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9847629042</v>
+        <v>9544582847</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -3750,13 +3756,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9207241002</v>
+        <v>7558869581</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3791,13 +3797,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9947985659</v>
+        <v>9605995831</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3832,13 +3838,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9747825278</v>
+        <v>9947018128</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3873,13 +3879,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>8547558208</v>
+        <v>9446269923</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3914,13 +3920,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9847685286</v>
+        <v>9562375436</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3955,13 +3961,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9847416979</v>
+        <v>9446956324</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3996,13 +4002,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9447531988</v>
+        <v>9249374797</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -4037,13 +4043,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9656528763</v>
+        <v>9747498321</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -4078,13 +4084,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9961609193</v>
+        <v>9447648981</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -4119,13 +4125,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9961128418</v>
+        <v>9446989699</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -4160,13 +4166,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9847035917</v>
+        <v>7907499869</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -4201,13 +4207,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9495015484</v>
+        <v>9605241140</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -4242,13 +4248,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9567856213</v>
+        <v>9447685726</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -4283,13 +4289,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9794050003</v>
+        <v>7034217817</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C83">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -4324,13 +4330,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9847031027</v>
+        <v>9544335063</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -4365,13 +4371,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9526231719</v>
+        <v>9746986853</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -4406,13 +4412,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9074328859</v>
+        <v>8281237607</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C86">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -4447,13 +4453,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>9447935450</v>
+        <v>8281405387</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -4488,13 +4494,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9072776996</v>
+        <v>9447113131</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -4529,13 +4535,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>6238398583</v>
+        <v>7909298168</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -4570,13 +4576,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>7012774767</v>
+        <v>9961038217</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -4611,13 +4617,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9847142120</v>
+        <v>9495147459</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -4652,13 +4658,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9207767755</v>
+        <v>9961413910</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -4693,13 +4699,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9249263644</v>
+        <v>9037471415</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -4734,13 +4740,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>8281519908</v>
+        <v>8880009661</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -4775,13 +4781,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9746132800</v>
+        <v>9961846058</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -4816,13 +4822,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9961659345</v>
+        <v>9495096253</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C96">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -4857,13 +4863,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9526294584</v>
+        <v>9495892706</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C97">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -4898,13 +4904,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9495854933</v>
+        <v>7907152090</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -4939,13 +4945,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9847741115</v>
+        <v>7907007293</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C99">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -4980,13 +4986,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9496921037</v>
+        <v>9447487777</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -5021,13 +5027,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>7594858080</v>
+        <v>9495182805</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -5062,13 +5068,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9539936041</v>
+        <v>9447483070</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C102">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -5103,13 +5109,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9895569116</v>
+        <v>9495263329</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -5144,13 +5150,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>7902452297</v>
+        <v>7907436350</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -5185,13 +5191,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>7902343044</v>
+        <v>7907403070</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C105">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -5226,13 +5232,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>9895435400</v>
+        <v>9961135389</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -5267,13 +5273,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9633905951</v>
+        <v>9746702717</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C107">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -5308,13 +5314,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9995112332</v>
+        <v>9961773006</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -5349,13 +5355,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>9947998651</v>
+        <v>9747065417</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C109">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -5390,13 +5396,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>9847175245</v>
+        <v>9442190045</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C110">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -5431,13 +5437,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>9947152879</v>
+        <v>9249757642</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C111">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -5472,13 +5478,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>8129115340</v>
+        <v>9847131551</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C112">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -5513,13 +5519,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>9847156266</v>
+        <v>9496453464</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C113">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -5554,13 +5560,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>9562747586</v>
+        <v>9567390479</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C114">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -5595,13 +5601,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>9961514855</v>
+        <v>9656004158</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C115">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -5631,457 +5637,6 @@
         <v>12</v>
       </c>
       <c r="M115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>9446528057</v>
-      </c>
-      <c r="B116" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116">
-        <v>235</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" t="s">
-        <v>12</v>
-      </c>
-      <c r="K116" t="s">
-        <v>12</v>
-      </c>
-      <c r="L116" t="s">
-        <v>12</v>
-      </c>
-      <c r="M116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>9847008348</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117">
-        <v>235</v>
-      </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" t="s">
-        <v>12</v>
-      </c>
-      <c r="J117" t="s">
-        <v>12</v>
-      </c>
-      <c r="K117" t="s">
-        <v>12</v>
-      </c>
-      <c r="L117" t="s">
-        <v>12</v>
-      </c>
-      <c r="M117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>9400051611</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118">
-        <v>235</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" t="s">
-        <v>12</v>
-      </c>
-      <c r="J118" t="s">
-        <v>12</v>
-      </c>
-      <c r="K118" t="s">
-        <v>12</v>
-      </c>
-      <c r="L118" t="s">
-        <v>12</v>
-      </c>
-      <c r="M118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>9526590805</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119">
-        <v>235</v>
-      </c>
-      <c r="D119" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" t="s">
-        <v>12</v>
-      </c>
-      <c r="J119" t="s">
-        <v>12</v>
-      </c>
-      <c r="K119" t="s">
-        <v>12</v>
-      </c>
-      <c r="L119" t="s">
-        <v>12</v>
-      </c>
-      <c r="M119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>8289848544</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120">
-        <v>235</v>
-      </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" t="s">
-        <v>12</v>
-      </c>
-      <c r="J120" t="s">
-        <v>12</v>
-      </c>
-      <c r="K120" t="s">
-        <v>12</v>
-      </c>
-      <c r="L120" t="s">
-        <v>12</v>
-      </c>
-      <c r="M120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>9447732664</v>
-      </c>
-      <c r="B121" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121">
-        <v>235</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" t="s">
-        <v>12</v>
-      </c>
-      <c r="J121" t="s">
-        <v>12</v>
-      </c>
-      <c r="K121" t="s">
-        <v>12</v>
-      </c>
-      <c r="L121" t="s">
-        <v>12</v>
-      </c>
-      <c r="M121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>9061683116</v>
-      </c>
-      <c r="B122" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122">
-        <v>235</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" t="s">
-        <v>12</v>
-      </c>
-      <c r="J122" t="s">
-        <v>12</v>
-      </c>
-      <c r="K122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L122" t="s">
-        <v>12</v>
-      </c>
-      <c r="M122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>9947283918</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123">
-        <v>235</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" t="s">
-        <v>12</v>
-      </c>
-      <c r="I123" t="s">
-        <v>12</v>
-      </c>
-      <c r="J123" t="s">
-        <v>12</v>
-      </c>
-      <c r="K123" t="s">
-        <v>12</v>
-      </c>
-      <c r="L123" t="s">
-        <v>12</v>
-      </c>
-      <c r="M123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>9847642744</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124">
-        <v>235</v>
-      </c>
-      <c r="D124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" t="s">
-        <v>12</v>
-      </c>
-      <c r="J124" t="s">
-        <v>12</v>
-      </c>
-      <c r="K124" t="s">
-        <v>12</v>
-      </c>
-      <c r="L124" t="s">
-        <v>12</v>
-      </c>
-      <c r="M124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>9744071624</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125">
-        <v>235</v>
-      </c>
-      <c r="D125" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" t="s">
-        <v>12</v>
-      </c>
-      <c r="J125" t="s">
-        <v>12</v>
-      </c>
-      <c r="K125" t="s">
-        <v>12</v>
-      </c>
-      <c r="L125" t="s">
-        <v>12</v>
-      </c>
-      <c r="M125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>9249876792</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126">
-        <v>235</v>
-      </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" t="s">
-        <v>12</v>
-      </c>
-      <c r="J126" t="s">
-        <v>12</v>
-      </c>
-      <c r="K126" t="s">
-        <v>12</v>
-      </c>
-      <c r="L126" t="s">
-        <v>12</v>
-      </c>
-      <c r="M126">
         <v>4</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VISHNU\VISHNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D117F0DA-1FFF-4A31-AE9F-A17401BD805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4598BEBD-6F00-46E1-B20D-72B7B39BDD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="1992" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9876" yWindow="1440" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="17">
   <si>
     <t>Mobile</t>
   </si>
@@ -58,22 +58,19 @@
     <t>NomineeRelation</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>UserId</t>
   </si>
   <si>
-    <t>UserId</t>
+    <t>MYL</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>AJK</t>
   </si>
   <si>
-    <t>PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDK </t>
-  </si>
-  <si>
-    <t>MYL</t>
+    <t>TLY</t>
   </si>
 </sst>
 </file>
@@ -914,15 +911,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -963,45 +961,45 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9744850819</v>
+        <v>9605184511</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M2">
         <v>4</v>
@@ -1009,40 +1007,40 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9388004493</v>
+        <v>9947083832</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -1050,40 +1048,40 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9567675729</v>
+        <v>9562703797</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M4">
         <v>4</v>
@@ -1091,40 +1089,40 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9746000987</v>
+        <v>9946473286</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -1132,40 +1130,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9633095465</v>
+        <v>9656060568</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -1173,40 +1171,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9895106336</v>
+        <v>9961656378</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M7">
         <v>4</v>
@@ -1214,40 +1212,40 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9447485830</v>
+        <v>9495596596</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -1255,40 +1253,40 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9400156514</v>
+        <v>9744884582</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M9">
         <v>4</v>
@@ -1296,40 +1294,40 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6282467501</v>
+        <v>9895478118</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -1337,40 +1335,40 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9744164521</v>
+        <v>9846695784</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M11">
         <v>4</v>
@@ -1378,40 +1376,40 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9747538625</v>
+        <v>7907319365</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -1419,40 +1417,40 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9400521562</v>
+        <v>8547296794</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M13">
         <v>4</v>
@@ -1460,40 +1458,40 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9567157991</v>
+        <v>9544212641</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M14">
         <v>4</v>
@@ -1501,40 +1499,40 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9562520530</v>
+        <v>9747576749</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -1542,40 +1540,40 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9995841409</v>
+        <v>7025160810</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M16">
         <v>4</v>
@@ -1583,40 +1581,40 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9656942626</v>
+        <v>9497708925</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -1624,40 +1622,40 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9946440245</v>
+        <v>9947035572</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M18">
         <v>4</v>
@@ -1665,40 +1663,40 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9946951806</v>
+        <v>8848602640</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M19">
         <v>4</v>
@@ -1706,40 +1704,40 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9061141626</v>
+        <v>8547520596</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M20">
         <v>4</v>
@@ -1747,40 +1745,40 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9633953697</v>
+        <v>9995312971</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M21">
         <v>4</v>
@@ -1788,40 +1786,40 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9447037865</v>
+        <v>9746129397</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M22">
         <v>4</v>
@@ -1829,40 +1827,40 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9895313504</v>
+        <v>9207259807</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M23">
         <v>4</v>
@@ -1870,40 +1868,40 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9562939749</v>
+        <v>9847469067</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M24">
         <v>4</v>
@@ -1911,40 +1909,40 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>6234871013</v>
+        <v>9544846033</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M25">
         <v>4</v>
@@ -1952,40 +1950,40 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>7025772234</v>
+        <v>9895595403</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M26">
         <v>4</v>
@@ -1993,40 +1991,40 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9895873902</v>
+        <v>9995378447</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M27">
         <v>4</v>
@@ -2034,40 +2032,40 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>8129649701</v>
+        <v>9847823867</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M28">
         <v>4</v>
@@ -2075,40 +2073,40 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>8129394537</v>
+        <v>9048110962</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M29">
         <v>4</v>
@@ -2116,40 +2114,40 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9895518307</v>
+        <v>9747741235</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M30">
         <v>4</v>
@@ -2157,40 +2155,40 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9947787569</v>
+        <v>9895662702</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M31">
         <v>4</v>
@@ -2198,40 +2196,40 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9744070434</v>
+        <v>9497753420</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M32">
         <v>4</v>
@@ -2239,40 +2237,40 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9496424081</v>
+        <v>9495416177</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M33">
         <v>4</v>
@@ -2280,40 +2278,40 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9645747645</v>
+        <v>9567105241</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M34">
         <v>4</v>
@@ -2321,40 +2319,40 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>9447851854</v>
+        <v>9562752201</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M35">
         <v>4</v>
@@ -2362,40 +2360,40 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9447040736</v>
+        <v>9947817145</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M36">
         <v>4</v>
@@ -2403,40 +2401,40 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>7012536850</v>
+        <v>9947656856</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M37">
         <v>4</v>
@@ -2444,40 +2442,40 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9446919391</v>
+        <v>9447953550</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M38">
         <v>4</v>
@@ -2485,40 +2483,40 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9020807568</v>
+        <v>8129416118</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M39">
         <v>4</v>
@@ -2526,40 +2524,40 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9446168628</v>
+        <v>9645860544</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M40">
         <v>4</v>
@@ -2567,40 +2565,40 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9544740097</v>
+        <v>9656639456</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M41">
         <v>4</v>
@@ -2608,40 +2606,40 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9947581122</v>
+        <v>9497034106</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M42">
         <v>4</v>
@@ -2649,40 +2647,40 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9961768030</v>
+        <v>9895124257</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M43">
         <v>4</v>
@@ -2690,40 +2688,40 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9446918848</v>
+        <v>9895676294</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M44">
         <v>4</v>
@@ -2731,40 +2729,40 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9446888965</v>
+        <v>9995057526</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M45">
         <v>4</v>
@@ -2772,40 +2770,40 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9947045332</v>
+        <v>8606584828</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M46">
         <v>4</v>
@@ -2813,40 +2811,40 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9447689004</v>
+        <v>9747621673</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M47">
         <v>4</v>
@@ -2854,40 +2852,40 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9847150126</v>
+        <v>9846274144</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M48">
         <v>4</v>
@@ -2895,40 +2893,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9495960485</v>
+        <v>9074577529</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M49">
         <v>4</v>
@@ -2936,40 +2934,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>8156839496</v>
+        <v>9496641343</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M50">
         <v>4</v>
@@ -2977,40 +2975,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9744715426</v>
+        <v>9656142922</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M51">
         <v>4</v>
@@ -3018,40 +3016,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9142433340</v>
+        <v>7558987807</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M52">
         <v>4</v>
@@ -3059,40 +3057,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9745471529</v>
+        <v>9747136255</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M53">
         <v>4</v>
@@ -3100,40 +3098,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9446168339</v>
+        <v>8129664175</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M54">
         <v>4</v>
@@ -3141,40 +3139,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9656745519</v>
+        <v>9495724427</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M55">
         <v>4</v>
@@ -3182,40 +3180,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9447286170</v>
+        <v>9947718635</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M56">
         <v>4</v>
@@ -3223,40 +3221,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9446301347</v>
+        <v>8590935978</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M57">
         <v>4</v>
@@ -3264,40 +3262,40 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9495052009</v>
+        <v>9744666639</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M58">
         <v>4</v>
@@ -3305,40 +3303,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>8590975587</v>
+        <v>9447398299</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M59">
         <v>4</v>
@@ -3346,40 +3344,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>8089436936</v>
+        <v>9746561396</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M60">
         <v>4</v>
@@ -3387,40 +3385,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>9562342848</v>
+        <v>8075058154</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M61">
         <v>4</v>
@@ -3428,40 +3426,40 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>8848078512</v>
+        <v>9207890768</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M62">
         <v>4</v>
@@ -3469,40 +3467,40 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9562514807</v>
+        <v>9447361391</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M63">
         <v>4</v>
@@ -3510,40 +3508,40 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9495043626</v>
+        <v>9947982218</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M64">
         <v>4</v>
@@ -3551,40 +3549,40 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9447548860</v>
+        <v>9947850552</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M65">
         <v>4</v>
@@ -3592,40 +3590,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>9446220423</v>
+        <v>9497417680</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M66">
         <v>4</v>
@@ -3633,40 +3631,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>7909294155</v>
+        <v>9895409273</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M67">
         <v>4</v>
@@ -3674,40 +3672,40 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>9495027689</v>
+        <v>9747538614</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M68">
         <v>4</v>
@@ -3715,40 +3713,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9544582847</v>
+        <v>9847550429</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M69">
         <v>4</v>
@@ -3756,40 +3754,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>7558869581</v>
+        <v>9656064958</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M70">
         <v>4</v>
@@ -3797,40 +3795,40 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9605995831</v>
+        <v>9526978167</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M71">
         <v>4</v>
@@ -3838,40 +3836,40 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9947018128</v>
+        <v>9847128436</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M72">
         <v>4</v>
@@ -3879,40 +3877,40 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9446269923</v>
+        <v>9947647037</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M73">
         <v>4</v>
@@ -3920,40 +3918,40 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9562375436</v>
+        <v>7902653641</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M74">
         <v>4</v>
@@ -3961,40 +3959,40 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9446956324</v>
+        <v>9995398102</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M75">
         <v>4</v>
@@ -4002,40 +4000,40 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9249374797</v>
+        <v>8281352377</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M76">
         <v>4</v>
@@ -4043,40 +4041,40 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9747498321</v>
+        <v>9495724487</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M77">
         <v>4</v>
@@ -4084,40 +4082,40 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9447648981</v>
+        <v>9048310375</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M78">
         <v>4</v>
@@ -4125,40 +4123,40 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9446989699</v>
+        <v>9895192515</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C79">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M79">
         <v>4</v>
@@ -4166,40 +4164,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>7907499869</v>
+        <v>9495770004</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M80">
         <v>4</v>
@@ -4207,40 +4205,40 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9605241140</v>
+        <v>9895901409</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M81">
         <v>4</v>
@@ -4248,40 +4246,40 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9447685726</v>
+        <v>9846153958</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C82">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M82">
         <v>4</v>
@@ -4289,40 +4287,40 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>7034217817</v>
+        <v>9495294636</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C83">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M83">
         <v>4</v>
@@ -4330,40 +4328,40 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9544335063</v>
+        <v>9895904255</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M84">
         <v>4</v>
@@ -4371,40 +4369,40 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9746986853</v>
+        <v>9562312245</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C85">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M85">
         <v>4</v>
@@ -4412,40 +4410,40 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>8281237607</v>
+        <v>9447504050</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M86">
         <v>4</v>
@@ -4453,40 +4451,40 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>8281405387</v>
+        <v>9656865261</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M87">
         <v>4</v>
@@ -4494,40 +4492,40 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9447113131</v>
+        <v>8943072894</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M88">
         <v>4</v>
@@ -4535,40 +4533,40 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>7909298168</v>
+        <v>8547586443</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M89">
         <v>4</v>
@@ -4576,40 +4574,40 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9961038217</v>
+        <v>9061188400</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C90">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M90">
         <v>4</v>
@@ -4617,40 +4615,40 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9495147459</v>
+        <v>9605413862</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C91">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M91">
         <v>4</v>
@@ -4658,40 +4656,40 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9961413910</v>
+        <v>9567379564</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C92">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M92">
         <v>4</v>
@@ -4699,40 +4697,40 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9037471415</v>
+        <v>9995316590</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M93">
         <v>4</v>
@@ -4740,40 +4738,40 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>8880009661</v>
+        <v>9656692823</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M94">
         <v>4</v>
@@ -4781,40 +4779,40 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9961846058</v>
+        <v>9847132118</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C95">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M95">
         <v>4</v>
@@ -4822,40 +4820,40 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9495096253</v>
+        <v>9544615854</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M96">
         <v>4</v>
@@ -4863,40 +4861,40 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9495892706</v>
+        <v>9847465677</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C97">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M97">
         <v>4</v>
@@ -4904,40 +4902,40 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>7907152090</v>
+        <v>9496846323</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C98">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M98">
         <v>4</v>
@@ -4945,40 +4943,40 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>7907007293</v>
+        <v>9526673672</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M99">
         <v>4</v>
@@ -4986,40 +4984,40 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9447487777</v>
+        <v>9447862952</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C100">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M100">
         <v>4</v>
@@ -5027,40 +5025,40 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9495182805</v>
+        <v>9288909189</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M101">
         <v>4</v>
@@ -5068,40 +5066,40 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9447483070</v>
+        <v>9645561639</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M102">
         <v>4</v>
@@ -5109,40 +5107,40 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9495263329</v>
+        <v>9526273754</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M103">
         <v>4</v>
@@ -5150,40 +5148,40 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>7907436350</v>
+        <v>9995811584</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M104">
         <v>4</v>
@@ -5191,40 +5189,40 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>7907403070</v>
+        <v>8606130716</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M105">
         <v>4</v>
@@ -5232,40 +5230,40 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>9961135389</v>
+        <v>8547453626</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M106">
         <v>4</v>
@@ -5273,40 +5271,40 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9746702717</v>
+        <v>9037751855</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M107">
         <v>4</v>
@@ -5314,40 +5312,40 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9961773006</v>
+        <v>8526106230</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C108">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M108">
         <v>4</v>
@@ -5355,40 +5353,40 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>9747065417</v>
+        <v>7994092796</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C109">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M109">
         <v>4</v>
@@ -5396,40 +5394,40 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>9442190045</v>
+        <v>9847024632</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C110">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M110">
         <v>4</v>
@@ -5437,40 +5435,40 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>9249757642</v>
+        <v>9961600397</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C111">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M111">
         <v>4</v>
@@ -5478,40 +5476,40 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>9847131551</v>
+        <v>9947258490</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C112">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M112">
         <v>4</v>
@@ -5519,40 +5517,40 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>9496453464</v>
+        <v>9961721331</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C113">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M113">
         <v>4</v>
@@ -5560,40 +5558,40 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>9567390479</v>
+        <v>9947528245</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C114">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M114">
         <v>4</v>
@@ -5601,46 +5599,1564 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>9656004158</v>
+        <v>9746936368</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C115">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>9400154560</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" t="s">
+        <v>14</v>
+      </c>
+      <c r="M116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>9847350782</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117">
+        <v>236</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>8606734357</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118">
+        <v>236</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" t="s">
+        <v>14</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>7356357688</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119">
+        <v>236</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" t="s">
+        <v>14</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>8129616289</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120">
+        <v>236</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" t="s">
+        <v>14</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>8089297610</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <v>236</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" t="s">
+        <v>14</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>9648252258</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>236</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" t="s">
+        <v>14</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>9447642827</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>236</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" t="s">
+        <v>14</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>9446342835</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <v>236</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" t="s">
+        <v>14</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>9142378700</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>236</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s">
+        <v>14</v>
+      </c>
+      <c r="L125" t="s">
+        <v>14</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>9947988860</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>236</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
+      </c>
+      <c r="L126" t="s">
+        <v>14</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>9961452889</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127">
+        <v>236</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" t="s">
+        <v>14</v>
+      </c>
+      <c r="M127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>9847712243</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128">
+        <v>236</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" t="s">
+        <v>14</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>9961448740</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>236</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" t="s">
+        <v>14</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>9744781225</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <v>236</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" t="s">
+        <v>14</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>8129534443</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <v>236</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" t="s">
+        <v>14</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>9847838307</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132">
+        <v>236</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" t="s">
+        <v>14</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>9961505765</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>236</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" t="s">
+        <v>14</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>9142300821</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134">
+        <v>236</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" t="s">
+        <v>14</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>9961448661</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135">
+        <v>236</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" t="s">
+        <v>14</v>
+      </c>
+      <c r="L135" t="s">
+        <v>14</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>9496971801</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136">
+        <v>236</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
+        <v>14</v>
+      </c>
+      <c r="K136" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" t="s">
+        <v>14</v>
+      </c>
+      <c r="M136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>9947070242</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137">
+        <v>236</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" t="s">
+        <v>14</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>9747118821</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>236</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" t="s">
+        <v>14</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>9895125884</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>236</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139" t="s">
+        <v>14</v>
+      </c>
+      <c r="L139" t="s">
+        <v>14</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>9544318770</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>236</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" t="s">
+        <v>14</v>
+      </c>
+      <c r="K140" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" t="s">
+        <v>14</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>9562821597</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>236</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141" t="s">
+        <v>14</v>
+      </c>
+      <c r="L141" t="s">
+        <v>14</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>9048988630</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>208</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+      <c r="J142" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" t="s">
+        <v>14</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>8113958499</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143">
+        <v>208</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143" t="s">
+        <v>14</v>
+      </c>
+      <c r="L143" t="s">
+        <v>14</v>
+      </c>
+      <c r="M143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>9947535361</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144">
+        <v>208</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144" t="s">
+        <v>14</v>
+      </c>
+      <c r="L144" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>9895249725</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145">
+        <v>208</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" t="s">
+        <v>14</v>
+      </c>
+      <c r="M145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>9605228924</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146">
+        <v>208</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s">
+        <v>14</v>
+      </c>
+      <c r="L146" t="s">
+        <v>14</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>9605228452</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>208</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
+        <v>14</v>
+      </c>
+      <c r="L147" t="s">
+        <v>14</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>9846938338</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148">
+        <v>208</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
+        <v>14</v>
+      </c>
+      <c r="K148" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" t="s">
+        <v>14</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>9846009430</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149">
+        <v>208</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s">
+        <v>14</v>
+      </c>
+      <c r="L149" t="s">
+        <v>14</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>9497384541</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150">
+        <v>208</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" t="s">
+        <v>14</v>
+      </c>
+      <c r="K150" t="s">
+        <v>14</v>
+      </c>
+      <c r="L150" t="s">
+        <v>14</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>7766904268</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151">
+        <v>208</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151" t="s">
+        <v>14</v>
+      </c>
+      <c r="L151" t="s">
+        <v>14</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>9947645460</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152">
+        <v>208</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" t="s">
+        <v>14</v>
+      </c>
+      <c r="K152" t="s">
+        <v>14</v>
+      </c>
+      <c r="L152" t="s">
+        <v>14</v>
+      </c>
+      <c r="M152">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VISHNU\VISHNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4598BEBD-6F00-46E1-B20D-72B7B39BDD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00D504-2CD2-4CB3-B28E-99B586933FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9876" yWindow="1440" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="1512" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="18">
   <si>
     <t>Mobile</t>
   </si>
@@ -61,7 +61,7 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>MYL</t>
+    <t>PVR</t>
   </si>
   <si>
     <t>NA</t>
@@ -70,7 +70,10 @@
     <t>AJK</t>
   </si>
   <si>
-    <t>TLY</t>
+    <t xml:space="preserve">EDK </t>
+  </si>
+  <si>
+    <t>MYL</t>
   </si>
 </sst>
 </file>
@@ -911,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,13 +969,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9605184511</v>
+        <v>9495388805</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1007,13 +1010,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9947083832</v>
+        <v>8547492092</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1048,13 +1051,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9562703797</v>
+        <v>9961430201</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1089,13 +1092,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9946473286</v>
+        <v>9744593220</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1130,13 +1133,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9656060568</v>
+        <v>9074189868</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1171,13 +1174,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9961656378</v>
+        <v>9495131228</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1212,13 +1215,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9495596596</v>
+        <v>8590274424</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1253,13 +1256,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9744884582</v>
+        <v>9061398208</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1294,13 +1297,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9895478118</v>
+        <v>9526017451</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1335,13 +1338,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9846695784</v>
+        <v>9946097596</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1376,13 +1379,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7907319365</v>
+        <v>9946176835</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1417,13 +1420,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8547296794</v>
+        <v>9539029259</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1458,13 +1461,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9544212641</v>
+        <v>9495148849</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1499,13 +1502,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9747576749</v>
+        <v>9747611515</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1540,13 +1543,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7025160810</v>
+        <v>9605225095</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1581,13 +1584,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9497708925</v>
+        <v>9567337658</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1622,13 +1625,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9947035572</v>
+        <v>9605169843</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1663,13 +1666,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>8848602640</v>
+        <v>9947391884</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1704,13 +1707,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>8547520596</v>
+        <v>9567102484</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1745,13 +1748,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9995312971</v>
+        <v>9947009352</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1786,13 +1789,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9746129397</v>
+        <v>9526673375</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1827,13 +1830,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9207259807</v>
+        <v>8943293335</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1868,13 +1871,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9847469067</v>
+        <v>8547440888</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1909,13 +1912,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9544846033</v>
+        <v>9961688126</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1950,13 +1953,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9895595403</v>
+        <v>9847823228</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1991,13 +1994,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9995378447</v>
+        <v>9657521530</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -2032,13 +2035,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9847823867</v>
+        <v>9961554120</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -2073,13 +2076,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9048110962</v>
+        <v>9961935912</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -2114,13 +2117,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9747741235</v>
+        <v>9747330939</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2155,13 +2158,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9895662702</v>
+        <v>8281941759</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -2196,13 +2199,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9497753420</v>
+        <v>7559085172</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -2237,13 +2240,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9495416177</v>
+        <v>9995743828</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -2278,13 +2281,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9567105241</v>
+        <v>9495776801</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -2319,13 +2322,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>9562752201</v>
+        <v>7034494627</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -2360,13 +2363,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9947817145</v>
+        <v>9847821787</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -2401,13 +2404,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9947656856</v>
+        <v>9895404003</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -2442,13 +2445,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9447953550</v>
+        <v>9895047163</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C38">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2483,13 +2486,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8129416118</v>
+        <v>9567478083</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2524,13 +2527,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9645860544</v>
+        <v>9947151588</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -2565,13 +2568,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9656639456</v>
+        <v>8606543887</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -2606,13 +2609,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9497034106</v>
+        <v>9539178038</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C42">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -2647,13 +2650,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9895124257</v>
+        <v>9961723528</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C43">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -2688,13 +2691,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9895676294</v>
+        <v>9495535610</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C44">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -2729,13 +2732,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9995057526</v>
+        <v>9526653275</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C45">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2770,13 +2773,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8606584828</v>
+        <v>8281402473</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C46">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -2811,13 +2814,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9747621673</v>
+        <v>9526410971</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C47">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2852,13 +2855,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9846274144</v>
+        <v>9446681034</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2893,13 +2896,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9074577529</v>
+        <v>9744991707</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2934,13 +2937,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9496641343</v>
+        <v>9544681147</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2975,13 +2978,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9656142922</v>
+        <v>9446085019</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C51">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -3016,13 +3019,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>7558987807</v>
+        <v>9744077914</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -3057,13 +3060,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9747136255</v>
+        <v>9645316209</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -3098,13 +3101,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>8129664175</v>
+        <v>9605189159</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -3139,13 +3142,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9495724427</v>
+        <v>9496474275</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
@@ -3180,13 +3183,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9947718635</v>
+        <v>9744591144</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
@@ -3221,13 +3224,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>8590935978</v>
+        <v>9446651725</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -3262,13 +3265,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9744666639</v>
+        <v>8073106274</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -3303,13 +3306,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9447398299</v>
+        <v>9526582714</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
@@ -3344,13 +3347,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9746561396</v>
+        <v>9747277234</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -3385,13 +3388,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>8075058154</v>
+        <v>9947649497</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C61">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -3426,13 +3429,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9207890768</v>
+        <v>9847907494</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -3467,13 +3470,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9447361391</v>
+        <v>9497844117</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
@@ -3508,13 +3511,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9947982218</v>
+        <v>9495756034</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -3549,13 +3552,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9947850552</v>
+        <v>9847064368</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -3590,13 +3593,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>9497417680</v>
+        <v>8547711460</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C66">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -3631,13 +3634,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9895409273</v>
+        <v>9562318704</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -3672,13 +3675,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>9747538614</v>
+        <v>8921933719</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -3713,13 +3716,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9847550429</v>
+        <v>9656429510</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C69">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -3754,13 +3757,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9656064958</v>
+        <v>9847880404</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
@@ -3795,13 +3798,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9526978167</v>
+        <v>9605831468</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C71">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
@@ -3836,13 +3839,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9847128436</v>
+        <v>8547044753</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C72">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
@@ -3877,13 +3880,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9947647037</v>
+        <v>9605686880</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -3918,13 +3921,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>7902653641</v>
+        <v>9747953639</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -3959,13 +3962,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9995398102</v>
+        <v>8157036740</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C75">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -4000,13 +4003,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>8281352377</v>
+        <v>8547175035</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -4041,13 +4044,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9495724487</v>
+        <v>9544545354</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -4082,13 +4085,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9048310375</v>
+        <v>7356045831</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C78">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -4123,13 +4126,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9895192515</v>
+        <v>7560901501</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -4164,13 +4167,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9495770004</v>
+        <v>7902951931</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -4205,13 +4208,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9895901409</v>
+        <v>9947717951</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -4246,13 +4249,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9846153958</v>
+        <v>9745476435</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -4287,13 +4290,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9495294636</v>
+        <v>9526003899</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C83">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -4328,13 +4331,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9895904255</v>
+        <v>9400789120</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -4369,13 +4372,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9562312245</v>
+        <v>9488678317</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C85">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -4410,13 +4413,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9447504050</v>
+        <v>9961105265</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C86">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -4451,13 +4454,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>9656865261</v>
+        <v>7025264103</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C87">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -4492,13 +4495,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>8943072894</v>
+        <v>9544091201</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C88">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -4533,13 +4536,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>8547586443</v>
+        <v>9744321261</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C89">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -4574,13 +4577,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9061188400</v>
+        <v>9562835712</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C90">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -4615,13 +4618,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9605413862</v>
+        <v>9544396832</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -4656,13 +4659,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9567379564</v>
+        <v>9847238436</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -4697,13 +4700,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9995316590</v>
+        <v>9142023369</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -4738,13 +4741,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9656692823</v>
+        <v>9446318047</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C94">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
@@ -4779,13 +4782,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9847132118</v>
+        <v>9497606463</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -4820,13 +4823,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9544615854</v>
+        <v>9656062083</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C96">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -4861,13 +4864,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9847465677</v>
+        <v>9605831468</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -4902,13 +4905,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9496846323</v>
+        <v>9847190113</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C98">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -4943,13 +4946,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9526673672</v>
+        <v>9744320547</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C99">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
@@ -4984,13 +4987,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9447862952</v>
+        <v>9526065228</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -5025,13 +5028,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9288909189</v>
+        <v>9961777461</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C101">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -5066,13 +5069,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9645561639</v>
+        <v>9400475962</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C102">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -5107,13 +5110,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9526273754</v>
+        <v>9895868301</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
@@ -5148,13 +5151,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9995811584</v>
+        <v>9526962808</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C104">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -5189,13 +5192,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>8606130716</v>
+        <v>9747268627</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -5230,13 +5233,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>8547453626</v>
+        <v>7559949283</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
@@ -5271,13 +5274,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9037751855</v>
+        <v>9447956897</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C107">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -5312,13 +5315,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>8526106230</v>
+        <v>9961094901</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -5353,13 +5356,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>7994092796</v>
+        <v>6238747973</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C109">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -5394,13 +5397,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>9847024632</v>
+        <v>9447167103</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C110">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -5430,1728 +5433,6 @@
         <v>14</v>
       </c>
       <c r="M110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>9961600397</v>
-      </c>
-      <c r="B111" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111">
-        <v>236</v>
-      </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" t="s">
-        <v>14</v>
-      </c>
-      <c r="K111" t="s">
-        <v>14</v>
-      </c>
-      <c r="L111" t="s">
-        <v>14</v>
-      </c>
-      <c r="M111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>9947258490</v>
-      </c>
-      <c r="B112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112">
-        <v>236</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" t="s">
-        <v>14</v>
-      </c>
-      <c r="K112" t="s">
-        <v>14</v>
-      </c>
-      <c r="L112" t="s">
-        <v>14</v>
-      </c>
-      <c r="M112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>9961721331</v>
-      </c>
-      <c r="B113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113">
-        <v>236</v>
-      </c>
-      <c r="D113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113" t="s">
-        <v>14</v>
-      </c>
-      <c r="K113" t="s">
-        <v>14</v>
-      </c>
-      <c r="L113" t="s">
-        <v>14</v>
-      </c>
-      <c r="M113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>9947528245</v>
-      </c>
-      <c r="B114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114">
-        <v>236</v>
-      </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" t="s">
-        <v>14</v>
-      </c>
-      <c r="K114" t="s">
-        <v>14</v>
-      </c>
-      <c r="L114" t="s">
-        <v>14</v>
-      </c>
-      <c r="M114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>9746936368</v>
-      </c>
-      <c r="B115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115">
-        <v>236</v>
-      </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115" t="s">
-        <v>14</v>
-      </c>
-      <c r="K115" t="s">
-        <v>14</v>
-      </c>
-      <c r="L115" t="s">
-        <v>14</v>
-      </c>
-      <c r="M115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>9400154560</v>
-      </c>
-      <c r="B116" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116">
-        <v>236</v>
-      </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" t="s">
-        <v>14</v>
-      </c>
-      <c r="K116" t="s">
-        <v>14</v>
-      </c>
-      <c r="L116" t="s">
-        <v>14</v>
-      </c>
-      <c r="M116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>9847350782</v>
-      </c>
-      <c r="B117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117">
-        <v>236</v>
-      </c>
-      <c r="D117" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" t="s">
-        <v>14</v>
-      </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117" t="s">
-        <v>14</v>
-      </c>
-      <c r="K117" t="s">
-        <v>14</v>
-      </c>
-      <c r="L117" t="s">
-        <v>14</v>
-      </c>
-      <c r="M117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>8606734357</v>
-      </c>
-      <c r="B118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118">
-        <v>236</v>
-      </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>14</v>
-      </c>
-      <c r="K118" t="s">
-        <v>14</v>
-      </c>
-      <c r="L118" t="s">
-        <v>14</v>
-      </c>
-      <c r="M118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>7356357688</v>
-      </c>
-      <c r="B119" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119">
-        <v>236</v>
-      </c>
-      <c r="D119" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" t="s">
-        <v>14</v>
-      </c>
-      <c r="K119" t="s">
-        <v>14</v>
-      </c>
-      <c r="L119" t="s">
-        <v>14</v>
-      </c>
-      <c r="M119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>8129616289</v>
-      </c>
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120">
-        <v>236</v>
-      </c>
-      <c r="D120" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" t="s">
-        <v>14</v>
-      </c>
-      <c r="I120" t="s">
-        <v>14</v>
-      </c>
-      <c r="J120" t="s">
-        <v>14</v>
-      </c>
-      <c r="K120" t="s">
-        <v>14</v>
-      </c>
-      <c r="L120" t="s">
-        <v>14</v>
-      </c>
-      <c r="M120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>8089297610</v>
-      </c>
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121">
-        <v>236</v>
-      </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" t="s">
-        <v>14</v>
-      </c>
-      <c r="K121" t="s">
-        <v>14</v>
-      </c>
-      <c r="L121" t="s">
-        <v>14</v>
-      </c>
-      <c r="M121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>9648252258</v>
-      </c>
-      <c r="B122" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122">
-        <v>236</v>
-      </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" t="s">
-        <v>14</v>
-      </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" t="s">
-        <v>14</v>
-      </c>
-      <c r="K122" t="s">
-        <v>14</v>
-      </c>
-      <c r="L122" t="s">
-        <v>14</v>
-      </c>
-      <c r="M122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>9447642827</v>
-      </c>
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123">
-        <v>236</v>
-      </c>
-      <c r="D123" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" t="s">
-        <v>14</v>
-      </c>
-      <c r="I123" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" t="s">
-        <v>14</v>
-      </c>
-      <c r="K123" t="s">
-        <v>14</v>
-      </c>
-      <c r="L123" t="s">
-        <v>14</v>
-      </c>
-      <c r="M123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>9446342835</v>
-      </c>
-      <c r="B124" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124">
-        <v>236</v>
-      </c>
-      <c r="D124" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" t="s">
-        <v>14</v>
-      </c>
-      <c r="K124" t="s">
-        <v>14</v>
-      </c>
-      <c r="L124" t="s">
-        <v>14</v>
-      </c>
-      <c r="M124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>9142378700</v>
-      </c>
-      <c r="B125" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125">
-        <v>236</v>
-      </c>
-      <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" t="s">
-        <v>14</v>
-      </c>
-      <c r="I125" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" t="s">
-        <v>14</v>
-      </c>
-      <c r="K125" t="s">
-        <v>14</v>
-      </c>
-      <c r="L125" t="s">
-        <v>14</v>
-      </c>
-      <c r="M125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>9947988860</v>
-      </c>
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126">
-        <v>236</v>
-      </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" t="s">
-        <v>14</v>
-      </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" t="s">
-        <v>14</v>
-      </c>
-      <c r="K126" t="s">
-        <v>14</v>
-      </c>
-      <c r="L126" t="s">
-        <v>14</v>
-      </c>
-      <c r="M126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>9961452889</v>
-      </c>
-      <c r="B127" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127">
-        <v>236</v>
-      </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" t="s">
-        <v>14</v>
-      </c>
-      <c r="I127" t="s">
-        <v>14</v>
-      </c>
-      <c r="J127" t="s">
-        <v>14</v>
-      </c>
-      <c r="K127" t="s">
-        <v>14</v>
-      </c>
-      <c r="L127" t="s">
-        <v>14</v>
-      </c>
-      <c r="M127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>9847712243</v>
-      </c>
-      <c r="B128" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128">
-        <v>236</v>
-      </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I128" t="s">
-        <v>14</v>
-      </c>
-      <c r="J128" t="s">
-        <v>14</v>
-      </c>
-      <c r="K128" t="s">
-        <v>14</v>
-      </c>
-      <c r="L128" t="s">
-        <v>14</v>
-      </c>
-      <c r="M128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>9961448740</v>
-      </c>
-      <c r="B129" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129">
-        <v>236</v>
-      </c>
-      <c r="D129" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" t="s">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" t="s">
-        <v>14</v>
-      </c>
-      <c r="K129" t="s">
-        <v>14</v>
-      </c>
-      <c r="L129" t="s">
-        <v>14</v>
-      </c>
-      <c r="M129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>9744781225</v>
-      </c>
-      <c r="B130" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130">
-        <v>236</v>
-      </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" t="s">
-        <v>14</v>
-      </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" t="s">
-        <v>14</v>
-      </c>
-      <c r="K130" t="s">
-        <v>14</v>
-      </c>
-      <c r="L130" t="s">
-        <v>14</v>
-      </c>
-      <c r="M130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>8129534443</v>
-      </c>
-      <c r="B131" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131">
-        <v>236</v>
-      </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>14</v>
-      </c>
-      <c r="K131" t="s">
-        <v>14</v>
-      </c>
-      <c r="L131" t="s">
-        <v>14</v>
-      </c>
-      <c r="M131">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>9847838307</v>
-      </c>
-      <c r="B132" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132">
-        <v>236</v>
-      </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
-        <v>14</v>
-      </c>
-      <c r="K132" t="s">
-        <v>14</v>
-      </c>
-      <c r="L132" t="s">
-        <v>14</v>
-      </c>
-      <c r="M132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>9961505765</v>
-      </c>
-      <c r="B133" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133">
-        <v>236</v>
-      </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>14</v>
-      </c>
-      <c r="H133" t="s">
-        <v>14</v>
-      </c>
-      <c r="I133" t="s">
-        <v>14</v>
-      </c>
-      <c r="J133" t="s">
-        <v>14</v>
-      </c>
-      <c r="K133" t="s">
-        <v>14</v>
-      </c>
-      <c r="L133" t="s">
-        <v>14</v>
-      </c>
-      <c r="M133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>9142300821</v>
-      </c>
-      <c r="B134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134">
-        <v>236</v>
-      </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" t="s">
-        <v>14</v>
-      </c>
-      <c r="I134" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" t="s">
-        <v>14</v>
-      </c>
-      <c r="K134" t="s">
-        <v>14</v>
-      </c>
-      <c r="L134" t="s">
-        <v>14</v>
-      </c>
-      <c r="M134">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>9961448661</v>
-      </c>
-      <c r="B135" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135">
-        <v>236</v>
-      </c>
-      <c r="D135" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" t="s">
-        <v>14</v>
-      </c>
-      <c r="I135" t="s">
-        <v>14</v>
-      </c>
-      <c r="J135" t="s">
-        <v>14</v>
-      </c>
-      <c r="K135" t="s">
-        <v>14</v>
-      </c>
-      <c r="L135" t="s">
-        <v>14</v>
-      </c>
-      <c r="M135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>9496971801</v>
-      </c>
-      <c r="B136" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136">
-        <v>236</v>
-      </c>
-      <c r="D136" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" t="s">
-        <v>14</v>
-      </c>
-      <c r="I136" t="s">
-        <v>14</v>
-      </c>
-      <c r="J136" t="s">
-        <v>14</v>
-      </c>
-      <c r="K136" t="s">
-        <v>14</v>
-      </c>
-      <c r="L136" t="s">
-        <v>14</v>
-      </c>
-      <c r="M136">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>9947070242</v>
-      </c>
-      <c r="B137" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137">
-        <v>236</v>
-      </c>
-      <c r="D137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>14</v>
-      </c>
-      <c r="H137" t="s">
-        <v>14</v>
-      </c>
-      <c r="I137" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" t="s">
-        <v>14</v>
-      </c>
-      <c r="K137" t="s">
-        <v>14</v>
-      </c>
-      <c r="L137" t="s">
-        <v>14</v>
-      </c>
-      <c r="M137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>9747118821</v>
-      </c>
-      <c r="B138" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138">
-        <v>236</v>
-      </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138" t="s">
-        <v>14</v>
-      </c>
-      <c r="I138" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" t="s">
-        <v>14</v>
-      </c>
-      <c r="K138" t="s">
-        <v>14</v>
-      </c>
-      <c r="L138" t="s">
-        <v>14</v>
-      </c>
-      <c r="M138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>9895125884</v>
-      </c>
-      <c r="B139" t="s">
-        <v>15</v>
-      </c>
-      <c r="C139">
-        <v>236</v>
-      </c>
-      <c r="D139" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>14</v>
-      </c>
-      <c r="H139" t="s">
-        <v>14</v>
-      </c>
-      <c r="I139" t="s">
-        <v>14</v>
-      </c>
-      <c r="J139" t="s">
-        <v>14</v>
-      </c>
-      <c r="K139" t="s">
-        <v>14</v>
-      </c>
-      <c r="L139" t="s">
-        <v>14</v>
-      </c>
-      <c r="M139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>9544318770</v>
-      </c>
-      <c r="B140" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140">
-        <v>236</v>
-      </c>
-      <c r="D140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>14</v>
-      </c>
-      <c r="H140" t="s">
-        <v>14</v>
-      </c>
-      <c r="I140" t="s">
-        <v>14</v>
-      </c>
-      <c r="J140" t="s">
-        <v>14</v>
-      </c>
-      <c r="K140" t="s">
-        <v>14</v>
-      </c>
-      <c r="L140" t="s">
-        <v>14</v>
-      </c>
-      <c r="M140">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>9562821597</v>
-      </c>
-      <c r="B141" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141">
-        <v>236</v>
-      </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" t="s">
-        <v>14</v>
-      </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" t="s">
-        <v>14</v>
-      </c>
-      <c r="K141" t="s">
-        <v>14</v>
-      </c>
-      <c r="L141" t="s">
-        <v>14</v>
-      </c>
-      <c r="M141">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>9048988630</v>
-      </c>
-      <c r="B142" t="s">
-        <v>16</v>
-      </c>
-      <c r="C142">
-        <v>208</v>
-      </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" t="s">
-        <v>14</v>
-      </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" t="s">
-        <v>14</v>
-      </c>
-      <c r="K142" t="s">
-        <v>14</v>
-      </c>
-      <c r="L142" t="s">
-        <v>14</v>
-      </c>
-      <c r="M142">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>8113958499</v>
-      </c>
-      <c r="B143" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143">
-        <v>208</v>
-      </c>
-      <c r="D143" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>14</v>
-      </c>
-      <c r="H143" t="s">
-        <v>14</v>
-      </c>
-      <c r="I143" t="s">
-        <v>14</v>
-      </c>
-      <c r="J143" t="s">
-        <v>14</v>
-      </c>
-      <c r="K143" t="s">
-        <v>14</v>
-      </c>
-      <c r="L143" t="s">
-        <v>14</v>
-      </c>
-      <c r="M143">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>9947535361</v>
-      </c>
-      <c r="B144" t="s">
-        <v>16</v>
-      </c>
-      <c r="C144">
-        <v>208</v>
-      </c>
-      <c r="D144" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>14</v>
-      </c>
-      <c r="H144" t="s">
-        <v>14</v>
-      </c>
-      <c r="I144" t="s">
-        <v>14</v>
-      </c>
-      <c r="J144" t="s">
-        <v>14</v>
-      </c>
-      <c r="K144" t="s">
-        <v>14</v>
-      </c>
-      <c r="L144" t="s">
-        <v>14</v>
-      </c>
-      <c r="M144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>9895249725</v>
-      </c>
-      <c r="B145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145">
-        <v>208</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>14</v>
-      </c>
-      <c r="H145" t="s">
-        <v>14</v>
-      </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" t="s">
-        <v>14</v>
-      </c>
-      <c r="K145" t="s">
-        <v>14</v>
-      </c>
-      <c r="L145" t="s">
-        <v>14</v>
-      </c>
-      <c r="M145">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>9605228924</v>
-      </c>
-      <c r="B146" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146">
-        <v>208</v>
-      </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" t="s">
-        <v>14</v>
-      </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
-        <v>14</v>
-      </c>
-      <c r="K146" t="s">
-        <v>14</v>
-      </c>
-      <c r="L146" t="s">
-        <v>14</v>
-      </c>
-      <c r="M146">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>9605228452</v>
-      </c>
-      <c r="B147" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147">
-        <v>208</v>
-      </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>14</v>
-      </c>
-      <c r="H147" t="s">
-        <v>14</v>
-      </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" t="s">
-        <v>14</v>
-      </c>
-      <c r="K147" t="s">
-        <v>14</v>
-      </c>
-      <c r="L147" t="s">
-        <v>14</v>
-      </c>
-      <c r="M147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>9846938338</v>
-      </c>
-      <c r="B148" t="s">
-        <v>16</v>
-      </c>
-      <c r="C148">
-        <v>208</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" t="s">
-        <v>14</v>
-      </c>
-      <c r="I148" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" t="s">
-        <v>14</v>
-      </c>
-      <c r="K148" t="s">
-        <v>14</v>
-      </c>
-      <c r="L148" t="s">
-        <v>14</v>
-      </c>
-      <c r="M148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>9846009430</v>
-      </c>
-      <c r="B149" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149">
-        <v>208</v>
-      </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" t="s">
-        <v>14</v>
-      </c>
-      <c r="I149" t="s">
-        <v>14</v>
-      </c>
-      <c r="J149" t="s">
-        <v>14</v>
-      </c>
-      <c r="K149" t="s">
-        <v>14</v>
-      </c>
-      <c r="L149" t="s">
-        <v>14</v>
-      </c>
-      <c r="M149">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>9497384541</v>
-      </c>
-      <c r="B150" t="s">
-        <v>16</v>
-      </c>
-      <c r="C150">
-        <v>208</v>
-      </c>
-      <c r="D150" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>14</v>
-      </c>
-      <c r="H150" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" t="s">
-        <v>14</v>
-      </c>
-      <c r="J150" t="s">
-        <v>14</v>
-      </c>
-      <c r="K150" t="s">
-        <v>14</v>
-      </c>
-      <c r="L150" t="s">
-        <v>14</v>
-      </c>
-      <c r="M150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>7766904268</v>
-      </c>
-      <c r="B151" t="s">
-        <v>16</v>
-      </c>
-      <c r="C151">
-        <v>208</v>
-      </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>14</v>
-      </c>
-      <c r="H151" t="s">
-        <v>14</v>
-      </c>
-      <c r="I151" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" t="s">
-        <v>14</v>
-      </c>
-      <c r="K151" t="s">
-        <v>14</v>
-      </c>
-      <c r="L151" t="s">
-        <v>14</v>
-      </c>
-      <c r="M151">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>9947645460</v>
-      </c>
-      <c r="B152" t="s">
-        <v>16</v>
-      </c>
-      <c r="C152">
-        <v>208</v>
-      </c>
-      <c r="D152" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>14</v>
-      </c>
-      <c r="H152" t="s">
-        <v>14</v>
-      </c>
-      <c r="I152" t="s">
-        <v>14</v>
-      </c>
-      <c r="J152" t="s">
-        <v>14</v>
-      </c>
-      <c r="K152" t="s">
-        <v>14</v>
-      </c>
-      <c r="L152" t="s">
-        <v>14</v>
-      </c>
-      <c r="M152">
         <v>4</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VISHNU\VISHNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00D504-2CD2-4CB3-B28E-99B586933FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B7686-D946-49B5-8C89-61D0246A2B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="1512" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8784" yWindow="1896" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="19">
   <si>
     <t>Mobile</t>
   </si>
@@ -61,19 +61,22 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>PVR</t>
+    <t>MYL</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>AJK</t>
-  </si>
-  <si>
     <t xml:space="preserve">EDK </t>
   </si>
   <si>
-    <t>MYL</t>
+    <t>EKD</t>
+  </si>
+  <si>
+    <t>PNR</t>
+  </si>
+  <si>
+    <t>KNR</t>
   </si>
 </sst>
 </file>
@@ -914,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,13 +972,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9495388805</v>
+        <v>9400477162</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1010,13 +1013,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8547492092</v>
+        <v>9447282848</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1051,13 +1054,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9961430201</v>
+        <v>9995955755</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1092,13 +1095,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9744593220</v>
+        <v>9747876907</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1133,13 +1136,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9074189868</v>
+        <v>9745294907</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1174,13 +1177,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9495131228</v>
+        <v>9446838337</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1215,13 +1218,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8590274424</v>
+        <v>9447935239</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1256,13 +1259,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9061398208</v>
+        <v>9895108264</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1297,13 +1300,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9526017451</v>
+        <v>9446616018</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1338,13 +1341,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9946097596</v>
+        <v>9895695837</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1379,13 +1382,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9946176835</v>
+        <v>9847730635</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1420,13 +1423,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9539029259</v>
+        <v>9747578103</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1461,13 +1464,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9495148849</v>
+        <v>9895434964</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1502,13 +1505,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9747611515</v>
+        <v>9400875768</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1543,13 +1546,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9605225095</v>
+        <v>8547276609</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1584,13 +1587,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9567337658</v>
+        <v>9446658528</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1625,13 +1628,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9605169843</v>
+        <v>7012184505</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1666,13 +1669,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9947391884</v>
+        <v>9495534350</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1707,13 +1710,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9567102484</v>
+        <v>7510222562</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1748,13 +1751,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9947009352</v>
+        <v>9633766889</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1789,13 +1792,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9526673375</v>
+        <v>9656710155</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1830,13 +1833,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>8943293335</v>
+        <v>9544464405</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1871,13 +1874,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>8547440888</v>
+        <v>9633757278</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1912,13 +1915,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9961688126</v>
+        <v>8547435653</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1953,13 +1956,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9847823228</v>
+        <v>9961529954</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1994,13 +1997,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9657521530</v>
+        <v>9847233103</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -2035,13 +2038,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9961554120</v>
+        <v>9847033103</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -2076,13 +2079,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9961935912</v>
+        <v>8129494385</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -2117,13 +2120,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9747330939</v>
+        <v>9895487809</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2158,13 +2161,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>8281941759</v>
+        <v>8547124589</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -2199,13 +2202,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>7559085172</v>
+        <v>9656335533</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -2240,13 +2243,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9995743828</v>
+        <v>9061816983</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -2281,13 +2284,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9495776801</v>
+        <v>9048569345</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -2322,13 +2325,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>7034494627</v>
+        <v>7025025870</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -2363,13 +2366,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9847821787</v>
+        <v>9995360760</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -2404,13 +2407,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9895404003</v>
+        <v>9995257746</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -2445,13 +2448,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9895047163</v>
+        <v>9947875104</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2486,13 +2489,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9567478083</v>
+        <v>9496276500</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2527,13 +2530,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9947151588</v>
+        <v>9846936405</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -2568,13 +2571,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8606543887</v>
+        <v>9446737871</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -2609,13 +2612,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9539178038</v>
+        <v>9605343973</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -2650,13 +2653,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9961723528</v>
+        <v>8547176906</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -2691,13 +2694,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9495535610</v>
+        <v>9895203916</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -2732,13 +2735,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9526653275</v>
+        <v>9847707320</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2773,13 +2776,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8281402473</v>
+        <v>9567080720</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -2814,13 +2817,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9526410971</v>
+        <v>9747706806</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2855,13 +2858,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9446681034</v>
+        <v>9388813953</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2896,13 +2899,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9744991707</v>
+        <v>9447736018</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
       <c r="C49">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2937,13 +2940,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9544681147</v>
+        <v>9947075248</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
       <c r="C50">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2978,13 +2981,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9446085019</v>
+        <v>8606833566</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
       </c>
       <c r="C51">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -3019,13 +3022,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>9744077914</v>
+        <v>8606243004</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
       </c>
       <c r="C52">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -3060,13 +3063,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9645316209</v>
+        <v>9447658222</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
       <c r="C53">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -3101,13 +3104,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9605189159</v>
+        <v>9847998370</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
       </c>
       <c r="C54">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -3142,13 +3145,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9496474275</v>
+        <v>9539638428</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
       <c r="C55">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
@@ -3183,13 +3186,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9744591144</v>
+        <v>8129189489</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
       </c>
       <c r="C56">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
@@ -3224,13 +3227,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9446651725</v>
+        <v>9895200257</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
       </c>
       <c r="C57">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -3265,13 +3268,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>8073106274</v>
+        <v>9847257062</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
       </c>
       <c r="C58">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -3306,13 +3309,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9526582714</v>
+        <v>9745296060</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>252</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
@@ -3347,13 +3350,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9747277234</v>
+        <v>9855899001</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -3388,13 +3391,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>9947649497</v>
+        <v>9496783654</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -3429,13 +3432,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9847907494</v>
+        <v>9526880582</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -3470,13 +3473,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>9497844117</v>
+        <v>8848598589</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
@@ -3511,13 +3514,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9495756034</v>
+        <v>9526880582</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -3552,13 +3555,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9847064368</v>
+        <v>9447700849</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
       </c>
       <c r="C65">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -3593,13 +3596,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>8547711460</v>
+        <v>9048579096</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
       <c r="C66">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -3634,13 +3637,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9562318704</v>
+        <v>9061607838</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
       </c>
       <c r="C67">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -3675,13 +3678,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>8921933719</v>
+        <v>8086864949</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
       </c>
       <c r="C68">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -3716,13 +3719,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9656429510</v>
+        <v>9946678744</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
       <c r="C69">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -3757,13 +3760,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9847880404</v>
+        <v>9496051150</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
       </c>
       <c r="C70">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
@@ -3798,13 +3801,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9605831468</v>
+        <v>9562565425</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
       </c>
       <c r="C71">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
@@ -3839,13 +3842,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>8547044753</v>
+        <v>9447286541</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
       </c>
       <c r="C72">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
@@ -3880,13 +3883,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9605686880</v>
+        <v>9961411898</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
       </c>
       <c r="C73">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -3921,13 +3924,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9747953639</v>
+        <v>7356539766</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
       </c>
       <c r="C74">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -3962,13 +3965,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>8157036740</v>
+        <v>9539909093</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
       </c>
       <c r="C75">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -4003,13 +4006,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>8547175035</v>
+        <v>9947428205</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
       </c>
       <c r="C76">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -4044,13 +4047,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9544545354</v>
+        <v>9656601149</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
       </c>
       <c r="C77">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -4085,13 +4088,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>7356045831</v>
+        <v>9656868129</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -4126,13 +4129,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>7560901501</v>
+        <v>9947154156</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="C79">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -4167,13 +4170,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>7902951931</v>
+        <v>9544848067</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
       </c>
       <c r="C80">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -4208,13 +4211,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9947717951</v>
+        <v>9895727246</v>
       </c>
       <c r="B81" t="s">
         <v>17</v>
       </c>
       <c r="C81">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -4249,13 +4252,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9745476435</v>
+        <v>9605451669</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
       </c>
       <c r="C82">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -4290,13 +4293,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9526003899</v>
+        <v>9497139740</v>
       </c>
       <c r="B83" t="s">
         <v>17</v>
       </c>
       <c r="C83">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -4331,13 +4334,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9400789120</v>
+        <v>9847251199</v>
       </c>
       <c r="B84" t="s">
         <v>17</v>
       </c>
       <c r="C84">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -4372,13 +4375,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9488678317</v>
+        <v>9645260100</v>
       </c>
       <c r="B85" t="s">
         <v>17</v>
       </c>
       <c r="C85">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -4413,13 +4416,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9961105265</v>
+        <v>9048917001</v>
       </c>
       <c r="B86" t="s">
         <v>17</v>
       </c>
       <c r="C86">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -4454,13 +4457,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>7025264103</v>
+        <v>9496854079</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
       </c>
       <c r="C87">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -4495,13 +4498,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9544091201</v>
+        <v>9947428917</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
       </c>
       <c r="C88">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -4536,13 +4539,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>9744321261</v>
+        <v>9633715559</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
       </c>
       <c r="C89">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -4577,13 +4580,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9562835712</v>
+        <v>9744361954</v>
       </c>
       <c r="B90" t="s">
         <v>17</v>
       </c>
       <c r="C90">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -4618,13 +4621,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>9544396832</v>
+        <v>7306075389</v>
       </c>
       <c r="B91" t="s">
         <v>17</v>
       </c>
       <c r="C91">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -4659,13 +4662,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9847238436</v>
+        <v>8589831874</v>
       </c>
       <c r="B92" t="s">
         <v>17</v>
       </c>
       <c r="C92">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -4700,13 +4703,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9142023369</v>
+        <v>9446401801</v>
       </c>
       <c r="B93" t="s">
         <v>17</v>
       </c>
       <c r="C93">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -4741,13 +4744,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9446318047</v>
+        <v>9847083361</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
@@ -4782,13 +4785,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9497606463</v>
+        <v>9747078831</v>
       </c>
       <c r="B95" t="s">
         <v>17</v>
       </c>
       <c r="C95">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -4823,13 +4826,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9656062083</v>
+        <v>9447685532</v>
       </c>
       <c r="B96" t="s">
         <v>17</v>
       </c>
       <c r="C96">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -4864,13 +4867,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9605831468</v>
+        <v>9846576794</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
       </c>
       <c r="C97">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -4905,13 +4908,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9847190113</v>
+        <v>9496359466</v>
       </c>
       <c r="B98" t="s">
         <v>17</v>
       </c>
       <c r="C98">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -4946,13 +4949,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9744320547</v>
+        <v>9961554443</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
       </c>
       <c r="C99">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
@@ -4987,13 +4990,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9526065228</v>
+        <v>9446896624</v>
       </c>
       <c r="B100" t="s">
         <v>17</v>
       </c>
       <c r="C100">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -5028,13 +5031,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9961777461</v>
+        <v>9446081676</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -5069,13 +5072,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9400475962</v>
+        <v>9446081676</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -5110,13 +5113,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9895868301</v>
+        <v>9746218383</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
@@ -5151,13 +5154,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9526962808</v>
+        <v>9847070722</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -5192,13 +5195,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>9747268627</v>
+        <v>8157818861</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C105">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -5233,13 +5236,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>7559949283</v>
+        <v>8590775708</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
@@ -5274,13 +5277,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9447956897</v>
+        <v>9895209647</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -5315,13 +5318,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9961094901</v>
+        <v>9847212006</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C108">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -5356,13 +5359,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>6238747973</v>
+        <v>9895564416</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -5397,13 +5400,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>9447167103</v>
+        <v>7994149589</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C110">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -5433,6 +5436,375 @@
         <v>14</v>
       </c>
       <c r="M110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>9746363414</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>279</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" t="s">
+        <v>14</v>
+      </c>
+      <c r="M111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>9446741431</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>279</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>8281893865</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113">
+        <v>279</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>8075702654</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>279</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" t="s">
+        <v>14</v>
+      </c>
+      <c r="M114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>9895825757</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115">
+        <v>279</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" t="s">
+        <v>14</v>
+      </c>
+      <c r="L115" t="s">
+        <v>14</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>9846231548</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>279</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" t="s">
+        <v>14</v>
+      </c>
+      <c r="M116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>9995603101</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117">
+        <v>279</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>9446567345</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118">
+        <v>279</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" t="s">
+        <v>14</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>9961506890</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119">
+        <v>279</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" t="s">
+        <v>14</v>
+      </c>
+      <c r="M119">
         <v>4</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VISHNU\VISHNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B7686-D946-49B5-8C89-61D0246A2B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93983A86-944B-491B-BDB7-18521F320BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8784" yWindow="1896" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7668" yWindow="2004" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="16">
   <si>
     <t>Mobile</t>
   </si>
@@ -61,22 +61,13 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>MYL</t>
+    <t>AJK</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">EDK </t>
-  </si>
-  <si>
-    <t>EKD</t>
-  </si>
-  <si>
     <t>PNR</t>
-  </si>
-  <si>
-    <t>KNR</t>
   </si>
 </sst>
 </file>
@@ -917,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,13 +963,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9400477162</v>
+        <v>9746898533</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1013,13 +1004,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9447282848</v>
+        <v>9778475034</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1054,13 +1045,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9995955755</v>
+        <v>9605851119</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1095,13 +1086,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9747876907</v>
+        <v>9633239060</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1136,13 +1127,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9745294907</v>
+        <v>9074023697</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1177,13 +1168,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9446838337</v>
+        <v>9567793030</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1218,13 +1209,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9447935239</v>
+        <v>9947541278</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1259,13 +1250,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9895108264</v>
+        <v>9947253965</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1300,13 +1291,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9446616018</v>
+        <v>9548438311</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1341,13 +1332,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9895695837</v>
+        <v>9447690469</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1382,13 +1373,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9847730635</v>
+        <v>9526280469</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1423,13 +1414,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9747578103</v>
+        <v>9074805600</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1464,13 +1455,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9895434964</v>
+        <v>9847265111</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1505,13 +1496,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9400875768</v>
+        <v>9947427981</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1546,13 +1537,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>8547276609</v>
+        <v>9207488086</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1587,13 +1578,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9446658528</v>
+        <v>7909158157</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1628,13 +1619,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7012184505</v>
+        <v>9747718124</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1669,13 +1660,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9495534350</v>
+        <v>9747343155</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1710,13 +1701,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>7510222562</v>
+        <v>8281671271</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1751,13 +1742,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9633766889</v>
+        <v>9947052716</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1792,13 +1783,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9656710155</v>
+        <v>9387240157</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1833,13 +1824,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9544464405</v>
+        <v>8138062822</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1874,13 +1865,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>9633757278</v>
+        <v>8606066578</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1915,13 +1906,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8547435653</v>
+        <v>8281043856</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1956,13 +1947,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9961529954</v>
+        <v>8606713097</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1997,13 +1988,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9847233103</v>
+        <v>8547484113</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -2038,13 +2029,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9847033103</v>
+        <v>9947009859</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -2079,13 +2070,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>8129494385</v>
+        <v>9895091435</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -2120,13 +2111,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9895487809</v>
+        <v>9747121448</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2161,13 +2152,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>8547124589</v>
+        <v>9947647358</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -2202,13 +2193,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9656335533</v>
+        <v>9847877901</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -2243,13 +2234,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9061816983</v>
+        <v>9895838685</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -2284,13 +2275,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9048569345</v>
+        <v>9495900230</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -2325,13 +2316,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>7025025870</v>
+        <v>9847014139</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -2366,13 +2357,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9995360760</v>
+        <v>9895677444</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -2407,13 +2398,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9995257746</v>
+        <v>9447685357</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -2448,13 +2439,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9947875104</v>
+        <v>9446303155</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2489,13 +2480,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9496276500</v>
+        <v>9961530687</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2530,13 +2521,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9846936405</v>
+        <v>9447344871</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -2571,13 +2562,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9446737871</v>
+        <v>9495371524</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -2612,13 +2603,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9605343973</v>
+        <v>8156992299</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -2653,13 +2644,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8547176906</v>
+        <v>9048541166</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -2694,13 +2685,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9895203916</v>
+        <v>9895157765</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -2735,13 +2726,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9847707320</v>
+        <v>8943531047</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2776,13 +2767,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9567080720</v>
+        <v>9495695353</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -2817,13 +2808,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9747706806</v>
+        <v>9447284203</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2858,13 +2849,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9388813953</v>
+        <v>9961521446</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2899,13 +2890,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9447736018</v>
+        <v>9744136428</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2940,13 +2931,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9947075248</v>
+        <v>9605017188</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2981,13 +2972,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>8606833566</v>
+        <v>8078085127</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -3022,13 +3013,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>8606243004</v>
+        <v>9746179316</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -3063,13 +3054,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>9447658222</v>
+        <v>8590815578</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -3104,13 +3095,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>9847998370</v>
+        <v>9961477152</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -3145,13 +3136,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9539638428</v>
+        <v>9847152098</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
@@ -3186,13 +3177,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>8129189489</v>
+        <v>8943532191</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
@@ -3227,13 +3218,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9895200257</v>
+        <v>9895596806</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -3268,13 +3259,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9847257062</v>
+        <v>9847777439</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -3309,13 +3300,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9745296060</v>
+        <v>9446137808</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
@@ -3350,13 +3341,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9855899001</v>
+        <v>9249998364</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -3391,13 +3382,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>9496783654</v>
+        <v>9446654042</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -3432,13 +3423,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9526880582</v>
+        <v>9447284165</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -3473,13 +3464,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>8848598589</v>
+        <v>9544555155</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
@@ -3514,13 +3505,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>9526880582</v>
+        <v>9539503450</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -3555,13 +3546,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>9447700849</v>
+        <v>9895514878</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -3596,13 +3587,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>9048579096</v>
+        <v>9847327886</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -3637,13 +3628,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9061607838</v>
+        <v>9846299496</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -3678,13 +3669,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>8086864949</v>
+        <v>9495896171</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -3719,13 +3710,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>9946678744</v>
+        <v>9446667970</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -3760,13 +3751,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9496051150</v>
+        <v>9495805050</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
@@ -3801,13 +3792,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9562565425</v>
+        <v>9400052168</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
@@ -3842,13 +3833,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>9447286541</v>
+        <v>7012002785</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
@@ -3883,13 +3874,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>9961411898</v>
+        <v>7012397492</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -3924,13 +3915,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>7356539766</v>
+        <v>9633145502</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -3965,13 +3956,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9539909093</v>
+        <v>8087820513</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -4006,13 +3997,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9947428205</v>
+        <v>9447822300</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -4047,13 +4038,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9656601149</v>
+        <v>9961039723</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -4088,13 +4079,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>9656868129</v>
+        <v>7902627667</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -4129,13 +4120,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>9947154156</v>
+        <v>9400106735</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -4170,13 +4161,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9544848067</v>
+        <v>8606388313</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -4211,13 +4202,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>9895727246</v>
+        <v>9495203680</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -4252,13 +4243,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>9605451669</v>
+        <v>9961300489</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -4293,13 +4284,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>9497139740</v>
+        <v>9961992401</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -4334,13 +4325,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>9847251199</v>
+        <v>8848494210</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -4375,13 +4366,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>9645260100</v>
+        <v>7356045425</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -4416,13 +4407,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9048917001</v>
+        <v>8921618210</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -4457,13 +4448,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>9496854079</v>
+        <v>9846822423</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -4498,13 +4489,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>9947428917</v>
+        <v>8281787758</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -4539,13 +4530,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>9633715559</v>
+        <v>9995944414</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -4580,13 +4571,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9744361954</v>
+        <v>9495280294</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -4621,13 +4612,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>7306075389</v>
+        <v>8547044377</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -4662,13 +4653,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>8589831874</v>
+        <v>9446771717</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -4703,13 +4694,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9446401801</v>
+        <v>7736024503</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -4744,13 +4735,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9847083361</v>
+        <v>9497494883</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
@@ -4785,13 +4776,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9747078831</v>
+        <v>7025449449</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -4826,13 +4817,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9447685532</v>
+        <v>8606188233</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -4867,13 +4858,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9846576794</v>
+        <v>9895054631</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -4908,13 +4899,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9496359466</v>
+        <v>8086038238</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -4949,13 +4940,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9961554443</v>
+        <v>9020387208</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
@@ -4990,13 +4981,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9446896624</v>
+        <v>9447063766</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -5031,13 +5022,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9446081676</v>
+        <v>9526399655</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -5072,13 +5063,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9446081676</v>
+        <v>9747575575</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C102">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -5113,13 +5104,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9746218383</v>
+        <v>8281802653</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
@@ -5154,13 +5145,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9847070722</v>
+        <v>9946951933</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -5195,13 +5186,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>8157818861</v>
+        <v>9605475511</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C105">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -5236,13 +5227,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>8590775708</v>
+        <v>8547504143</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
@@ -5277,13 +5268,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9895209647</v>
+        <v>8086864721</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -5318,13 +5309,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9847212006</v>
+        <v>9074778718</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C108">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -5359,13 +5350,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>9895564416</v>
+        <v>8078048459</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C109">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -5400,13 +5391,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>7994149589</v>
+        <v>9495780107</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C110">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -5441,13 +5432,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>9746363414</v>
+        <v>9745721135</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C111">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
@@ -5482,13 +5473,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>9446741431</v>
+        <v>9847628285</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C112">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
@@ -5523,13 +5514,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>8281893865</v>
+        <v>9847393497</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C113">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
@@ -5564,13 +5555,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>8075702654</v>
+        <v>9207340071</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C114">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
@@ -5605,13 +5596,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>9895825757</v>
+        <v>8086630740</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C115">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
@@ -5646,13 +5637,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>9846231548</v>
+        <v>9847283456</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C116">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
@@ -5687,13 +5678,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>9995603101</v>
+        <v>9747781944</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C117">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
@@ -5728,13 +5719,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>9446567345</v>
+        <v>8606386358</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C118">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
         <v>14</v>
@@ -5769,13 +5760,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>9961506890</v>
+        <v>9446990941</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
@@ -5805,6 +5796,3532 @@
         <v>14</v>
       </c>
       <c r="M119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>9947787596</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" t="s">
+        <v>14</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>7560975377</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" t="s">
+        <v>14</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>8606017356</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" t="s">
+        <v>14</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>9656514491</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" t="s">
+        <v>14</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>9847951820</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" t="s">
+        <v>14</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>9188575852</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s">
+        <v>14</v>
+      </c>
+      <c r="L125" t="s">
+        <v>14</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>9447489505</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
+      </c>
+      <c r="L126" t="s">
+        <v>14</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>9961612050</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" t="s">
+        <v>14</v>
+      </c>
+      <c r="M127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>7025259898</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" t="s">
+        <v>14</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>9961413198</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" t="s">
+        <v>14</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>9847644949</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" t="s">
+        <v>14</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>9744953090</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" t="s">
+        <v>14</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>9744980550</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" t="s">
+        <v>14</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>8111974753</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" t="s">
+        <v>14</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>9947765118</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" t="s">
+        <v>14</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>9446092365</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" t="s">
+        <v>14</v>
+      </c>
+      <c r="L135" t="s">
+        <v>14</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>9447447865</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
+        <v>14</v>
+      </c>
+      <c r="K136" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" t="s">
+        <v>14</v>
+      </c>
+      <c r="M136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>8547255803</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" t="s">
+        <v>14</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>9388898998</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" t="s">
+        <v>14</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>9961115016</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139" t="s">
+        <v>14</v>
+      </c>
+      <c r="L139" t="s">
+        <v>14</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>9497765902</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" t="s">
+        <v>14</v>
+      </c>
+      <c r="K140" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" t="s">
+        <v>14</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>8075028241</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141" t="s">
+        <v>14</v>
+      </c>
+      <c r="L141" t="s">
+        <v>14</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>9747819189</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+      <c r="J142" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" t="s">
+        <v>14</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>9526922381</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143" t="s">
+        <v>14</v>
+      </c>
+      <c r="L143" t="s">
+        <v>14</v>
+      </c>
+      <c r="M143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>9447314535</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144" t="s">
+        <v>14</v>
+      </c>
+      <c r="L144" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>9447438270</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" t="s">
+        <v>14</v>
+      </c>
+      <c r="M145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>8281496549</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s">
+        <v>14</v>
+      </c>
+      <c r="L146" t="s">
+        <v>14</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>8848774090</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
+        <v>14</v>
+      </c>
+      <c r="L147" t="s">
+        <v>14</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>9847543604</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
+        <v>14</v>
+      </c>
+      <c r="K148" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" t="s">
+        <v>14</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>9846200260</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s">
+        <v>14</v>
+      </c>
+      <c r="L149" t="s">
+        <v>14</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>9946678863</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" t="s">
+        <v>14</v>
+      </c>
+      <c r="K150" t="s">
+        <v>14</v>
+      </c>
+      <c r="L150" t="s">
+        <v>14</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>9895465472</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151" t="s">
+        <v>14</v>
+      </c>
+      <c r="L151" t="s">
+        <v>14</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>9526181467</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" t="s">
+        <v>14</v>
+      </c>
+      <c r="K152" t="s">
+        <v>14</v>
+      </c>
+      <c r="L152" t="s">
+        <v>14</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>9496359911</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" t="s">
+        <v>14</v>
+      </c>
+      <c r="K153" t="s">
+        <v>14</v>
+      </c>
+      <c r="L153" t="s">
+        <v>14</v>
+      </c>
+      <c r="M153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>8281097522</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" t="s">
+        <v>14</v>
+      </c>
+      <c r="K154" t="s">
+        <v>14</v>
+      </c>
+      <c r="L154" t="s">
+        <v>14</v>
+      </c>
+      <c r="M154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>9947590520</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" t="s">
+        <v>14</v>
+      </c>
+      <c r="K155" t="s">
+        <v>14</v>
+      </c>
+      <c r="L155" t="s">
+        <v>14</v>
+      </c>
+      <c r="M155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>8547626942</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" t="s">
+        <v>14</v>
+      </c>
+      <c r="L156" t="s">
+        <v>14</v>
+      </c>
+      <c r="M156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>9895272034</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157" t="s">
+        <v>14</v>
+      </c>
+      <c r="L157" t="s">
+        <v>14</v>
+      </c>
+      <c r="M157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>9497601140</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" t="s">
+        <v>14</v>
+      </c>
+      <c r="K158" t="s">
+        <v>14</v>
+      </c>
+      <c r="L158" t="s">
+        <v>14</v>
+      </c>
+      <c r="M158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>9446602365</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" t="s">
+        <v>14</v>
+      </c>
+      <c r="K159" t="s">
+        <v>14</v>
+      </c>
+      <c r="L159" t="s">
+        <v>14</v>
+      </c>
+      <c r="M159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>9562726356</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160" t="s">
+        <v>14</v>
+      </c>
+      <c r="L160" t="s">
+        <v>14</v>
+      </c>
+      <c r="M160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>9744362144</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+      <c r="J161" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" t="s">
+        <v>14</v>
+      </c>
+      <c r="L161" t="s">
+        <v>14</v>
+      </c>
+      <c r="M161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>9446269170</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" t="s">
+        <v>14</v>
+      </c>
+      <c r="L162" t="s">
+        <v>14</v>
+      </c>
+      <c r="M162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>9947270426</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163" t="s">
+        <v>14</v>
+      </c>
+      <c r="L163" t="s">
+        <v>14</v>
+      </c>
+      <c r="M163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>9497730222</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164" t="s">
+        <v>14</v>
+      </c>
+      <c r="L164" t="s">
+        <v>14</v>
+      </c>
+      <c r="M164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>9961371768</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" t="s">
+        <v>14</v>
+      </c>
+      <c r="K165" t="s">
+        <v>14</v>
+      </c>
+      <c r="L165" t="s">
+        <v>14</v>
+      </c>
+      <c r="M165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>9847500558</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
+        <v>14</v>
+      </c>
+      <c r="H166" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+      <c r="J166" t="s">
+        <v>14</v>
+      </c>
+      <c r="K166" t="s">
+        <v>14</v>
+      </c>
+      <c r="L166" t="s">
+        <v>14</v>
+      </c>
+      <c r="M166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>9447914052</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167" t="s">
+        <v>14</v>
+      </c>
+      <c r="H167" t="s">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>14</v>
+      </c>
+      <c r="J167" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" t="s">
+        <v>14</v>
+      </c>
+      <c r="L167" t="s">
+        <v>14</v>
+      </c>
+      <c r="M167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>9048797871</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>14</v>
+      </c>
+      <c r="J168" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" t="s">
+        <v>14</v>
+      </c>
+      <c r="L168" t="s">
+        <v>14</v>
+      </c>
+      <c r="M168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>9495996477</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+      <c r="J169" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169" t="s">
+        <v>14</v>
+      </c>
+      <c r="L169" t="s">
+        <v>14</v>
+      </c>
+      <c r="M169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>9400414324</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170" t="s">
+        <v>14</v>
+      </c>
+      <c r="L170" t="s">
+        <v>14</v>
+      </c>
+      <c r="M170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>8281454060</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+      <c r="J171" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171" t="s">
+        <v>14</v>
+      </c>
+      <c r="L171" t="s">
+        <v>14</v>
+      </c>
+      <c r="M171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>8281412219</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+      <c r="J172" t="s">
+        <v>14</v>
+      </c>
+      <c r="K172" t="s">
+        <v>14</v>
+      </c>
+      <c r="L172" t="s">
+        <v>14</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>9847825132</v>
+      </c>
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+      <c r="J173" t="s">
+        <v>14</v>
+      </c>
+      <c r="K173" t="s">
+        <v>14</v>
+      </c>
+      <c r="L173" t="s">
+        <v>14</v>
+      </c>
+      <c r="M173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>9544964608</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>14</v>
+      </c>
+      <c r="J174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
+        <v>14</v>
+      </c>
+      <c r="L174" t="s">
+        <v>14</v>
+      </c>
+      <c r="M174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>9995160432</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>14</v>
+      </c>
+      <c r="J175" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175" t="s">
+        <v>14</v>
+      </c>
+      <c r="L175" t="s">
+        <v>14</v>
+      </c>
+      <c r="M175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>6238757797</v>
+      </c>
+      <c r="B176" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
+      </c>
+      <c r="J176" t="s">
+        <v>14</v>
+      </c>
+      <c r="K176" t="s">
+        <v>14</v>
+      </c>
+      <c r="L176" t="s">
+        <v>14</v>
+      </c>
+      <c r="M176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>9495678780</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s">
+        <v>14</v>
+      </c>
+      <c r="H177" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>14</v>
+      </c>
+      <c r="J177" t="s">
+        <v>14</v>
+      </c>
+      <c r="K177" t="s">
+        <v>14</v>
+      </c>
+      <c r="L177" t="s">
+        <v>14</v>
+      </c>
+      <c r="M177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>9526865034</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>14</v>
+      </c>
+      <c r="J178" t="s">
+        <v>14</v>
+      </c>
+      <c r="K178" t="s">
+        <v>14</v>
+      </c>
+      <c r="L178" t="s">
+        <v>14</v>
+      </c>
+      <c r="M178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>9656741961</v>
+      </c>
+      <c r="B179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+      <c r="J179" t="s">
+        <v>14</v>
+      </c>
+      <c r="K179" t="s">
+        <v>14</v>
+      </c>
+      <c r="L179" t="s">
+        <v>14</v>
+      </c>
+      <c r="M179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>9744973133</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>14</v>
+      </c>
+      <c r="J180" t="s">
+        <v>14</v>
+      </c>
+      <c r="K180" t="s">
+        <v>14</v>
+      </c>
+      <c r="L180" t="s">
+        <v>14</v>
+      </c>
+      <c r="M180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>9495389916</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>14</v>
+      </c>
+      <c r="J181" t="s">
+        <v>14</v>
+      </c>
+      <c r="K181" t="s">
+        <v>14</v>
+      </c>
+      <c r="L181" t="s">
+        <v>14</v>
+      </c>
+      <c r="M181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>9605476490</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+      <c r="J182" t="s">
+        <v>14</v>
+      </c>
+      <c r="K182" t="s">
+        <v>14</v>
+      </c>
+      <c r="L182" t="s">
+        <v>14</v>
+      </c>
+      <c r="M182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>9847922135</v>
+      </c>
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>14</v>
+      </c>
+      <c r="J183" t="s">
+        <v>14</v>
+      </c>
+      <c r="K183" t="s">
+        <v>14</v>
+      </c>
+      <c r="L183" t="s">
+        <v>14</v>
+      </c>
+      <c r="M183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>9400855634</v>
+      </c>
+      <c r="B184" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>14</v>
+      </c>
+      <c r="J184" t="s">
+        <v>14</v>
+      </c>
+      <c r="K184" t="s">
+        <v>14</v>
+      </c>
+      <c r="L184" t="s">
+        <v>14</v>
+      </c>
+      <c r="M184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>7558986370</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185">
+        <v>10</v>
+      </c>
+      <c r="D185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>14</v>
+      </c>
+      <c r="J185" t="s">
+        <v>14</v>
+      </c>
+      <c r="K185" t="s">
+        <v>14</v>
+      </c>
+      <c r="L185" t="s">
+        <v>14</v>
+      </c>
+      <c r="M185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>8075856581</v>
+      </c>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" t="s">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>14</v>
+      </c>
+      <c r="J186" t="s">
+        <v>14</v>
+      </c>
+      <c r="K186" t="s">
+        <v>14</v>
+      </c>
+      <c r="L186" t="s">
+        <v>14</v>
+      </c>
+      <c r="M186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>8281870124</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>14</v>
+      </c>
+      <c r="H187" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
+      </c>
+      <c r="J187" t="s">
+        <v>14</v>
+      </c>
+      <c r="K187" t="s">
+        <v>14</v>
+      </c>
+      <c r="L187" t="s">
+        <v>14</v>
+      </c>
+      <c r="M187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>9048944103</v>
+      </c>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" t="s">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+      <c r="J188" t="s">
+        <v>14</v>
+      </c>
+      <c r="K188" t="s">
+        <v>14</v>
+      </c>
+      <c r="L188" t="s">
+        <v>14</v>
+      </c>
+      <c r="M188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>9526263838</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s">
+        <v>14</v>
+      </c>
+      <c r="H189" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>14</v>
+      </c>
+      <c r="J189" t="s">
+        <v>14</v>
+      </c>
+      <c r="K189" t="s">
+        <v>14</v>
+      </c>
+      <c r="L189" t="s">
+        <v>14</v>
+      </c>
+      <c r="M189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>9447482231</v>
+      </c>
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190" t="s">
+        <v>14</v>
+      </c>
+      <c r="H190" t="s">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+      <c r="J190" t="s">
+        <v>14</v>
+      </c>
+      <c r="K190" t="s">
+        <v>14</v>
+      </c>
+      <c r="L190" t="s">
+        <v>14</v>
+      </c>
+      <c r="M190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>9539845922</v>
+      </c>
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
+        <v>14</v>
+      </c>
+      <c r="G191" t="s">
+        <v>14</v>
+      </c>
+      <c r="H191" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+      <c r="J191" t="s">
+        <v>14</v>
+      </c>
+      <c r="K191" t="s">
+        <v>14</v>
+      </c>
+      <c r="L191" t="s">
+        <v>14</v>
+      </c>
+      <c r="M191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>7025302055</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>14</v>
+      </c>
+      <c r="J192" t="s">
+        <v>14</v>
+      </c>
+      <c r="K192" t="s">
+        <v>14</v>
+      </c>
+      <c r="L192" t="s">
+        <v>14</v>
+      </c>
+      <c r="M192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>9744091159</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" t="s">
+        <v>14</v>
+      </c>
+      <c r="G193" t="s">
+        <v>14</v>
+      </c>
+      <c r="H193" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>14</v>
+      </c>
+      <c r="J193" t="s">
+        <v>14</v>
+      </c>
+      <c r="K193" t="s">
+        <v>14</v>
+      </c>
+      <c r="L193" t="s">
+        <v>14</v>
+      </c>
+      <c r="M193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>9947098845</v>
+      </c>
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s">
+        <v>14</v>
+      </c>
+      <c r="H194" t="s">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>14</v>
+      </c>
+      <c r="J194" t="s">
+        <v>14</v>
+      </c>
+      <c r="K194" t="s">
+        <v>14</v>
+      </c>
+      <c r="L194" t="s">
+        <v>14</v>
+      </c>
+      <c r="M194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>9847950522</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" t="s">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>14</v>
+      </c>
+      <c r="J195" t="s">
+        <v>14</v>
+      </c>
+      <c r="K195" t="s">
+        <v>14</v>
+      </c>
+      <c r="L195" t="s">
+        <v>14</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>9744359960</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" t="s">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>14</v>
+      </c>
+      <c r="J196" t="s">
+        <v>14</v>
+      </c>
+      <c r="K196" t="s">
+        <v>14</v>
+      </c>
+      <c r="L196" t="s">
+        <v>14</v>
+      </c>
+      <c r="M196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>8111980087</v>
+      </c>
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" t="s">
+        <v>14</v>
+      </c>
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" t="s">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>14</v>
+      </c>
+      <c r="J197" t="s">
+        <v>14</v>
+      </c>
+      <c r="K197" t="s">
+        <v>14</v>
+      </c>
+      <c r="L197" t="s">
+        <v>14</v>
+      </c>
+      <c r="M197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>9747163469</v>
+      </c>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>14</v>
+      </c>
+      <c r="J198" t="s">
+        <v>14</v>
+      </c>
+      <c r="K198" t="s">
+        <v>14</v>
+      </c>
+      <c r="L198" t="s">
+        <v>14</v>
+      </c>
+      <c r="M198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>9446726853</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+      <c r="J199" t="s">
+        <v>14</v>
+      </c>
+      <c r="K199" t="s">
+        <v>14</v>
+      </c>
+      <c r="L199" t="s">
+        <v>14</v>
+      </c>
+      <c r="M199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>9400744204</v>
+      </c>
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200" t="s">
+        <v>14</v>
+      </c>
+      <c r="K200" t="s">
+        <v>14</v>
+      </c>
+      <c r="L200" t="s">
+        <v>14</v>
+      </c>
+      <c r="M200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>9961611558</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s">
+        <v>14</v>
+      </c>
+      <c r="H201" t="s">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>14</v>
+      </c>
+      <c r="J201" t="s">
+        <v>14</v>
+      </c>
+      <c r="K201" t="s">
+        <v>14</v>
+      </c>
+      <c r="L201" t="s">
+        <v>14</v>
+      </c>
+      <c r="M201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>9961417231</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202">
+        <v>10</v>
+      </c>
+      <c r="D202" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" t="s">
+        <v>14</v>
+      </c>
+      <c r="K202" t="s">
+        <v>14</v>
+      </c>
+      <c r="L202" t="s">
+        <v>14</v>
+      </c>
+      <c r="M202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8289807463</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" t="s">
+        <v>14</v>
+      </c>
+      <c r="G203" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" t="s">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203" t="s">
+        <v>14</v>
+      </c>
+      <c r="K203" t="s">
+        <v>14</v>
+      </c>
+      <c r="L203" t="s">
+        <v>14</v>
+      </c>
+      <c r="M203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>9847333049</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
+      <c r="H204" t="s">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204" t="s">
+        <v>14</v>
+      </c>
+      <c r="K204" t="s">
+        <v>14</v>
+      </c>
+      <c r="L204" t="s">
+        <v>14</v>
+      </c>
+      <c r="M204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>9747643953</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205">
+        <v>10</v>
+      </c>
+      <c r="D205" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" t="s">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K205" t="s">
+        <v>14</v>
+      </c>
+      <c r="L205" t="s">
+        <v>14</v>
+      </c>
+      <c r="M205">
         <v>4</v>
       </c>
     </row>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\VISHNU\VISHNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5DD94-93C0-4470-94B5-72981E910325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F725059F-E711-40B5-B3C8-6CF34983DC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9636" yWindow="1896" windowWidth="16020" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="18">
   <si>
     <t>Mobile</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>UserId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDK </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>MYL</t>
+  </si>
+  <si>
+    <t>AJK</t>
+  </si>
+  <si>
+    <t>PNG</t>
   </si>
 </sst>
 </file>
@@ -542,9 +557,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -900,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,13 +968,5621 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
+      <c r="A2">
+        <v>9074409947</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
+      <c r="A3">
+        <v>9495626938</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
+      <c r="A4">
+        <v>7025025225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9544231251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9847277223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>256</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9526184486</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>256</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9995176086</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>256</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9995146806</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7902366433</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>256</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9605415390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9497050086</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9495150403</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>256</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9446735847</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>256</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7907246199</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>256</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9497136319</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>256</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9895515034</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9847557397</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>256</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9847798339</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>256</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8606457282</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>256</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9496625583</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>256</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9633646946</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>256</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7760904431</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>256</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9947031080</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>256</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9895590531</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>256</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9895610217</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>256</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9847917607</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>256</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9495619077</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>256</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>9747670167</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>256</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9847247543</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>256</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>9502959802</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>256</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>9947206821</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>256</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>9847030487</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>256</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9895105806</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>256</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>9526205191</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>325</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9656521540</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>325</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9947560813</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>325</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>9947560725</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>325</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>8590645237</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>325</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>9746290743</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>325</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9846936440</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>254</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9388726270</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>254</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7736281919</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>254</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9567838965</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>254</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>7034922065</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>254</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>9847620291</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>254</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>9947462605</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>254</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7593843816</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>254</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>9895375444</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>254</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>9562321268</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8075875751</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>254</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>8139815555</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>254</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9895269621</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>254</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>9633939291</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>254</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>9567881968</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>254</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>8606749589</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>254</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>9447778055</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>254</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9895832161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>254</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>7736354565</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>254</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>9526959548</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>254</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>9746623262</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>254</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>9746590548</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>254</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>9961129219</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>254</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>9495383428</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>254</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>9947193934</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>254</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>9447954693</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>254</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>9895299119</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>254</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>9526643541</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>248</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>9847740701</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>248</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>8281974842</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>248</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" t="s">
+        <v>14</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>9496703653</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>248</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" t="s">
+        <v>14</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>9947757567</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>237</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" t="s">
+        <v>14</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>9847110374</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>237</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" t="s">
+        <v>14</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>9605410307</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>237</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" t="s">
+        <v>14</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>9895962986</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>237</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" t="s">
+        <v>14</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>9847551986</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>237</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" t="s">
+        <v>14</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>9103293650</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>237</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>9446657803</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>237</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>9947087197</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>237</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>9349897265</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>237</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>9744012366</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>237</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" t="s">
+        <v>14</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>9847087921</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>237</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>9495683660</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>237</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" t="s">
+        <v>14</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>9544522104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>237</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>9961693600</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>237</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>9947505799</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>237</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>9847398008</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87">
+        <v>237</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" t="s">
+        <v>14</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>9895621890</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88">
+        <v>237</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>9961125658</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>237</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>9656134327</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>237</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>9744098079</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91">
+        <v>237</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" t="s">
+        <v>14</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>9447750333</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>237</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" t="s">
+        <v>14</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>7559875603</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>237</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" t="s">
+        <v>14</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>7560863380</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>237</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" t="s">
+        <v>14</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>9995952427</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>237</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>7012337240</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>237</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>8547694985</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>237</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>8590551003</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98">
+        <v>237</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" t="s">
+        <v>14</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>9744562545</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>237</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>9605792510</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>237</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" t="s">
+        <v>14</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>9947753151</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101">
+        <v>237</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>9562160629</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102">
+        <v>237</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" t="s">
+        <v>14</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>9605454567</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>237</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" t="s">
+        <v>14</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>9562175739</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104">
+        <v>237</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>9995230234</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>237</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" t="s">
+        <v>14</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>9496240825</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>237</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" t="s">
+        <v>14</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>9847984040</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>237</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" t="s">
+        <v>14</v>
+      </c>
+      <c r="M107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>9567889500</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>237</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" t="s">
+        <v>14</v>
+      </c>
+      <c r="M108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>9947138038</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109">
+        <v>237</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" t="s">
+        <v>14</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>9961451450</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>237</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" t="s">
+        <v>14</v>
+      </c>
+      <c r="M110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>9947112106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111">
+        <v>237</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" t="s">
+        <v>14</v>
+      </c>
+      <c r="M111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>8086770601</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112">
+        <v>237</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>9497420728</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113">
+        <v>237</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>9039231223</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>237</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" t="s">
+        <v>14</v>
+      </c>
+      <c r="M114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>9847227299</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115">
+        <v>237</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" t="s">
+        <v>14</v>
+      </c>
+      <c r="L115" t="s">
+        <v>14</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>9633980835</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>237</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" t="s">
+        <v>14</v>
+      </c>
+      <c r="M116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>9946565543</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>237</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>7259135990</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118">
+        <v>237</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" t="s">
+        <v>14</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>9747095824</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119">
+        <v>237</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" t="s">
+        <v>14</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>9746861176</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120">
+        <v>237</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" t="s">
+        <v>14</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>9400826180</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121">
+        <v>237</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" t="s">
+        <v>14</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>9656082411</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122">
+        <v>237</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" t="s">
+        <v>14</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>940026942</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>237</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" t="s">
+        <v>14</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>9961342020</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" t="s">
+        <v>14</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>9496996262</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s">
+        <v>14</v>
+      </c>
+      <c r="L125" t="s">
+        <v>14</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>9847812633</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
+      </c>
+      <c r="L126" t="s">
+        <v>14</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>9961991547</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" t="s">
+        <v>14</v>
+      </c>
+      <c r="M127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>9961502865</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" t="s">
+        <v>14</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>9847282008</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" t="s">
+        <v>14</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>9526619806</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" t="s">
+        <v>14</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>9497446433</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" t="s">
+        <v>14</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>9747335616</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" t="s">
+        <v>14</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>9526649305</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" t="s">
+        <v>14</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>9744575856</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" t="s">
+        <v>14</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>9961964484</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" t="s">
+        <v>14</v>
+      </c>
+      <c r="L135" t="s">
+        <v>14</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>9495314821</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
+        <v>14</v>
+      </c>
+      <c r="K136" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" t="s">
+        <v>14</v>
+      </c>
+      <c r="M136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>9947641623</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" t="s">
+        <v>14</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>9947105649</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" t="s">
+        <v>14</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saneesh\project\kannur-vyabari-api-server\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E7158-2365-4A7E-A90D-5745C9EBADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7148796-4883-4F4C-9155-D99A0DBC6E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="B434" sqref="B434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18362,7 +18362,7 @@
         <v>9526582714</v>
       </c>
       <c r="B426" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C426">
         <v>252</v>
@@ -18403,7 +18403,7 @@
         <v>9747277234</v>
       </c>
       <c r="B427" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C427">
         <v>252</v>
@@ -18444,7 +18444,7 @@
         <v>9947649497</v>
       </c>
       <c r="B428" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C428">
         <v>252</v>
@@ -18485,7 +18485,7 @@
         <v>9847907494</v>
       </c>
       <c r="B429" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C429">
         <v>252</v>
@@ -18526,7 +18526,7 @@
         <v>9497844117</v>
       </c>
       <c r="B430" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C430">
         <v>252</v>
@@ -18567,7 +18567,7 @@
         <v>9495756034</v>
       </c>
       <c r="B431" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C431">
         <v>252</v>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saneesh\project\kannur-vyabari-api-server\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7148796-4883-4F4C-9155-D99A0DBC6E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F632A2D-584D-4000-92C6-6419C76D8BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="B434" sqref="B434"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22216,7 +22216,7 @@
         <v>9895203916</v>
       </c>
       <c r="B520" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C520">
         <v>257</v>
@@ -22257,7 +22257,7 @@
         <v>9847707320</v>
       </c>
       <c r="B521" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C521">
         <v>257</v>
@@ -22298,7 +22298,7 @@
         <v>9567080720</v>
       </c>
       <c r="B522" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C522">
         <v>258</v>
@@ -22339,7 +22339,7 @@
         <v>9747706806</v>
       </c>
       <c r="B523" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C523">
         <v>258</v>
@@ -22380,7 +22380,7 @@
         <v>9388813953</v>
       </c>
       <c r="B524" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C524">
         <v>258</v>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saneesh\project\kannur-vyabari-api-server\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F632A2D-584D-4000-92C6-6419C76D8BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884BF1C9-39BF-432E-84A6-E4D2507E7C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6343" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6343" uniqueCount="19">
   <si>
     <t>Mobile</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>MYL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDK </t>
   </si>
   <si>
     <t>KNR</t>
@@ -922,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
+      <selection activeCell="B622" sqref="B622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22503,7 +22500,7 @@
         <v>9446081676</v>
       </c>
       <c r="B527" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C527">
         <v>279</v>
@@ -22544,7 +22541,7 @@
         <v>9446081676</v>
       </c>
       <c r="B528" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C528">
         <v>279</v>
@@ -22585,7 +22582,7 @@
         <v>9746218383</v>
       </c>
       <c r="B529" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C529">
         <v>279</v>
@@ -22626,7 +22623,7 @@
         <v>9847070722</v>
       </c>
       <c r="B530" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C530">
         <v>279</v>
@@ -22667,7 +22664,7 @@
         <v>8157818861</v>
       </c>
       <c r="B531" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C531">
         <v>279</v>
@@ -22708,7 +22705,7 @@
         <v>8590775708</v>
       </c>
       <c r="B532" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C532">
         <v>279</v>
@@ -22749,7 +22746,7 @@
         <v>9895209647</v>
       </c>
       <c r="B533" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C533">
         <v>279</v>
@@ -22790,7 +22787,7 @@
         <v>9847212006</v>
       </c>
       <c r="B534" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C534">
         <v>279</v>
@@ -22831,7 +22828,7 @@
         <v>9895564416</v>
       </c>
       <c r="B535" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C535">
         <v>279</v>
@@ -22872,7 +22869,7 @@
         <v>7994149589</v>
       </c>
       <c r="B536" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C536">
         <v>279</v>
@@ -22913,7 +22910,7 @@
         <v>9746363414</v>
       </c>
       <c r="B537" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C537">
         <v>279</v>
@@ -22954,7 +22951,7 @@
         <v>9446741431</v>
       </c>
       <c r="B538" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C538">
         <v>279</v>
@@ -22995,7 +22992,7 @@
         <v>8281893865</v>
       </c>
       <c r="B539" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C539">
         <v>279</v>
@@ -23036,7 +23033,7 @@
         <v>8075702654</v>
       </c>
       <c r="B540" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C540">
         <v>279</v>
@@ -23077,7 +23074,7 @@
         <v>9895825757</v>
       </c>
       <c r="B541" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C541">
         <v>279</v>
@@ -23118,7 +23115,7 @@
         <v>9846231548</v>
       </c>
       <c r="B542" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C542">
         <v>279</v>
@@ -23159,7 +23156,7 @@
         <v>9995603101</v>
       </c>
       <c r="B543" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C543">
         <v>279</v>
@@ -23200,7 +23197,7 @@
         <v>9446567345</v>
       </c>
       <c r="B544" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C544">
         <v>279</v>
@@ -23241,7 +23238,7 @@
         <v>9961506890</v>
       </c>
       <c r="B545" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C545">
         <v>279</v>
@@ -26152,7 +26149,7 @@
         <v>9526643541</v>
       </c>
       <c r="B616" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C616">
         <v>248</v>
@@ -26193,7 +26190,7 @@
         <v>9847740701</v>
       </c>
       <c r="B617" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C617">
         <v>248</v>
@@ -26234,7 +26231,7 @@
         <v>8281974842</v>
       </c>
       <c r="B618" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C618">
         <v>248</v>
@@ -26275,7 +26272,7 @@
         <v>9496703653</v>
       </c>
       <c r="B619" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C619">
         <v>248</v>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saneesh\project\kannur-vyabari-api-server\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E178C8-104A-444A-8AEE-1EF4B88F629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E9D9C4-9B78-43FF-8A04-969DB40AA67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="17">
   <si>
     <t>Mobile</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>MTR</t>
-  </si>
-  <si>
-    <t>MTNR</t>
   </si>
 </sst>
 </file>
@@ -932,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M259"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4227,7 +4224,7 @@
         <v>9567259588</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="9">
         <v>124</v>
@@ -4268,7 +4265,7 @@
         <v>9526984235</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="9">
         <v>124</v>
@@ -4308,8 +4305,8 @@
       <c r="A83" s="9">
         <v>8156997040</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>17</v>
+      <c r="B83" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C83" s="9">
         <v>124</v>
@@ -4349,8 +4346,8 @@
       <c r="A84" s="9">
         <v>9747095869</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>17</v>
+      <c r="B84" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C84" s="9">
         <v>124</v>
@@ -4390,8 +4387,8 @@
       <c r="A85" s="9">
         <v>9495615252</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>17</v>
+      <c r="B85" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C85" s="9">
         <v>124</v>
@@ -4431,8 +4428,8 @@
       <c r="A86" s="9">
         <v>9207899498</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>17</v>
+      <c r="B86" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C86" s="9">
         <v>124</v>
@@ -4472,8 +4469,8 @@
       <c r="A87" s="9">
         <v>9605457484</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>17</v>
+      <c r="B87" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C87" s="9">
         <v>124</v>
@@ -4513,8 +4510,8 @@
       <c r="A88" s="9">
         <v>9747724288</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>17</v>
+      <c r="B88" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C88" s="9">
         <v>124</v>
@@ -4554,8 +4551,8 @@
       <c r="A89" s="10">
         <v>9847056937</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>17</v>
+      <c r="B89" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C89" s="10">
         <v>129</v>
@@ -4595,8 +4592,8 @@
       <c r="A90" s="10">
         <v>9496400194</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>17</v>
+      <c r="B90" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C90" s="10">
         <v>129</v>
@@ -4636,8 +4633,8 @@
       <c r="A91" s="10">
         <v>9495068076</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>17</v>
+      <c r="B91" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C91" s="10">
         <v>129</v>
@@ -4677,8 +4674,8 @@
       <c r="A92" s="11">
         <v>9947549403</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>17</v>
+      <c r="B92" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C92" s="11">
         <v>125</v>
@@ -4718,8 +4715,8 @@
       <c r="A93" s="11">
         <v>9846126720</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>17</v>
+      <c r="B93" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C93" s="11">
         <v>125</v>
@@ -4759,8 +4756,8 @@
       <c r="A94" s="11">
         <v>9964749589</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>17</v>
+      <c r="B94" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C94" s="11">
         <v>125</v>
@@ -4800,8 +4797,8 @@
       <c r="A95" s="11">
         <v>8281786987</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>17</v>
+      <c r="B95" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C95" s="11">
         <v>125</v>
@@ -4841,8 +4838,8 @@
       <c r="A96" s="11">
         <v>7909160296</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>17</v>
+      <c r="B96" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C96" s="11">
         <v>125</v>
@@ -4882,8 +4879,8 @@
       <c r="A97" s="11">
         <v>9495619130</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>17</v>
+      <c r="B97" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C97" s="11">
         <v>125</v>
@@ -4923,8 +4920,8 @@
       <c r="A98" s="11">
         <v>9562477957</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>17</v>
+      <c r="B98" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C98" s="11">
         <v>125</v>
@@ -4964,8 +4961,8 @@
       <c r="A99" s="11">
         <v>9847838776</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>17</v>
+      <c r="B99" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C99" s="11">
         <v>125</v>
@@ -5005,8 +5002,8 @@
       <c r="A100" s="11">
         <v>9744323604</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>17</v>
+      <c r="B100" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C100" s="11">
         <v>125</v>
@@ -5046,8 +5043,8 @@
       <c r="A101" s="11">
         <v>9745159082</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>17</v>
+      <c r="B101" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C101" s="11">
         <v>125</v>
@@ -5087,8 +5084,8 @@
       <c r="A102" s="11">
         <v>9446658177</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>17</v>
+      <c r="B102" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C102" s="11">
         <v>125</v>
@@ -5128,8 +5125,8 @@
       <c r="A103" s="11">
         <v>9946854652</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>17</v>
+      <c r="B103" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C103" s="11">
         <v>125</v>
@@ -5169,8 +5166,8 @@
       <c r="A104" s="11">
         <v>9747796542</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>17</v>
+      <c r="B104" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C104" s="11">
         <v>125</v>
@@ -5210,8 +5207,8 @@
       <c r="A105" s="11">
         <v>9048853215</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>17</v>
+      <c r="B105" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C105" s="11">
         <v>125</v>
@@ -5251,8 +5248,8 @@
       <c r="A106" s="11">
         <v>9847399431</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>17</v>
+      <c r="B106" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C106" s="11">
         <v>125</v>
@@ -5292,8 +5289,8 @@
       <c r="A107" s="11">
         <v>8590666762</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>17</v>
+      <c r="B107" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C107" s="11">
         <v>125</v>
@@ -5333,8 +5330,8 @@
       <c r="A108" s="11">
         <v>9400085742</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>17</v>
+      <c r="B108" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C108" s="11">
         <v>125</v>
@@ -5374,8 +5371,8 @@
       <c r="A109" s="11">
         <v>9947989362</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>17</v>
+      <c r="B109" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C109" s="11">
         <v>125</v>
@@ -5415,8 +5412,8 @@
       <c r="A110" s="12">
         <v>9446063088</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>17</v>
+      <c r="B110" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C110" s="12">
         <v>120</v>
@@ -5456,8 +5453,8 @@
       <c r="A111" s="12">
         <v>9207947845</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>17</v>
+      <c r="B111" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C111" s="12">
         <v>120</v>
@@ -5497,8 +5494,8 @@
       <c r="A112" s="12">
         <v>6282076418</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>17</v>
+      <c r="B112" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C112" s="12">
         <v>120</v>
@@ -5538,8 +5535,8 @@
       <c r="A113" s="12">
         <v>9446265858</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>17</v>
+      <c r="B113" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C113" s="12">
         <v>120</v>
@@ -5579,8 +5576,8 @@
       <c r="A114" s="12">
         <v>7625933600</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>17</v>
+      <c r="B114" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C114" s="12">
         <v>120</v>
@@ -5620,8 +5617,8 @@
       <c r="A115" s="12">
         <v>9446133972</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>17</v>
+      <c r="B115" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C115" s="12">
         <v>120</v>
@@ -5661,8 +5658,8 @@
       <c r="A116" s="12">
         <v>8281067289</v>
       </c>
-      <c r="B116" s="12" t="s">
-        <v>17</v>
+      <c r="B116" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C116" s="12">
         <v>120</v>
@@ -5702,8 +5699,8 @@
       <c r="A117" s="12">
         <v>9645086180</v>
       </c>
-      <c r="B117" s="12" t="s">
-        <v>17</v>
+      <c r="B117" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C117" s="12">
         <v>120</v>
@@ -5743,8 +5740,8 @@
       <c r="A118" s="12">
         <v>8281853472</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>17</v>
+      <c r="B118" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C118" s="12">
         <v>120</v>
@@ -5784,8 +5781,8 @@
       <c r="A119" s="12">
         <v>9446674726</v>
       </c>
-      <c r="B119" s="12" t="s">
-        <v>17</v>
+      <c r="B119" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C119" s="12">
         <v>120</v>
@@ -5825,8 +5822,8 @@
       <c r="A120" s="12">
         <v>9497605001</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>17</v>
+      <c r="B120" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C120" s="12">
         <v>120</v>
@@ -5866,8 +5863,8 @@
       <c r="A121" s="12">
         <v>9645138142</v>
       </c>
-      <c r="B121" s="12" t="s">
-        <v>17</v>
+      <c r="B121" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C121" s="12">
         <v>120</v>
@@ -5907,8 +5904,8 @@
       <c r="A122" s="12">
         <v>9446675183</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>17</v>
+      <c r="B122" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C122" s="12">
         <v>120</v>
@@ -5948,8 +5945,8 @@
       <c r="A123" s="12">
         <v>9744074376</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>17</v>
+      <c r="B123" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C123" s="12">
         <v>120</v>
@@ -5989,8 +5986,8 @@
       <c r="A124" s="12">
         <v>9744074376</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>17</v>
+      <c r="B124" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C124" s="12">
         <v>120</v>
@@ -6030,8 +6027,8 @@
       <c r="A125" s="12">
         <v>9961084933</v>
       </c>
-      <c r="B125" s="12" t="s">
-        <v>17</v>
+      <c r="B125" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C125" s="12">
         <v>120</v>
@@ -6071,8 +6068,8 @@
       <c r="A126" s="12">
         <v>9447314465</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>17</v>
+      <c r="B126" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C126" s="12">
         <v>120</v>
@@ -6112,8 +6109,8 @@
       <c r="A127" s="12">
         <v>9495754848</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>17</v>
+      <c r="B127" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C127" s="12">
         <v>120</v>
@@ -6153,8 +6150,8 @@
       <c r="A128" s="12">
         <v>9562052727</v>
       </c>
-      <c r="B128" s="12" t="s">
-        <v>17</v>
+      <c r="B128" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C128" s="12">
         <v>120</v>
@@ -6194,8 +6191,8 @@
       <c r="A129" s="12">
         <v>9400478008</v>
       </c>
-      <c r="B129" s="12" t="s">
-        <v>17</v>
+      <c r="B129" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C129" s="12">
         <v>120</v>

--- a/excel/member.xlsx
+++ b/excel/member.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saneesh\project\kannur-vyabari-api-server\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C563225-15AB-4380-AEA0-1A91E922673A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE58335-3CEF-4A48-BDF1-41E6ADB15552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="A358" sqref="A358:L395"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:M395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1741,6 +1741,9 @@
       <c r="L19" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M19" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -1779,6 +1782,9 @@
       <c r="L20" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M20" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -1817,6 +1823,9 @@
       <c r="L21" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M21" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -1855,6 +1864,9 @@
       <c r="L22" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M22" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -1893,6 +1905,9 @@
       <c r="L23" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M23" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -1931,6 +1946,9 @@
       <c r="L24" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M24" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -1969,6 +1987,9 @@
       <c r="L25" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M25" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -2007,6 +2028,9 @@
       <c r="L26" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M26" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -2045,6 +2069,9 @@
       <c r="L27" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M27" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -2083,6 +2110,9 @@
       <c r="L28" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M28" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -2121,6 +2151,9 @@
       <c r="L29" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M29" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -2159,6 +2192,9 @@
       <c r="L30" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M30" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -2197,6 +2233,9 @@
       <c r="L31" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M31" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -2235,8 +2274,11 @@
       <c r="L32" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>8547500822</v>
       </c>
@@ -2273,8 +2315,11 @@
       <c r="L33" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>9847700420</v>
       </c>
@@ -2311,8 +2356,11 @@
       <c r="L34" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>7012897084</v>
       </c>
@@ -2349,8 +2397,11 @@
       <c r="L35" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>9605563521</v>
       </c>
@@ -2387,8 +2438,11 @@
       <c r="L36" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>8330094347</v>
       </c>
@@ -2425,8 +2479,11 @@
       <c r="L37" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>9895436756</v>
       </c>
@@ -2463,8 +2520,11 @@
       <c r="L38" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>8281538411</v>
       </c>
@@ -2501,8 +2561,11 @@
       <c r="L39" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>8547081247</v>
       </c>
@@ -2539,8 +2602,11 @@
       <c r="L40" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>8281528762</v>
       </c>
@@ -2577,8 +2643,11 @@
       <c r="L41" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>9605017143</v>
       </c>
@@ -2615,8 +2684,11 @@
       <c r="L42" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>9847400420</v>
       </c>
@@ -2653,8 +2725,11 @@
       <c r="L43" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>9544322300</v>
       </c>
@@ -2691,8 +2766,11 @@
       <c r="L44" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>9847851868</v>
       </c>
@@ -2729,8 +2807,11 @@
       <c r="L45" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>9446676797</v>
       </c>
@@ -2767,8 +2848,11 @@
       <c r="L46" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>9847635284</v>
       </c>
@@ -2805,8 +2889,11 @@
       <c r="L47" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>9744259865</v>
       </c>
@@ -2843,8 +2930,11 @@
       <c r="L48" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>9400611371</v>
       </c>
@@ -2881,8 +2971,11 @@
       <c r="L49" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>9847383264</v>
       </c>
@@ -2919,8 +3012,11 @@
       <c r="L50" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>9745279937</v>
       </c>
@@ -2957,8 +3053,11 @@
       <c r="L51" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>7025944695</v>
       </c>
@@ -2995,8 +3094,11 @@
       <c r="L52" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>9947330412</v>
       </c>
@@ -3033,8 +3135,11 @@
       <c r="L53" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>9995159404</v>
       </c>
@@ -3071,8 +3176,11 @@
       <c r="L54" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>9400510823</v>
       </c>
@@ -3109,8 +3217,11 @@
       <c r="L55" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>9947767325</v>
       </c>
@@ -3147,8 +3258,11 @@
       <c r="L56" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>8606005252</v>
       </c>
@@ -3185,8 +3299,11 @@
       <c r="L57" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>9447518845</v>
       </c>
@@ -3223,8 +3340,11 @@
       <c r="L58" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>9544561688</v>
       </c>
@@ -3261,8 +3381,11 @@
       <c r="L59" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>9744383823</v>
       </c>
@@ -3299,8 +3422,11 @@
       <c r="L60" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>9447416010</v>
       </c>
@@ -3337,8 +3463,11 @@
       <c r="L61" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>9995755866</v>
       </c>
@@ -3375,8 +3504,11 @@
       <c r="L62" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>9495561691</v>
       </c>
@@ -3413,8 +3545,11 @@
       <c r="L63" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>9544252021</v>
       </c>
@@ -3451,8 +3586,11 @@
       <c r="L64" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>9895287113</v>
       </c>
@@ -3489,8 +3627,11 @@
       <c r="L65" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>9947232271</v>
       </c>
@@ -3527,8 +3668,11 @@
       <c r="L66" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>8848997353</v>
       </c>
@@ -3565,8 +3709,11 @@
       <c r="L67" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>9995588748</v>
       </c>
@@ -3603,8 +3750,11 @@
       <c r="L68" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>9895472924</v>
       </c>
@@ -3641,8 +3791,11 @@
       <c r="L69" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>9744260190</v>
       </c>
@@ -3679,8 +3832,11 @@
       <c r="L70" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>7560906265</v>
       </c>
@@ -3717,8 +3873,11 @@
       <c r="L71" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>9961016586</v>
       </c>
@@ -3755,8 +3914,11 @@
       <c r="L72" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>9656085158</v>
       </c>
@@ -3793,8 +3955,11 @@
       <c r="L73" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>9747553415</v>
       </c>
@@ -3831,8 +3996,11 @@
       <c r="L74" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>9744359182</v>
       </c>
@@ -3869,8 +4037,11 @@
       <c r="L75" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>8281306580</v>
       </c>
@@ -3907,8 +4078,11 @@
       <c r="L76" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>9544068082</v>
       </c>
@@ -3945,8 +4119,11 @@
       <c r="L77" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>9744358850</v>
       </c>
@@ -3983,8 +4160,11 @@
       <c r="L78" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>8129887894</v>
       </c>
@@ -4021,8 +4201,11 @@
       <c r="L79" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>9847653197</v>
       </c>
@@ -4059,8 +4242,11 @@
       <c r="L80" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>9847075811</v>
       </c>
@@ -4097,8 +4283,11 @@
       <c r="L81" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>9947367464</v>
       </c>
@@ -4135,8 +4324,11 @@
       <c r="L82" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>9447738610</v>
       </c>
@@ -4173,8 +4365,11 @@
       <c r="L83" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>9605063454</v>
       </c>
@@ -4211,8 +4406,11 @@
       <c r="L84" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>9387886628</v>
       </c>
@@ -4249,8 +4447,11 @@
       <c r="L85" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>9447917676</v>
       </c>
@@ -4287,8 +4488,11 @@
       <c r="L86" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>9447953199</v>
       </c>
@@ -4325,8 +4529,11 @@
       <c r="L87" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>9961386257</v>
       </c>
@@ -4363,8 +4570,11 @@
       <c r="L88" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>9847947290</v>
       </c>
@@ -4401,8 +4611,11 @@
       <c r="L89" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>9447700802</v>
       </c>
@@ -4439,8 +4652,11 @@
       <c r="L90" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>9447449845</v>
       </c>
@@ -4477,8 +4693,11 @@
       <c r="L91" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>9495505922</v>
       </c>
@@ -4515,8 +4734,11 @@
       <c r="L92" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>9895679905</v>
       </c>
@@ -4553,8 +4775,11 @@
       <c r="L93" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>9847796082</v>
       </c>
@@ -4591,8 +4816,11 @@
       <c r="L94" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>9746880605</v>
       </c>
@@ -4629,8 +4857,11 @@
       <c r="L95" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>9526114466</v>
       </c>
@@ -4667,8 +4898,11 @@
       <c r="L96" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>9847428870</v>
       </c>
@@ -4705,8 +4939,11 @@
       <c r="L97" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>9567129477</v>
       </c>
@@ -4743,8 +4980,11 @@
       <c r="L98" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>9895052919</v>
       </c>
@@ -4781,8 +5021,11 @@
       <c r="L99" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>8921761755</v>
       </c>
@@ -4819,8 +5062,11 @@
       <c r="L100" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>9946722554</v>
       </c>
@@ -4857,8 +5103,11 @@
       <c r="L101" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>9946488471</v>
       </c>
@@ -4895,8 +5144,11 @@
       <c r="L102" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>9446237104</v>
       </c>
@@ -4933,8 +5185,11 @@
       <c r="L103" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>9895470372</v>
       </c>
@@ -4971,8 +5226,11 @@
       <c r="L104" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>9847150023</v>
       </c>
@@ -5009,8 +5267,11 @@
       <c r="L105" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>9847593332</v>
       </c>
@@ -5047,8 +5308,11 @@
       <c r="L106" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>9447085068</v>
       </c>
@@ -5085,8 +5349,11 @@
       <c r="L107" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>9895653181</v>
       </c>
@@ -5123,8 +5390,11 @@
       <c r="L108" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>9947849245</v>
       </c>
@@ -5161,8 +5431,11 @@
       <c r="L109" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>9447690685</v>
       </c>
@@ -5199,8 +5472,11 @@
       <c r="L110" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>9447005741</v>
       </c>
@@ -5237,8 +5513,11 @@
       <c r="L111" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>9387101820</v>
       </c>
@@ -5275,8 +5554,11 @@
       <c r="L112" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M112" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>9496553817</v>
       </c>
@@ -5313,8 +5595,11 @@
       <c r="L113" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>9497866213</v>
       </c>
@@ -5351,8 +5636,11 @@
       <c r="L114" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>8547380740</v>
       </c>
@@ -5389,8 +5677,11 @@
       <c r="L115" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>9400505129</v>
       </c>
@@ -5427,8 +5718,11 @@
       <c r="L116" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>9961520821</v>
       </c>
@@ -5465,8 +5759,11 @@
       <c r="L117" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>9847924417</v>
       </c>
@@ -5503,8 +5800,11 @@
       <c r="L118" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>9895377133</v>
       </c>
@@ -5541,8 +5841,11 @@
       <c r="L119" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>9495185916</v>
       </c>
@@ -5579,8 +5882,11 @@
       <c r="L120" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>9447686015</v>
       </c>
@@ -5617,8 +5923,11 @@
       <c r="L121" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M121" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>8606417427</v>
       </c>
@@ -5655,8 +5964,11 @@
       <c r="L122" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>9495376436</v>
       </c>
@@ -5693,8 +6005,11 @@
       <c r="L123" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>9995895205</v>
       </c>
@@ -5731,8 +6046,11 @@
       <c r="L124" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>8547245592</v>
       </c>
@@ -5769,8 +6087,11 @@
       <c r="L125" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M125" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>9405306507</v>
       </c>
@@ -5807,8 +6128,11 @@
       <c r="L126" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>9562935581</v>
       </c>
@@ -5845,8 +6169,11 @@
       <c r="L127" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>8943543775</v>
       </c>
@@ -5883,8 +6210,11 @@
       <c r="L128" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>9744187522</v>
       </c>
@@ -5921,8 +6251,11 @@
       <c r="L129" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>9562210260</v>
       </c>
@@ -5959,8 +6292,11 @@
       <c r="L130" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>9995023811</v>
       </c>
@@ -5997,8 +6333,11 @@
       <c r="L131" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>9961105921</v>
       </c>
@@ -6035,8 +6374,11 @@
       <c r="L132" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>9847718936</v>
       </c>
@@ -6073,8 +6415,11 @@
       <c r="L133" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>9847112405</v>
       </c>
@@ -6111,8 +6456,11 @@
       <c r="L134" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>8281218654</v>
       </c>
@@ -6149,8 +6497,11 @@
       <c r="L135" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>7356531508</v>
       </c>
@@ -6187,8 +6538,11 @@
       <c r="L136" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>8078044229</v>
       </c>
@@ -6225,8 +6579,11 @@
       <c r="L137" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>9947819075</v>
       </c>
@@ -6263,8 +6620,11 @@
       <c r="L138" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>9895788749</v>
       </c>
@@ -6301,8 +6661,11 @@
       <c r="L139" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>9995023811</v>
       </c>
@@ -6339,8 +6702,11 @@
       <c r="L140" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>9847028977</v>
       </c>
@@ -6377,8 +6743,11 @@
       <c r="L141" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>8547867256</v>
       </c>
@@ -6415,8 +6784,11 @@
       <c r="L142" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>9847094285</v>
       </c>
@@ -6453,8 +6825,11 @@
       <c r="L143" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>9400467302</v>
       </c>
@@ -6491,8 +6866,11 @@
       <c r="L144" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>8547966137</v>
       </c>
@@ -6529,8 +6907,11 @@
       <c r="L145" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M145" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>7025514756</v>
       </c>
@@ -6567,8 +6948,11 @@
       <c r="L146" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M146" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
         <v>9526637176</v>
       </c>
@@ -6605,8 +6989,11 @@
       <c r="L147" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>9895261793</v>
       </c>
@@ -6643,8 +7030,11 @@
       <c r="L148" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>9747987554</v>
       </c>
@@ -6681,8 +7071,11 @@
       <c r="L149" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>9744044680</v>
       </c>
@@ -6719,8 +7112,11 @@
       <c r="L150" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M150" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>9895612773</v>
       </c>
@@ -6757,8 +7153,11 @@
       <c r="L151" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>8304971896</v>
       </c>
@@ -6795,8 +7194,11 @@
       <c r="L152" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>9400867384</v>
       </c>
@@ -6833,8 +7235,11 @@
       <c r="L153" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M153" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="10">
         <v>9400867384</v>
       </c>
@@ -6871,8 +7276,11 @@
       <c r="L154" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M154" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>9747818522</v>
       </c>
@@ -6909,8 +7317,11 @@
       <c r="L155" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>7510302322</v>
       </c>
@@ -6947,8 +7358,11 @@
       <c r="L156" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>9847288666</v>
       </c>
@@ -6985,8 +7399,11 @@
       <c r="L157" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M157" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>7594808673</v>
       </c>
@@ -7023,8 +7440,11 @@
       <c r="L158" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M158" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>9961501143</v>
       </c>
@@ -7061,8 +7481,11 @@
       <c r="L159" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M159" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>8129976172</v>
       </c>
@@ -7099,8 +7522,11 @@
       <c r="L160" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M160" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>9495616232</v>
       </c>
@@ -7137,8 +7563,11 @@
       <c r="L161" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
         <v>9447550125</v>
       </c>
@@ -7175,8 +7604,11 @@
       <c r="L162" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>9495073288</v>
       </c>
@@ -7213,8 +7645,11 @@
       <c r="L163" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M163" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>6238161229</v>
       </c>
@@ -7251,8 +7686,11 @@
       <c r="L164" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M164" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>8136968471</v>
       </c>
@@ -7289,8 +7727,11 @@
       <c r="L165" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M165" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="9">
         <v>9567558848</v>
       </c>
@@ -7327,8 +7768,11 @@
       <c r="L166" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M166" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>9061861626</v>
       </c>
@@ -7365,8 +7809,11 @@
       <c r="L167" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <v>9567789735</v>
       </c>
@@ -7403,8 +7850,11 @@
       <c r="L168" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <v>9400704101</v>
       </c>
@@ -7441,8 +7891,11 @@
       <c r="L169" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <v>9656674899</v>
       </c>
@@ -7479,8 +7932,11 @@
       <c r="L170" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <v>9847818292</v>
       </c>
@@ -7517,8 +7973,11 @@
       <c r="L171" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>9447396781</v>
       </c>
@@ -7555,8 +8014,11 @@
       <c r="L172" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>7012406221</v>
       </c>
@@ -7593,8 +8055,11 @@
       <c r="L173" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M173" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <v>9847637211</v>
       </c>
@@ -7631,8 +8096,11 @@
       <c r="L174" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
         <v>9847440627</v>
       </c>
@@ -7669,8 +8137,11 @@
       <c r="L175" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M175" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="10">
         <v>9447161770</v>
       </c>
@@ -7707,8 +8178,11 @@
       <c r="L176" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M176" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="10">
         <v>7559026100</v>
       </c>
@@ -7745,8 +8219,11 @@
       <c r="L177" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M177" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="9">
         <v>9947776841</v>
       </c>
@@ -7783,8 +8260,11 @@
       <c r="L178" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M178" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>9995069544</v>
       </c>
@@ -7821,8 +8301,11 @@
       <c r="L179" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
         <v>8281455716</v>
       </c>
@@ -7859,8 +8342,11 @@
       <c r="L180" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M180" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
         <v>9947741949</v>
       </c>
@@ -7897,8 +8383,11 @@
       <c r="L181" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
         <v>9447378082</v>
       </c>
@@ -7935,8 +8424,11 @@
       <c r="L182" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
         <v>9400715128</v>
       </c>
@@ -7973,8 +8465,11 @@
       <c r="L183" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
         <v>9496148590</v>
       </c>
@@ -8011,8 +8506,11 @@
       <c r="L184" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
         <v>9744396869</v>
       </c>
@@ -8049,8 +8547,11 @@
       <c r="L185" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>9526519717</v>
       </c>
@@ -8087,8 +8588,11 @@
       <c r="L186" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>9947280146</v>
       </c>
@@ -8125,8 +8629,11 @@
       <c r="L187" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
         <v>8281972017</v>
       </c>
@@ -8163,8 +8670,11 @@
       <c r="L188" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M188" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
         <v>9400467405</v>
       </c>
@@ -8201,8 +8711,11 @@
       <c r="L189" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M189" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
         <v>9895989812</v>
       </c>
@@ -8239,8 +8752,11 @@
       <c r="L190" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M190" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="10">
         <v>9497478277</v>
       </c>
@@ -8277,8 +8793,11 @@
       <c r="L191" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M191" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
         <v>8547629101</v>
       </c>
@@ -8315,8 +8834,11 @@
       <c r="L192" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M192" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="10">
         <v>8547108235</v>
       </c>
@@ -8353,8 +8875,11 @@
       <c r="L193" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M193" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="10">
         <v>9500529670</v>
       </c>
@@ -8391,8 +8916,11 @@
       <c r="L194" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M194" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="10">
         <v>9383427973</v>
       </c>
@@ -8429,8 +8957,11 @@
       <c r="L195" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M195" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="10">
         <v>9400994015</v>
       </c>
@@ -8467,8 +8998,11 @@
       <c r="L196" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M196" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="10">
         <v>9400537507</v>
       </c>
@@ -8505,8 +9039,11 @@
       <c r="L197" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M197" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="10">
         <v>7356209587</v>
       </c>
@@ -8543,8 +9080,11 @@
       <c r="L198" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M198" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="10">
         <v>9562526430</v>
       </c>
@@ -8581,8 +9121,11 @@
       <c r="L199" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M199" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
         <v>8129184678</v>
       </c>
@@ -8619,8 +9162,11 @@
       <c r="L200" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M200" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
         <v>9895503288</v>
       </c>
@@ -8657,8 +9203,11 @@
       <c r="L201" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M201" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
         <v>9744691033</v>
       </c>
@@ -8695,8 +9244,11 @@
       <c r="L202" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M202" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
         <v>9744804324</v>
       </c>
@@ -8733,8 +9285,11 @@
       <c r="L203" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M203" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="10">
         <v>9497288771</v>
       </c>
@@ -8771,8 +9326,11 @@
       <c r="L204" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M204" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="10">
         <v>9895783595</v>
       </c>
@@ -8809,8 +9367,11 @@
       <c r="L205" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M205" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
         <v>9895483951</v>
       </c>
@@ -8847,8 +9408,11 @@
       <c r="L206" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M206" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="10">
         <v>9847798562</v>
       </c>
@@ -8885,8 +9449,11 @@
       <c r="L207" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M207" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="10">
         <v>9447731930</v>
       </c>
@@ -8923,8 +9490,11 @@
       <c r="L208" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M208" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="10">
         <v>8606594841</v>
       </c>
@@ -8961,8 +9531,11 @@
       <c r="L209" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M209" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
         <v>9995257296</v>
       </c>
@@ -8999,8 +9572,11 @@
       <c r="L210" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M210" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
         <v>8078398667</v>
       </c>
@@ -9037,8 +9613,11 @@
       <c r="L211" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M211" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="10">
         <v>9947313996</v>
       </c>
@@ -9075,8 +9654,11 @@
       <c r="L212" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M212" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
         <v>8547588717</v>
       </c>
@@ -9113,8 +9695,11 @@
       <c r="L213" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M213" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
         <v>9446771536</v>
       </c>
@@ -9151,8 +9736,11 @@
       <c r="L214" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M214" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="10">
         <v>9539461980</v>
       </c>
@@ -9189,8 +9777,11 @@
       <c r="L215" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M215" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="10">
         <v>9744501261</v>
       </c>
@@ -9227,8 +9818,11 @@
       <c r="L216" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M216" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
         <v>9895065881</v>
       </c>
@@ -9265,8 +9859,11 @@
       <c r="L217" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M217" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="10">
         <v>9995710754</v>
       </c>
@@ -9303,8 +9900,11 @@
       <c r="L218" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M218" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="10">
         <v>7306068783</v>
       </c>
@@ -9341,8 +9941,11 @@
       <c r="L219" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M219" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="10">
         <v>9847603835</v>
       </c>
@@ -9379,8 +9982,11 @@
       <c r="L220" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M220" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="10">
         <v>9847651073</v>
       </c>
@@ -9417,8 +10023,11 @@
       <c r="L221" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M221" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="10">
         <v>9744310918</v>
       </c>
@@ -9455,8 +10064,11 @@
       <c r="L222" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M222" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="10">
         <v>9747131842</v>
       </c>
@@ -9493,8 +10105,11 @@
       <c r="L223" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M223" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="10">
         <v>9847033400</v>
       </c>
@@ -9531,8 +10146,11 @@
       <c r="L224" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M224" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="10">
         <v>8547367724</v>
       </c>
@@ -9569,8 +10187,11 @@
       <c r="L225" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M225" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="10">
         <v>9747448723</v>
       </c>
@@ -9607,8 +10228,11 @@
       <c r="L226" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M226" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="10">
         <v>9497024272</v>
       </c>
@@ -9645,8 +10269,11 @@
       <c r="L227" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M227" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="10">
         <v>8281424272</v>
       </c>
@@ -9683,8 +10310,11 @@
       <c r="L228" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M228" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="10">
         <v>9656824778</v>
       </c>
@@ -9721,8 +10351,11 @@
       <c r="L229" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M229" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="10">
         <v>9544575235</v>
       </c>
@@ -9759,8 +10392,11 @@
       <c r="L230" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M230" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="10">
         <v>9400878005</v>
       </c>
@@ -9797,8 +10433,11 @@
       <c r="L231" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M231" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="10">
         <v>7559878245</v>
       </c>
@@ -9835,8 +10474,11 @@
       <c r="L232" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M232" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
         <v>9895506675</v>
       </c>
@@ -9873,8 +10515,11 @@
       <c r="L233" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M233" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="10">
         <v>9633296462</v>
       </c>
@@ -9911,8 +10556,11 @@
       <c r="L234" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M234" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="10">
         <v>9562142597</v>
       </c>
@@ -9949,8 +10597,11 @@
       <c r="L235" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M235" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="10">
         <v>9446661271</v>
       </c>
@@ -9987,8 +10638,11 @@
       <c r="L236" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M236" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
         <v>9447398571</v>
       </c>
@@ -10025,8 +10679,11 @@
       <c r="L237" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M237" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
         <v>7356562650</v>
       </c>
@@ -10063,8 +10720,11 @@
       <c r="L238" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M238" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="10">
         <v>9605563138</v>
       </c>
@@ -10101,8 +10761,11 @@
       <c r="L239" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M239" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="10">
         <v>9847070413</v>
       </c>
@@ -10139,8 +10802,11 @@
       <c r="L240" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M240" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="11">
         <v>9061351468</v>
       </c>
@@ -10177,8 +10843,11 @@
       <c r="L241" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M241" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="13">
         <v>6282484881</v>
       </c>
@@ -10215,8 +10884,11 @@
       <c r="L242" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M242" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="13">
         <v>9947757282</v>
       </c>
@@ -10253,8 +10925,11 @@
       <c r="L243" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M243" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="13">
         <v>9995023838</v>
       </c>
@@ -10291,8 +10966,11 @@
       <c r="L244" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M244" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="13">
         <v>9746355256</v>
       </c>
@@ -10329,8 +11007,11 @@
       <c r="L245" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M245" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="13">
         <v>9447342560</v>
       </c>
@@ -10367,8 +11048,11 @@
       <c r="L246" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M246" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="13">
         <v>9400171073</v>
       </c>
@@ -10405,8 +11089,11 @@
       <c r="L247" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M247" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="13">
         <v>9447342099</v>
       </c>
@@ -10443,8 +11130,11 @@
       <c r="L248" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M248" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="13">
         <v>9846119625</v>
       </c>
@@ -10481,8 +11171,11 @@
       <c r="L249" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M249" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="13">
         <v>9496974227</v>
       </c>
@@ -10519,8 +11212,11 @@
       <c r="L250" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M250" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="13">
         <v>9562371308</v>
       </c>
@@ -10557,8 +11253,11 @@
       <c r="L251" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M251" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="13">
         <v>9446964826</v>
       </c>
@@ -10595,8 +11294,11 @@
       <c r="L252" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M252" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="13">
         <v>9447448803</v>
       </c>
@@ -10633,8 +11335,11 @@
       <c r="L253" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M253" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="13">
         <v>9995289424</v>
       </c>
@@ -10671,8 +11376,11 @@
       <c r="L254" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M254" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="13">
         <v>9895042700</v>
       </c>
@@ -10709,8 +11417,11 @@
       <c r="L255" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M255" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="13">
         <v>9544085510</v>
       </c>
@@ -10747,8 +11458,11 @@
       <c r="L256" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M256" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="13">
         <v>8129975707</v>
       </c>
@@ -10785,8 +11499,11 @@
       <c r="L257" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M257" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="13">
         <v>9495672116</v>
       </c>
@@ -10823,8 +11540,11 @@
       <c r="L258" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M258" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="13">
         <v>9400661432</v>
       </c>
@@ -10861,8 +11581,11 @@
       <c r="L259" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M259" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="13">
         <v>8136878905</v>
       </c>
@@ -10899,8 +11622,11 @@
       <c r="L260" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M260" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="13">
         <v>9895766242</v>
       </c>
@@ -10937,8 +11663,11 @@
       <c r="L261" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M261" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="14">
         <v>7594007386</v>
       </c>
@@ -10975,8 +11704,11 @@
       <c r="L262" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M262" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="14">
         <v>9605996002</v>
       </c>
@@ -11013,8 +11745,11 @@
       <c r="L263" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M263" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="14">
         <v>9605644552</v>
       </c>
@@ -11051,8 +11786,11 @@
       <c r="L264" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M264" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="14">
         <v>9562396528</v>
       </c>
@@ -11089,8 +11827,11 @@
       <c r="L265" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M265" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="14">
         <v>8547277120</v>
       </c>
@@ -11127,8 +11868,11 @@
       <c r="L266" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M266" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="14">
         <v>8822555222</v>
       </c>
@@ -11165,8 +11909,11 @@
       <c r="L267" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M267" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="14">
         <v>8075628960</v>
       </c>
@@ -11203,8 +11950,11 @@
       <c r="L268" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M268" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="14">
         <v>9847510213</v>
       </c>
@@ -11241,8 +11991,11 @@
       <c r="L269" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M269" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="14">
         <v>9847522520</v>
       </c>
@@ -11279,8 +12032,11 @@
       <c r="L270" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M270" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="14">
         <v>9961091160</v>
       </c>
@@ -11317,8 +12073,11 @@
       <c r="L271" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M271" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="14">
         <v>8547870129</v>
       </c>
@@ -11355,8 +12114,11 @@
       <c r="L272" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M272" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="14">
         <v>8943138555</v>
       </c>
@@ -11393,8 +12155,11 @@
       <c r="L273" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M273" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="14">
         <v>9995426832</v>
       </c>
@@ -11431,8 +12196,11 @@
       <c r="L274" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M274" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="14">
         <v>9656948849</v>
       </c>
@@ -11469,8 +12237,11 @@
       <c r="L275" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M275" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="14">
         <v>9526888354</v>
       </c>
@@ -11507,8 +12278,11 @@
       <c r="L276" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M276" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="14">
         <v>9947868759</v>
       </c>
@@ -11545,8 +12319,11 @@
       <c r="L277" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M277" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="14">
         <v>9847383937</v>
       </c>
@@ -11583,8 +12360,11 @@
       <c r="L278" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M278" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="14">
         <v>9447685646</v>
       </c>
@@ -11621,8 +12401,11 @@
       <c r="L279" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M279" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="14">
         <v>9947787966</v>
       </c>
@@ -11659,8 +12442,11 @@
       <c r="L280" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M280" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="14">
         <v>9961533501</v>
       </c>
@@ -11697,8 +12483,11 @@
       <c r="L281" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M281" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="14">
         <v>9544793680</v>
       </c>
@@ -11735,8 +12524,11 @@
       <c r="L282" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M282" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="14">
         <v>9847328138</v>
       </c>
@@ -11773,8 +12565,11 @@
       <c r="L283" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M283" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="14">
         <v>9947768832</v>
       </c>
@@ -11811,8 +12606,11 @@
       <c r="L284" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M284" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="14">
         <v>8547038011</v>
       </c>
@@ -11849,8 +12647,11 @@
       <c r="L285" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M285" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="14">
         <v>9947243918</v>
       </c>
@@ -11887,8 +12688,11 @@
       <c r="L286" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M286" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="14">
         <v>7902739386</v>
       </c>
@@ -11925,8 +12729,11 @@
       <c r="L287" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M287" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="14">
         <v>9847015905</v>
       </c>
@@ -11963,8 +12770,11 @@
       <c r="L288" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M288" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="14">
         <v>9847776307</v>
       </c>
@@ -12001,8 +12811,11 @@
       <c r="L289" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M289" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="14">
         <v>9605995244</v>
       </c>
@@ -12039,8 +12852,11 @@
       <c r="L290" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M290" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="14">
         <v>9562885781</v>
       </c>
@@ -12077,8 +12893,11 @@
       <c r="L291" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M291" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="14">
         <v>9744474863</v>
       </c>
@@ -12115,8 +12934,11 @@
       <c r="L292" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M292" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="14">
         <v>9847259107</v>
       </c>
@@ -12153,8 +12975,11 @@
       <c r="L293" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M293" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="14">
         <v>9656006159</v>
       </c>
@@ -12191,8 +13016,11 @@
       <c r="L294" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M294" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="14">
         <v>8281969059</v>
       </c>
@@ -12229,8 +13057,11 @@
       <c r="L295" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M295" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="14">
         <v>9400585878</v>
       </c>
@@ -12267,8 +13098,11 @@
       <c r="L296" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M296" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="15">
         <v>9497769966</v>
       </c>
@@ -12305,8 +13139,11 @@
       <c r="L297" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M297" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="15">
         <v>9746852508</v>
       </c>
@@ -12343,8 +13180,11 @@
       <c r="L298" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M298" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="15">
         <v>9747894335</v>
       </c>
@@ -12381,8 +13221,11 @@
       <c r="L299" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M299" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" s="15">
         <v>9847013928</v>
       </c>
@@ -12419,8 +13262,11 @@
       <c r="L300" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M300" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" s="15">
         <v>8281757215</v>
       </c>
@@ -12457,8 +13303,11 @@
       <c r="L301" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M301" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="15">
         <v>9497770015</v>
       </c>
@@ -12495,8 +13344,11 @@
       <c r="L302" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M302" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" s="15">
         <v>8606114842</v>
       </c>
@@ -12533,8 +13385,11 @@
       <c r="L303" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M303" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="15">
         <v>7560904021</v>
       </c>
@@ -12571,8 +13426,11 @@
       <c r="L304" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M304" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="15">
         <v>9562094772</v>
       </c>
@@ -12609,8 +13467,11 @@
       <c r="L305" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M305" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="15">
         <v>9495416552</v>
       </c>
@@ -12647,8 +13508,11 @@
       <c r="L306" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M306" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="15">
         <v>8921556961</v>
       </c>
@@ -12685,8 +13549,11 @@
       <c r="L307" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M307" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="15">
         <v>9446906900</v>
       </c>
@@ -12723,8 +13590,11 @@
       <c r="L308" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M308" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="16">
         <v>9947456222</v>
       </c>
@@ -12761,8 +13631,11 @@
       <c r="L309" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M309" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="15">
         <v>9744245015</v>
       </c>
@@ -12799,8 +13672,11 @@
       <c r="L310" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M310" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="15">
         <v>9349978304</v>
       </c>
@@ -12837,8 +13713,11 @@
       <c r="L311" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M311" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="15">
         <v>8308848818</v>
       </c>
@@ -12875,8 +13754,11 @@
       <c r="L312" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M312" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="15">
         <v>9847852992</v>
       </c>
@@ -12913,8 +13795,11 @@
       <c r="L313" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M313" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="15">
         <v>9961787623</v>
       </c>
@@ -12951,8 +13836,11 @@
       <c r="L314" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M314" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="15">
         <v>8547013416</v>
       </c>
@@ -12989,8 +13877,11 @@
       <c r="L315" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M315" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="15">
         <v>8606596372</v>
       </c>
@@ -13027,8 +13918,11 @@
       <c r="L316" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M316" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="15">
         <v>9497381868</v>
       </c>
@@ -13065,8 +13959,11 @@
       <c r="L317" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M317" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="15">
         <v>9526268899</v>
       </c>
@@ -13103,8 +14000,11 @@
       <c r="L318" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M318" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="15">
         <v>8129737629</v>
       </c>
@@ -13141,8 +14041,11 @@
       <c r="L319" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M319" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="15">
         <v>9605675344</v>
       </c>
@@ -13179,8 +14082,11 @@
       <c r="L320" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M320" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="15">
         <v>8129066831</v>
       </c>
@@ -13217,8 +14123,11 @@
       <c r="L321" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M321" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="15">
         <v>9947379517</v>
       </c>
@@ -13255,8 +14164,11 @@
       <c r="L322" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M322" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="15">
         <v>9048351903</v>
       </c>
@@ -13293,8 +14205,11 @@
       <c r="L323" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M323" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="19">
         <v>8606454429</v>
       </c>
@@ -13331,8 +14246,11 @@
       <c r="L324" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M324" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="18">
         <v>8907493476</v>
       </c>
@@ -13369,8 +14287,11 @@
       <c r="L325" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M325" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="18">
         <v>9895711889</v>
       </c>
@@ -13407,8 +14328,11 @@
       <c r="L326" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M326" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="18">
         <v>9605730342</v>
       </c>
@@ -13445,8 +14369,11 @@
       <c r="L327" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M327" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="18">
         <v>9895579446</v>
       </c>
@@ -13483,8 +14410,11 @@
       <c r="L328" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M328" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="18">
         <v>9947428952</v>
       </c>
@@ -13521,8 +14451,11 @@
       <c r="L329" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M329" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="18">
         <v>9902062890</v>
       </c>
@@ -13559,8 +14492,11 @@
       <c r="L330" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M330" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="18">
         <v>9946255238</v>
       </c>
@@ -13597,8 +14533,11 @@
       <c r="L331" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M331" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="18">
         <v>9747417141</v>
       </c>
@@ -13635,8 +14574,11 @@
       <c r="L332" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M332" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="18">
         <v>7510275543</v>
       </c>
@@ -13673,8 +14615,11 @@
       <c r="L333" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M333" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="18">
         <v>9633692702</v>
       </c>
@@ -13711,8 +14656,11 @@
       <c r="L334" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M334" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="18">
         <v>9446451336</v>
       </c>
@@ -13749,8 +14697,11 @@
       <c r="L335" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M335" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="18">
         <v>9447187210</v>
       </c>
@@ -13787,8 +14738,11 @@
       <c r="L336" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M336" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="18">
         <v>9656615974</v>
       </c>
@@ -13825,8 +14779,11 @@
       <c r="L337" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M337" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="18">
         <v>9747482295</v>
       </c>
@@ -13863,8 +14820,11 @@
       <c r="L338" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M338" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="18">
         <v>9995417255</v>
       </c>
@@ -13901,8 +14861,11 @@
       <c r="L339" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M339" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <v>9847144271</v>
       </c>
@@ -13939,8 +14902,11 @@
       <c r="L340" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M340" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <v>9605239653</v>
       </c>
@@ -13977,8 +14943,11 @@
       <c r="L341" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M341" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <v>6238572229</v>
       </c>
@@ -14015,8 +14984,11 @@
       <c r="L342" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M342" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <v>9562152090</v>
       </c>
@@ -14053,8 +15025,11 @@
       <c r="L343" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M343" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <v>9526370931</v>
       </c>
@@ -14091,8 +15066,11 @@
       <c r="L344" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M344" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <v>9605170050</v>
       </c>
@@ -14129,8 +15107,11 @@
       <c r="L345" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M345" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <v>9446775657</v>
       </c>
@@ -14167,8 +15148,11 @@
       <c r="L346" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M346" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <v>9567945023</v>
       </c>
@@ -14205,8 +15189,11 @@
       <c r="L347" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M347" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <v>9567647752</v>
       </c>
@@ -14243,8 +15230,11 @@
       <c r="L348" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M348" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <v>8590801801</v>
       </c>
@@ -14281,8 +15271,11 @@
       <c r="L349" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M349" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <v>9447189841</v>
       </c>
@@ -14319,8 +15312,11 @@
       <c r="L350" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M350" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <v>9744650121</v>
       </c>
@@ -14357,8 +15353,11 @@
       <c r="L351" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M351" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <v>9947885224</v>
       </c>
@@ -14395,8 +15394,11 @@
       <c r="L352" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M352" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <v>6282668110</v>
       </c>
@@ -14433,8 +15435,11 @@
       <c r="L353" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M353" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <v>9961554460</v>
       </c>
@@ -14471,8 +15476,11 @@
       <c r="L354" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M354" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
         <v>9562320760</v>
       </c>
@@ -14509,8 +15517,11 @@
       <c r="L355" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M355" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <v>9947788622</v>
       </c>
@@ -14547,8 +15558,11 @@
       <c r="L356" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M356" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <v>9633656739</v>
       </c>
@@ -14585,8 +15599,11 @@
       <c r="L357" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M357" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="24">
         <v>9995439099</v>
       </c>
@@ -14623,8 +15640,11 @@
       <c r="L358" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M358" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="24">
         <v>9506654997</v>
       </c>
@@ -14661,8 +15681,11 @@
       <c r="L359" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M359" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="24">
         <v>9847616644</v>
       </c>
@@ -14699,8 +15722,11 @@
       <c r="L360" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M360" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="24">
         <v>9656532316</v>
       </c>
@@ -14737,8 +15763,11 @@
       <c r="L361" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M361" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="24">
         <v>9544739914</v>
       </c>
@@ -14775,8 +15804,11 @@
       <c r="L362" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M362" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="24">
         <v>9946464737</v>
       </c>
@@ -14813,8 +15845,11 @@
       <c r="L363" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M363" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="24">
         <v>7510230881</v>
       </c>
@@ -14851,8 +15886,11 @@
       <c r="L364" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M364" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="24">
         <v>9495091744</v>
       </c>
@@ -14889,8 +15927,11 @@
       <c r="L365" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M365" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="24">
         <v>9495620133</v>
       </c>
@@ -14927,8 +15968,11 @@
       <c r="L366" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M366" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="24">
         <v>9895143281</v>
       </c>
@@ -14965,8 +16009,11 @@
       <c r="L367" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M367" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="24">
         <v>8157910094</v>
       </c>
@@ -15003,8 +16050,11 @@
       <c r="L368" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M368" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="24">
         <v>9497294029</v>
       </c>
@@ -15041,8 +16091,11 @@
       <c r="L369" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M369" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" s="24">
         <v>9446668357</v>
       </c>
@@ -15079,8 +16132,11 @@
       <c r="L370" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M370" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" s="24">
         <v>8606898218</v>
       </c>
@@ -15117,8 +16173,11 @@
       <c r="L371" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M371" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" s="24">
         <v>9633371442</v>
       </c>
@@ -15155,8 +16214,11 @@
       <c r="L372" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M372" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" s="24">
         <v>9895436735</v>
       </c>
@@ -15193,8 +16255,11 @@
       <c r="L373" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M373" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="24">
         <v>9947572123</v>
       </c>
@@ -15231,8 +16296,11 @@
       <c r="L374" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M374" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="24">
         <v>9747482553</v>
       </c>
@@ -15269,8 +16337,11 @@
       <c r="L375" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M375" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="24">
         <v>9895318264</v>
       </c>
@@ -15307,8 +16378,11 @@
       <c r="L376" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M376" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="24">
         <v>9847736025</v>
       </c>
@@ -15345,8 +16419,11 @@
       <c r="L377" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M377" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="24">
         <v>9496632280</v>
       </c>
@@ -15383,8 +16460,11 @@
       <c r="L378" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M378" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="24">
         <v>9947316777</v>
       </c>
@@ -15421,8 +16501,11 @@
       <c r="L379" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M379" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="24">
         <v>9061251691</v>
       </c>
@@ -15459,8 +16542,11 @@
       <c r="L380" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M380" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" s="24">
         <v>9744361453</v>
       </c>
@@ -15497,8 +16583,11 @@
       <c r="L381" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M381" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="24">
         <v>9961377027</v>
       </c>
@@ -15535,8 +16624,11 @@
       <c r="L382" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M382" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="24">
         <v>8129584475</v>
       </c>
@@ -15573,8 +16665,11 @@
       <c r="L383" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M383" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="24">
         <v>8547411175</v>
       </c>
@@ -15611,8 +16706,11 @@
       <c r="L384" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M384" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="24">
         <v>9495361487</v>
       </c>
@@ -15649,8 +16747,11 @@
       <c r="L385" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M385" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" s="25">
         <v>7902560332</v>
       </c>
@@ -15687,8 +16788,11 @@
       <c r="L386" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M386" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="24">
         <v>8089261244</v>
       </c>
@@ -15725,8 +16829,11 @@
       <c r="L387" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M387" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="25">
         <v>9605670871</v>
       </c>
@@ -15763,8 +16870,11 @@
       <c r="L388" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M388" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" s="24">
         <v>9526202508</v>
       </c>
@@ -15801,8 +16911,11 @@
       <c r="L389" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M389" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="25">
         <v>9446353811</v>
       </c>
@@ -15839,8 +16952,11 @@
       <c r="L390" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M390" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="25">
         <v>9747597306</v>
       </c>
@@ -15877,8 +16993,11 @@
       <c r="L391" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M391" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="25">
         <v>9207343068</v>
       </c>
@@ -15915,8 +17034,11 @@
       <c r="L392" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M392" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" s="25">
         <v>8281466723</v>
       </c>
@@ -15953,8 +17075,11 @@
       <c r="L393" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M393" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" s="25">
         <v>9605429967</v>
       </c>
@@ -15991,8 +17116,11 @@
       <c r="L394" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M394" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="25">
         <v>9400711744</v>
       </c>
@@ -16028,6 +17156,9 @@
       </c>
       <c r="L395" s="24" t="s">
         <v>13</v>
+      </c>
+      <c r="M395" s="24">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
